--- a/Personal_Fit_Model/nyc_popn.xlsx
+++ b/Personal_Fit_Model/nyc_popn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\realtor-insights\Personal_Fit_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB74F6-8CA3-4A9F-9527-D1F479A1FB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9232FD6-8EB4-4A15-B45F-7D322BCF4354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{81FBC0FE-682C-4D0A-A72B-84E50FF78C15}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Total population</t>
   </si>
@@ -377,30 +377,6 @@
     <t>MN34 East Harlem North</t>
   </si>
   <si>
-    <r>
-      <t>MN01 Marble Hill</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-Inwood</t>
-    </r>
-  </si>
-  <si>
     <t>MN35 Washington Heights North</t>
   </si>
   <si>
@@ -635,14 +611,14 @@
     <t>SI54 Great Kills</t>
   </si>
   <si>
-    <t>BX98 Rikers Island</t>
+    <t>MN01 Marble Hill-Inwood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -670,13 +646,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1099,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB1D75-A1EB-4DBB-8EED-D9B5BD83CC4A}">
-  <dimension ref="A1:O194"/>
+  <dimension ref="A1:O193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195:XFD195"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3742,2775 +3711,2775 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>193</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3">
-        <v>9741</v>
+        <v>30715</v>
       </c>
       <c r="C57" s="3">
-        <v>0</v>
+        <v>2605</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>2769</v>
       </c>
       <c r="E57" s="5">
-        <v>0</v>
+        <v>2396</v>
       </c>
       <c r="F57" s="4">
-        <v>1475</v>
+        <v>3303</v>
       </c>
       <c r="G57" s="4">
-        <v>2051</v>
+        <v>3091</v>
       </c>
       <c r="H57" s="4">
-        <v>2668</v>
+        <v>4214</v>
       </c>
       <c r="I57" s="4">
-        <v>1887</v>
+        <v>3842</v>
       </c>
       <c r="J57" s="4">
-        <v>1281</v>
+        <v>4279</v>
       </c>
       <c r="K57" s="4">
-        <v>227</v>
+        <v>1317</v>
       </c>
       <c r="L57" s="4">
-        <v>96</v>
+        <v>781</v>
       </c>
       <c r="M57" s="4">
-        <v>44</v>
+        <v>1339</v>
       </c>
       <c r="N57" s="4">
-        <v>12</v>
+        <v>575</v>
       </c>
       <c r="O57" s="4">
-        <v>0</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3">
-        <v>30715</v>
+        <v>25783</v>
       </c>
       <c r="C58" s="3">
-        <v>2605</v>
+        <v>2145</v>
       </c>
       <c r="D58" s="3">
-        <v>2769</v>
+        <v>2206</v>
       </c>
       <c r="E58" s="5">
-        <v>2396</v>
+        <v>1675</v>
       </c>
       <c r="F58" s="4">
-        <v>3303</v>
+        <v>3139</v>
       </c>
       <c r="G58" s="4">
-        <v>3091</v>
+        <v>4027</v>
       </c>
       <c r="H58" s="4">
-        <v>4214</v>
+        <v>3284</v>
       </c>
       <c r="I58" s="4">
-        <v>3842</v>
+        <v>3332</v>
       </c>
       <c r="J58" s="4">
-        <v>4279</v>
+        <v>2407</v>
       </c>
       <c r="K58" s="4">
-        <v>1317</v>
+        <v>847</v>
       </c>
       <c r="L58" s="4">
-        <v>781</v>
+        <v>750</v>
       </c>
       <c r="M58" s="4">
-        <v>1339</v>
+        <v>1138</v>
       </c>
       <c r="N58" s="4">
-        <v>575</v>
+        <v>674</v>
       </c>
       <c r="O58" s="4">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>25783</v>
+        <v>41871</v>
       </c>
       <c r="C59" s="3">
-        <v>2145</v>
+        <v>3541</v>
       </c>
       <c r="D59" s="3">
-        <v>2206</v>
+        <v>3477</v>
       </c>
       <c r="E59" s="5">
-        <v>1675</v>
+        <v>3500</v>
       </c>
       <c r="F59" s="4">
-        <v>3139</v>
+        <v>4179</v>
       </c>
       <c r="G59" s="4">
-        <v>4027</v>
+        <v>3995</v>
       </c>
       <c r="H59" s="4">
-        <v>3284</v>
+        <v>5572</v>
       </c>
       <c r="I59" s="4">
-        <v>3332</v>
+        <v>5275</v>
       </c>
       <c r="J59" s="4">
-        <v>2407</v>
+        <v>5255</v>
       </c>
       <c r="K59" s="4">
-        <v>847</v>
+        <v>2138</v>
       </c>
       <c r="L59" s="4">
-        <v>750</v>
+        <v>1570</v>
       </c>
       <c r="M59" s="4">
-        <v>1138</v>
+        <v>1969</v>
       </c>
       <c r="N59" s="4">
-        <v>674</v>
+        <v>1035</v>
       </c>
       <c r="O59" s="4">
-        <v>159</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="3">
-        <v>41871</v>
+        <v>37872</v>
       </c>
       <c r="C60" s="3">
-        <v>3541</v>
+        <v>3045</v>
       </c>
       <c r="D60" s="3">
-        <v>3477</v>
+        <v>2940</v>
       </c>
       <c r="E60" s="5">
-        <v>3500</v>
+        <v>3201</v>
       </c>
       <c r="F60" s="4">
-        <v>4179</v>
+        <v>3738</v>
       </c>
       <c r="G60" s="4">
-        <v>3995</v>
+        <v>3243</v>
       </c>
       <c r="H60" s="4">
-        <v>5572</v>
+        <v>5556</v>
       </c>
       <c r="I60" s="4">
-        <v>5275</v>
+        <v>5060</v>
       </c>
       <c r="J60" s="4">
-        <v>5255</v>
+        <v>4711</v>
       </c>
       <c r="K60" s="4">
-        <v>2138</v>
+        <v>2118</v>
       </c>
       <c r="L60" s="4">
-        <v>1570</v>
+        <v>1289</v>
       </c>
       <c r="M60" s="4">
-        <v>1969</v>
+        <v>1759</v>
       </c>
       <c r="N60" s="4">
-        <v>1035</v>
+        <v>880</v>
       </c>
       <c r="O60" s="4">
-        <v>365</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3">
-        <v>37872</v>
+        <v>20352</v>
       </c>
       <c r="C61" s="3">
-        <v>3045</v>
+        <v>2170</v>
       </c>
       <c r="D61" s="3">
-        <v>2940</v>
+        <v>1727</v>
       </c>
       <c r="E61" s="5">
-        <v>3201</v>
+        <v>1850</v>
       </c>
       <c r="F61" s="4">
-        <v>3738</v>
+        <v>2030</v>
       </c>
       <c r="G61" s="4">
-        <v>3243</v>
+        <v>1452</v>
       </c>
       <c r="H61" s="4">
-        <v>5556</v>
+        <v>2828</v>
       </c>
       <c r="I61" s="4">
-        <v>5060</v>
+        <v>2459</v>
       </c>
       <c r="J61" s="4">
-        <v>4711</v>
+        <v>2536</v>
       </c>
       <c r="K61" s="4">
-        <v>2118</v>
+        <v>932</v>
       </c>
       <c r="L61" s="4">
-        <v>1289</v>
+        <v>638</v>
       </c>
       <c r="M61" s="4">
-        <v>1759</v>
+        <v>1078</v>
       </c>
       <c r="N61" s="4">
-        <v>880</v>
+        <v>521</v>
       </c>
       <c r="O61" s="4">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>20352</v>
+        <v>63504</v>
       </c>
       <c r="C62" s="3">
-        <v>2170</v>
+        <v>4862</v>
       </c>
       <c r="D62" s="3">
-        <v>1727</v>
+        <v>4631</v>
       </c>
       <c r="E62" s="5">
-        <v>1850</v>
+        <v>4689</v>
       </c>
       <c r="F62" s="4">
-        <v>2030</v>
+        <v>5319</v>
       </c>
       <c r="G62" s="4">
-        <v>1452</v>
+        <v>5274</v>
       </c>
       <c r="H62" s="4">
-        <v>2828</v>
+        <v>9679</v>
       </c>
       <c r="I62" s="4">
-        <v>2459</v>
+        <v>8452</v>
       </c>
       <c r="J62" s="4">
-        <v>2536</v>
+        <v>8361</v>
       </c>
       <c r="K62" s="4">
-        <v>932</v>
+        <v>3404</v>
       </c>
       <c r="L62" s="4">
-        <v>638</v>
+        <v>2396</v>
       </c>
       <c r="M62" s="4">
-        <v>1078</v>
+        <v>3898</v>
       </c>
       <c r="N62" s="4">
-        <v>521</v>
+        <v>1857</v>
       </c>
       <c r="O62" s="4">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3">
-        <v>63504</v>
+        <v>37065</v>
       </c>
       <c r="C63" s="3">
-        <v>4862</v>
+        <v>2983</v>
       </c>
       <c r="D63" s="3">
-        <v>4631</v>
+        <v>3589</v>
       </c>
       <c r="E63" s="5">
-        <v>4689</v>
+        <v>2917</v>
       </c>
       <c r="F63" s="4">
-        <v>5319</v>
+        <v>3331</v>
       </c>
       <c r="G63" s="4">
-        <v>5274</v>
+        <v>2782</v>
       </c>
       <c r="H63" s="4">
-        <v>9679</v>
+        <v>5724</v>
       </c>
       <c r="I63" s="4">
-        <v>8452</v>
+        <v>5096</v>
       </c>
       <c r="J63" s="4">
-        <v>8361</v>
+        <v>4771</v>
       </c>
       <c r="K63" s="4">
-        <v>3404</v>
+        <v>1724</v>
       </c>
       <c r="L63" s="4">
-        <v>2396</v>
+        <v>1527</v>
       </c>
       <c r="M63" s="4">
-        <v>3898</v>
+        <v>1613</v>
       </c>
       <c r="N63" s="4">
-        <v>1857</v>
+        <v>835</v>
       </c>
       <c r="O63" s="4">
-        <v>682</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="3">
-        <v>37065</v>
+        <v>39680</v>
       </c>
       <c r="C64" s="3">
-        <v>2983</v>
+        <v>3568</v>
       </c>
       <c r="D64" s="3">
-        <v>3589</v>
+        <v>3083</v>
       </c>
       <c r="E64" s="5">
-        <v>2917</v>
+        <v>3640</v>
       </c>
       <c r="F64" s="4">
-        <v>3331</v>
+        <v>3082</v>
       </c>
       <c r="G64" s="4">
-        <v>2782</v>
+        <v>2901</v>
       </c>
       <c r="H64" s="4">
-        <v>5724</v>
+        <v>6143</v>
       </c>
       <c r="I64" s="4">
-        <v>5096</v>
+        <v>6091</v>
       </c>
       <c r="J64" s="4">
-        <v>4771</v>
+        <v>5098</v>
       </c>
       <c r="K64" s="4">
-        <v>1724</v>
+        <v>2084</v>
       </c>
       <c r="L64" s="4">
-        <v>1527</v>
+        <v>1603</v>
       </c>
       <c r="M64" s="4">
-        <v>1613</v>
+        <v>1546</v>
       </c>
       <c r="N64" s="4">
-        <v>835</v>
+        <v>678</v>
       </c>
       <c r="O64" s="4">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3">
-        <v>39680</v>
+        <v>53944</v>
       </c>
       <c r="C65" s="3">
-        <v>3568</v>
+        <v>4263</v>
       </c>
       <c r="D65" s="3">
-        <v>3083</v>
+        <v>3967</v>
       </c>
       <c r="E65" s="5">
-        <v>3640</v>
+        <v>4233</v>
       </c>
       <c r="F65" s="4">
-        <v>3082</v>
+        <v>4940</v>
       </c>
       <c r="G65" s="4">
-        <v>2901</v>
+        <v>5142</v>
       </c>
       <c r="H65" s="4">
-        <v>6143</v>
+        <v>8102</v>
       </c>
       <c r="I65" s="4">
-        <v>6091</v>
+        <v>6858</v>
       </c>
       <c r="J65" s="4">
-        <v>5098</v>
+        <v>7731</v>
       </c>
       <c r="K65" s="4">
-        <v>2084</v>
+        <v>3050</v>
       </c>
       <c r="L65" s="4">
-        <v>1603</v>
+        <v>2238</v>
       </c>
       <c r="M65" s="4">
-        <v>1546</v>
+        <v>2285</v>
       </c>
       <c r="N65" s="4">
-        <v>678</v>
+        <v>804</v>
       </c>
       <c r="O65" s="4">
-        <v>163</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>53944</v>
+        <v>26336</v>
       </c>
       <c r="C66" s="3">
-        <v>4263</v>
+        <v>2852</v>
       </c>
       <c r="D66" s="3">
-        <v>3967</v>
+        <v>2409</v>
       </c>
       <c r="E66" s="5">
-        <v>4233</v>
+        <v>2212</v>
       </c>
       <c r="F66" s="4">
-        <v>4940</v>
+        <v>2604</v>
       </c>
       <c r="G66" s="4">
-        <v>5142</v>
+        <v>2230</v>
       </c>
       <c r="H66" s="4">
-        <v>8102</v>
+        <v>3929</v>
       </c>
       <c r="I66" s="4">
-        <v>6858</v>
+        <v>3656</v>
       </c>
       <c r="J66" s="4">
-        <v>7731</v>
+        <v>3196</v>
       </c>
       <c r="K66" s="4">
-        <v>3050</v>
+        <v>913</v>
       </c>
       <c r="L66" s="4">
-        <v>2238</v>
+        <v>844</v>
       </c>
       <c r="M66" s="4">
-        <v>2285</v>
+        <v>870</v>
       </c>
       <c r="N66" s="4">
-        <v>804</v>
+        <v>537</v>
       </c>
       <c r="O66" s="4">
-        <v>331</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3">
-        <v>26336</v>
+        <v>52237</v>
       </c>
       <c r="C67" s="3">
-        <v>2852</v>
+        <v>4405</v>
       </c>
       <c r="D67" s="3">
-        <v>2409</v>
+        <v>3813</v>
       </c>
       <c r="E67" s="5">
-        <v>2212</v>
+        <v>3756</v>
       </c>
       <c r="F67" s="4">
-        <v>2604</v>
+        <v>5049</v>
       </c>
       <c r="G67" s="4">
-        <v>2230</v>
+        <v>4468</v>
       </c>
       <c r="H67" s="4">
-        <v>3929</v>
+        <v>7709</v>
       </c>
       <c r="I67" s="4">
-        <v>3656</v>
+        <v>7378</v>
       </c>
       <c r="J67" s="4">
-        <v>3196</v>
+        <v>7764</v>
       </c>
       <c r="K67" s="4">
-        <v>913</v>
+        <v>2471</v>
       </c>
       <c r="L67" s="4">
-        <v>844</v>
+        <v>1794</v>
       </c>
       <c r="M67" s="4">
-        <v>870</v>
+        <v>2311</v>
       </c>
       <c r="N67" s="4">
-        <v>537</v>
+        <v>1002</v>
       </c>
       <c r="O67" s="4">
-        <v>84</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="3">
-        <v>52237</v>
+        <v>52591</v>
       </c>
       <c r="C68" s="3">
-        <v>4405</v>
+        <v>4280</v>
       </c>
       <c r="D68" s="3">
-        <v>3813</v>
+        <v>3995</v>
       </c>
       <c r="E68" s="5">
-        <v>3756</v>
+        <v>4273</v>
       </c>
       <c r="F68" s="4">
-        <v>5049</v>
+        <v>4087</v>
       </c>
       <c r="G68" s="4">
-        <v>4468</v>
+        <v>4111</v>
       </c>
       <c r="H68" s="4">
-        <v>7709</v>
+        <v>8646</v>
       </c>
       <c r="I68" s="4">
-        <v>7378</v>
+        <v>7584</v>
       </c>
       <c r="J68" s="4">
-        <v>7764</v>
+        <v>7444</v>
       </c>
       <c r="K68" s="4">
-        <v>2471</v>
+        <v>2393</v>
       </c>
       <c r="L68" s="4">
-        <v>1794</v>
+        <v>2031</v>
       </c>
       <c r="M68" s="4">
-        <v>2311</v>
+        <v>2496</v>
       </c>
       <c r="N68" s="4">
-        <v>1002</v>
+        <v>901</v>
       </c>
       <c r="O68" s="4">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3">
-        <v>52591</v>
+        <v>30599</v>
       </c>
       <c r="C69" s="3">
-        <v>4280</v>
+        <v>1816</v>
       </c>
       <c r="D69" s="3">
-        <v>3995</v>
+        <v>2227</v>
       </c>
       <c r="E69" s="5">
-        <v>4273</v>
+        <v>2038</v>
       </c>
       <c r="F69" s="4">
-        <v>4087</v>
+        <v>2143</v>
       </c>
       <c r="G69" s="4">
-        <v>4111</v>
+        <v>2709</v>
       </c>
       <c r="H69" s="4">
-        <v>8646</v>
+        <v>5129</v>
       </c>
       <c r="I69" s="4">
-        <v>7584</v>
+        <v>4491</v>
       </c>
       <c r="J69" s="4">
-        <v>7444</v>
+        <v>3818</v>
       </c>
       <c r="K69" s="4">
-        <v>2393</v>
+        <v>1510</v>
       </c>
       <c r="L69" s="4">
-        <v>2031</v>
+        <v>1482</v>
       </c>
       <c r="M69" s="4">
-        <v>2496</v>
+        <v>1542</v>
       </c>
       <c r="N69" s="4">
-        <v>901</v>
+        <v>986</v>
       </c>
       <c r="O69" s="4">
-        <v>350</v>
+        <v>708</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="3">
-        <v>30599</v>
+        <v>41217</v>
       </c>
       <c r="C70" s="3">
-        <v>1816</v>
+        <v>4087</v>
       </c>
       <c r="D70" s="3">
-        <v>2227</v>
+        <v>2774</v>
       </c>
       <c r="E70" s="5">
-        <v>2038</v>
+        <v>3221</v>
       </c>
       <c r="F70" s="4">
-        <v>2143</v>
+        <v>2725</v>
       </c>
       <c r="G70" s="4">
-        <v>2709</v>
+        <v>3578</v>
       </c>
       <c r="H70" s="4">
-        <v>5129</v>
+        <v>7427</v>
       </c>
       <c r="I70" s="4">
-        <v>4491</v>
+        <v>6080</v>
       </c>
       <c r="J70" s="4">
-        <v>3818</v>
+        <v>4681</v>
       </c>
       <c r="K70" s="4">
-        <v>1510</v>
+        <v>1679</v>
       </c>
       <c r="L70" s="4">
-        <v>1482</v>
+        <v>1363</v>
       </c>
       <c r="M70" s="4">
-        <v>1542</v>
+        <v>1943</v>
       </c>
       <c r="N70" s="4">
-        <v>986</v>
+        <v>1093</v>
       </c>
       <c r="O70" s="4">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3">
-        <v>41217</v>
+        <v>26839</v>
       </c>
       <c r="C71" s="3">
-        <v>4087</v>
+        <v>1634</v>
       </c>
       <c r="D71" s="3">
-        <v>2774</v>
+        <v>1260</v>
       </c>
       <c r="E71" s="5">
-        <v>3221</v>
+        <v>1178</v>
       </c>
       <c r="F71" s="4">
-        <v>2725</v>
+        <v>2110</v>
       </c>
       <c r="G71" s="4">
-        <v>3578</v>
+        <v>2198</v>
       </c>
       <c r="H71" s="4">
-        <v>7427</v>
+        <v>2814</v>
       </c>
       <c r="I71" s="4">
-        <v>6080</v>
+        <v>3283</v>
       </c>
       <c r="J71" s="4">
-        <v>4681</v>
+        <v>3525</v>
       </c>
       <c r="K71" s="4">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="L71" s="4">
-        <v>1363</v>
+        <v>1450</v>
       </c>
       <c r="M71" s="4">
-        <v>1943</v>
+        <v>2399</v>
       </c>
       <c r="N71" s="4">
-        <v>1093</v>
+        <v>1987</v>
       </c>
       <c r="O71" s="4">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>26839</v>
+        <v>49715</v>
       </c>
       <c r="C72" s="3">
-        <v>1634</v>
+        <v>3331</v>
       </c>
       <c r="D72" s="3">
-        <v>1260</v>
+        <v>3232</v>
       </c>
       <c r="E72" s="5">
-        <v>1178</v>
+        <v>3167</v>
       </c>
       <c r="F72" s="4">
-        <v>2110</v>
+        <v>3754</v>
       </c>
       <c r="G72" s="4">
-        <v>2198</v>
+        <v>4447</v>
       </c>
       <c r="H72" s="4">
-        <v>2814</v>
+        <v>7302</v>
       </c>
       <c r="I72" s="4">
-        <v>3283</v>
+        <v>6488</v>
       </c>
       <c r="J72" s="4">
-        <v>3525</v>
+        <v>7166</v>
       </c>
       <c r="K72" s="4">
-        <v>1671</v>
+        <v>3128</v>
       </c>
       <c r="L72" s="4">
-        <v>1450</v>
+        <v>2218</v>
       </c>
       <c r="M72" s="4">
-        <v>2399</v>
+        <v>2834</v>
       </c>
       <c r="N72" s="4">
-        <v>1987</v>
+        <v>1654</v>
       </c>
       <c r="O72" s="4">
-        <v>1330</v>
+        <v>994</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3">
-        <v>49715</v>
+        <v>29848</v>
       </c>
       <c r="C73" s="3">
-        <v>3331</v>
+        <v>2101</v>
       </c>
       <c r="D73" s="3">
-        <v>3232</v>
+        <v>1287</v>
       </c>
       <c r="E73" s="5">
-        <v>3167</v>
+        <v>1534</v>
       </c>
       <c r="F73" s="4">
-        <v>3754</v>
+        <v>1368</v>
       </c>
       <c r="G73" s="4">
-        <v>4447</v>
+        <v>1506</v>
       </c>
       <c r="H73" s="4">
-        <v>7302</v>
+        <v>4163</v>
       </c>
       <c r="I73" s="4">
-        <v>6488</v>
+        <v>4433</v>
       </c>
       <c r="J73" s="4">
-        <v>7166</v>
+        <v>3624</v>
       </c>
       <c r="K73" s="4">
-        <v>3128</v>
+        <v>1937</v>
       </c>
       <c r="L73" s="4">
-        <v>2218</v>
+        <v>1992</v>
       </c>
       <c r="M73" s="4">
-        <v>2834</v>
+        <v>2524</v>
       </c>
       <c r="N73" s="4">
-        <v>1654</v>
+        <v>2053</v>
       </c>
       <c r="O73" s="4">
-        <v>994</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="3">
-        <v>29848</v>
+        <v>35325</v>
       </c>
       <c r="C74" s="3">
-        <v>2101</v>
+        <v>3281</v>
       </c>
       <c r="D74" s="3">
-        <v>1287</v>
+        <v>2360</v>
       </c>
       <c r="E74" s="5">
-        <v>1534</v>
+        <v>2555</v>
       </c>
       <c r="F74" s="4">
-        <v>1368</v>
+        <v>2551</v>
       </c>
       <c r="G74" s="4">
-        <v>1506</v>
+        <v>3031</v>
       </c>
       <c r="H74" s="4">
-        <v>4163</v>
+        <v>6467</v>
       </c>
       <c r="I74" s="4">
-        <v>4433</v>
+        <v>4169</v>
       </c>
       <c r="J74" s="4">
-        <v>3624</v>
+        <v>4846</v>
       </c>
       <c r="K74" s="4">
-        <v>1937</v>
+        <v>1733</v>
       </c>
       <c r="L74" s="4">
-        <v>1992</v>
+        <v>1331</v>
       </c>
       <c r="M74" s="4">
-        <v>2524</v>
+        <v>1726</v>
       </c>
       <c r="N74" s="4">
-        <v>2053</v>
+        <v>980</v>
       </c>
       <c r="O74" s="4">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3">
-        <v>35325</v>
+        <v>53800</v>
       </c>
       <c r="C75" s="3">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="D75" s="3">
-        <v>2360</v>
+        <v>3542</v>
       </c>
       <c r="E75" s="5">
-        <v>2555</v>
+        <v>3752</v>
       </c>
       <c r="F75" s="4">
-        <v>2551</v>
+        <v>4732</v>
       </c>
       <c r="G75" s="4">
-        <v>3031</v>
+        <v>4439</v>
       </c>
       <c r="H75" s="4">
-        <v>6467</v>
+        <v>6928</v>
       </c>
       <c r="I75" s="4">
-        <v>4169</v>
+        <v>6845</v>
       </c>
       <c r="J75" s="4">
-        <v>4846</v>
+        <v>7326</v>
       </c>
       <c r="K75" s="4">
-        <v>1733</v>
+        <v>3613</v>
       </c>
       <c r="L75" s="4">
-        <v>1331</v>
+        <v>2571</v>
       </c>
       <c r="M75" s="4">
-        <v>1726</v>
+        <v>4177</v>
       </c>
       <c r="N75" s="4">
-        <v>980</v>
+        <v>1885</v>
       </c>
       <c r="O75" s="4">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3">
-        <v>53800</v>
+        <v>30376</v>
       </c>
       <c r="C76" s="3">
-        <v>3278</v>
+        <v>2274</v>
       </c>
       <c r="D76" s="3">
-        <v>3542</v>
+        <v>2045</v>
       </c>
       <c r="E76" s="5">
-        <v>3752</v>
+        <v>1784</v>
       </c>
       <c r="F76" s="4">
-        <v>4732</v>
+        <v>1569</v>
       </c>
       <c r="G76" s="4">
-        <v>4439</v>
+        <v>1749</v>
       </c>
       <c r="H76" s="4">
-        <v>6928</v>
+        <v>4837</v>
       </c>
       <c r="I76" s="4">
-        <v>6845</v>
+        <v>5103</v>
       </c>
       <c r="J76" s="4">
-        <v>7326</v>
+        <v>4361</v>
       </c>
       <c r="K76" s="4">
-        <v>3613</v>
+        <v>1931</v>
       </c>
       <c r="L76" s="4">
-        <v>2571</v>
+        <v>1334</v>
       </c>
       <c r="M76" s="4">
-        <v>4177</v>
+        <v>2057</v>
       </c>
       <c r="N76" s="4">
-        <v>1885</v>
+        <v>1016</v>
       </c>
       <c r="O76" s="4">
-        <v>712</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3">
-        <v>30376</v>
+        <v>35886</v>
       </c>
       <c r="C77" s="3">
-        <v>2274</v>
+        <v>3072</v>
       </c>
       <c r="D77" s="3">
-        <v>2045</v>
+        <v>2523</v>
       </c>
       <c r="E77" s="5">
-        <v>1784</v>
+        <v>2916</v>
       </c>
       <c r="F77" s="4">
-        <v>1569</v>
+        <v>2848</v>
       </c>
       <c r="G77" s="4">
-        <v>1749</v>
+        <v>3042</v>
       </c>
       <c r="H77" s="4">
-        <v>4837</v>
+        <v>5345</v>
       </c>
       <c r="I77" s="4">
-        <v>5103</v>
+        <v>4288</v>
       </c>
       <c r="J77" s="4">
-        <v>4361</v>
+        <v>4626</v>
       </c>
       <c r="K77" s="4">
-        <v>1931</v>
+        <v>1872</v>
       </c>
       <c r="L77" s="4">
-        <v>1334</v>
+        <v>1734</v>
       </c>
       <c r="M77" s="4">
-        <v>2057</v>
+        <v>2219</v>
       </c>
       <c r="N77" s="4">
-        <v>1016</v>
+        <v>817</v>
       </c>
       <c r="O77" s="4">
-        <v>316</v>
+        <v>584</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3">
-        <v>35886</v>
+        <v>27483</v>
       </c>
       <c r="C78" s="3">
-        <v>3072</v>
+        <v>2016</v>
       </c>
       <c r="D78" s="3">
-        <v>2523</v>
+        <v>1915</v>
       </c>
       <c r="E78" s="5">
-        <v>2916</v>
+        <v>2091</v>
       </c>
       <c r="F78" s="4">
-        <v>2848</v>
+        <v>2862</v>
       </c>
       <c r="G78" s="4">
-        <v>3042</v>
+        <v>1811</v>
       </c>
       <c r="H78" s="4">
-        <v>5345</v>
+        <v>4062</v>
       </c>
       <c r="I78" s="4">
-        <v>4288</v>
+        <v>4570</v>
       </c>
       <c r="J78" s="4">
-        <v>4626</v>
+        <v>3353</v>
       </c>
       <c r="K78" s="4">
-        <v>1872</v>
+        <v>1196</v>
       </c>
       <c r="L78" s="4">
-        <v>1734</v>
+        <v>1322</v>
       </c>
       <c r="M78" s="4">
-        <v>2219</v>
+        <v>1146</v>
       </c>
       <c r="N78" s="4">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="O78" s="4">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3">
-        <v>27483</v>
+        <v>26139</v>
       </c>
       <c r="C79" s="3">
-        <v>2016</v>
+        <v>1108</v>
       </c>
       <c r="D79" s="3">
-        <v>1915</v>
+        <v>1068</v>
       </c>
       <c r="E79" s="5">
-        <v>2091</v>
+        <v>1208</v>
       </c>
       <c r="F79" s="4">
-        <v>2862</v>
+        <v>1428</v>
       </c>
       <c r="G79" s="4">
-        <v>1811</v>
+        <v>1367</v>
       </c>
       <c r="H79" s="4">
-        <v>4062</v>
+        <v>3701</v>
       </c>
       <c r="I79" s="4">
-        <v>4570</v>
+        <v>3580</v>
       </c>
       <c r="J79" s="4">
-        <v>3353</v>
+        <v>4034</v>
       </c>
       <c r="K79" s="4">
-        <v>1196</v>
+        <v>1799</v>
       </c>
       <c r="L79" s="4">
-        <v>1322</v>
+        <v>1521</v>
       </c>
       <c r="M79" s="4">
-        <v>1146</v>
+        <v>2120</v>
       </c>
       <c r="N79" s="4">
-        <v>800</v>
+        <v>2374</v>
       </c>
       <c r="O79" s="4">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>26139</v>
+        <v>44304</v>
       </c>
       <c r="C80" s="3">
-        <v>1108</v>
+        <v>1769</v>
       </c>
       <c r="D80" s="3">
-        <v>1068</v>
+        <v>2185</v>
       </c>
       <c r="E80" s="5">
-        <v>1208</v>
+        <v>2491</v>
       </c>
       <c r="F80" s="4">
-        <v>1428</v>
+        <v>2729</v>
       </c>
       <c r="G80" s="4">
-        <v>1367</v>
+        <v>2751</v>
       </c>
       <c r="H80" s="4">
-        <v>3701</v>
+        <v>4241</v>
       </c>
       <c r="I80" s="4">
-        <v>3580</v>
+        <v>5378</v>
       </c>
       <c r="J80" s="4">
-        <v>4034</v>
+        <v>7427</v>
       </c>
       <c r="K80" s="4">
-        <v>1799</v>
+        <v>3285</v>
       </c>
       <c r="L80" s="4">
-        <v>1521</v>
+        <v>2714</v>
       </c>
       <c r="M80" s="4">
-        <v>2120</v>
+        <v>4805</v>
       </c>
       <c r="N80" s="4">
-        <v>2374</v>
+        <v>3223</v>
       </c>
       <c r="O80" s="4">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3">
-        <v>44304</v>
+        <v>46104</v>
       </c>
       <c r="C81" s="3">
-        <v>1769</v>
+        <v>2308</v>
       </c>
       <c r="D81" s="3">
-        <v>2185</v>
+        <v>2893</v>
       </c>
       <c r="E81" s="5">
-        <v>2491</v>
+        <v>3059</v>
       </c>
       <c r="F81" s="4">
-        <v>2729</v>
+        <v>3213</v>
       </c>
       <c r="G81" s="4">
-        <v>2751</v>
+        <v>3505</v>
       </c>
       <c r="H81" s="4">
-        <v>4241</v>
+        <v>5895</v>
       </c>
       <c r="I81" s="4">
-        <v>5378</v>
+        <v>6263</v>
       </c>
       <c r="J81" s="4">
-        <v>7427</v>
+        <v>6220</v>
       </c>
       <c r="K81" s="4">
-        <v>3285</v>
+        <v>3294</v>
       </c>
       <c r="L81" s="4">
-        <v>2714</v>
+        <v>2387</v>
       </c>
       <c r="M81" s="4">
-        <v>4805</v>
+        <v>3681</v>
       </c>
       <c r="N81" s="4">
-        <v>3223</v>
+        <v>2363</v>
       </c>
       <c r="O81" s="4">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="3">
-        <v>46104</v>
+        <v>33728</v>
       </c>
       <c r="C82" s="3">
-        <v>2308</v>
+        <v>2123</v>
       </c>
       <c r="D82" s="3">
-        <v>2893</v>
+        <v>2090</v>
       </c>
       <c r="E82" s="5">
-        <v>3059</v>
+        <v>1975</v>
       </c>
       <c r="F82" s="4">
-        <v>3213</v>
+        <v>2466</v>
       </c>
       <c r="G82" s="4">
-        <v>3505</v>
+        <v>2354</v>
       </c>
       <c r="H82" s="4">
-        <v>5895</v>
+        <v>5438</v>
       </c>
       <c r="I82" s="4">
-        <v>6263</v>
+        <v>4366</v>
       </c>
       <c r="J82" s="4">
-        <v>6220</v>
+        <v>4883</v>
       </c>
       <c r="K82" s="4">
-        <v>3294</v>
+        <v>2341</v>
       </c>
       <c r="L82" s="4">
-        <v>2387</v>
+        <v>1469</v>
       </c>
       <c r="M82" s="4">
-        <v>3681</v>
+        <v>2206</v>
       </c>
       <c r="N82" s="4">
-        <v>2363</v>
+        <v>1496</v>
       </c>
       <c r="O82" s="4">
-        <v>1023</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3">
-        <v>33728</v>
+        <v>33404</v>
       </c>
       <c r="C83" s="3">
-        <v>2123</v>
+        <v>1758</v>
       </c>
       <c r="D83" s="3">
-        <v>2090</v>
+        <v>1987</v>
       </c>
       <c r="E83" s="5">
-        <v>1975</v>
+        <v>2534</v>
       </c>
       <c r="F83" s="4">
-        <v>2466</v>
+        <v>2239</v>
       </c>
       <c r="G83" s="4">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="H83" s="4">
-        <v>5438</v>
+        <v>3804</v>
       </c>
       <c r="I83" s="4">
-        <v>4366</v>
+        <v>4475</v>
       </c>
       <c r="J83" s="4">
-        <v>4883</v>
+        <v>4676</v>
       </c>
       <c r="K83" s="4">
-        <v>2341</v>
+        <v>2010</v>
       </c>
       <c r="L83" s="4">
-        <v>1469</v>
+        <v>1905</v>
       </c>
       <c r="M83" s="4">
-        <v>2206</v>
+        <v>2444</v>
       </c>
       <c r="N83" s="4">
-        <v>1496</v>
+        <v>1981</v>
       </c>
       <c r="O83" s="4">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3">
-        <v>33404</v>
+        <v>30098</v>
       </c>
       <c r="C84" s="3">
-        <v>1758</v>
+        <v>2359</v>
       </c>
       <c r="D84" s="3">
-        <v>1987</v>
+        <v>1966</v>
       </c>
       <c r="E84" s="5">
-        <v>2534</v>
+        <v>2181</v>
       </c>
       <c r="F84" s="4">
-        <v>2239</v>
+        <v>1996</v>
       </c>
       <c r="G84" s="4">
-        <v>2351</v>
+        <v>2258</v>
       </c>
       <c r="H84" s="4">
-        <v>3804</v>
+        <v>4868</v>
       </c>
       <c r="I84" s="4">
-        <v>4475</v>
+        <v>3902</v>
       </c>
       <c r="J84" s="4">
-        <v>4676</v>
+        <v>3972</v>
       </c>
       <c r="K84" s="4">
-        <v>2010</v>
+        <v>1729</v>
       </c>
       <c r="L84" s="4">
-        <v>1905</v>
+        <v>1435</v>
       </c>
       <c r="M84" s="4">
-        <v>2444</v>
+        <v>1824</v>
       </c>
       <c r="N84" s="4">
-        <v>1981</v>
+        <v>1018</v>
       </c>
       <c r="O84" s="4">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3">
-        <v>30098</v>
+        <v>30191</v>
       </c>
       <c r="C85" s="3">
-        <v>2359</v>
+        <v>2237</v>
       </c>
       <c r="D85" s="3">
-        <v>1966</v>
+        <v>1597</v>
       </c>
       <c r="E85" s="5">
-        <v>2181</v>
+        <v>1571</v>
       </c>
       <c r="F85" s="4">
-        <v>1996</v>
+        <v>1483</v>
       </c>
       <c r="G85" s="4">
-        <v>2258</v>
+        <v>1912</v>
       </c>
       <c r="H85" s="4">
-        <v>4868</v>
+        <v>5119</v>
       </c>
       <c r="I85" s="4">
-        <v>3902</v>
+        <v>4427</v>
       </c>
       <c r="J85" s="4">
-        <v>3972</v>
+        <v>4064</v>
       </c>
       <c r="K85" s="4">
-        <v>1729</v>
+        <v>1766</v>
       </c>
       <c r="L85" s="4">
-        <v>1435</v>
+        <v>1574</v>
       </c>
       <c r="M85" s="4">
-        <v>1824</v>
+        <v>2244</v>
       </c>
       <c r="N85" s="4">
-        <v>1018</v>
+        <v>1294</v>
       </c>
       <c r="O85" s="4">
-        <v>590</v>
+        <v>903</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>30191</v>
+        <v>36676</v>
       </c>
       <c r="C86" s="3">
-        <v>2237</v>
+        <v>2295</v>
       </c>
       <c r="D86" s="3">
-        <v>1597</v>
+        <v>2650</v>
       </c>
       <c r="E86" s="5">
-        <v>1571</v>
+        <v>2814</v>
       </c>
       <c r="F86" s="4">
-        <v>1483</v>
+        <v>3788</v>
       </c>
       <c r="G86" s="4">
-        <v>1912</v>
+        <v>2816</v>
       </c>
       <c r="H86" s="4">
-        <v>5119</v>
+        <v>4534</v>
       </c>
       <c r="I86" s="4">
-        <v>4427</v>
+        <v>4378</v>
       </c>
       <c r="J86" s="4">
-        <v>4064</v>
+        <v>5616</v>
       </c>
       <c r="K86" s="4">
-        <v>1766</v>
+        <v>2410</v>
       </c>
       <c r="L86" s="4">
-        <v>1574</v>
+        <v>1723</v>
       </c>
       <c r="M86" s="4">
-        <v>2244</v>
+        <v>2310</v>
       </c>
       <c r="N86" s="4">
-        <v>1294</v>
+        <v>912</v>
       </c>
       <c r="O86" s="4">
-        <v>903</v>
+        <v>430</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3">
-        <v>36676</v>
+        <v>61503</v>
       </c>
       <c r="C87" s="3">
-        <v>2295</v>
+        <v>4965</v>
       </c>
       <c r="D87" s="3">
-        <v>2650</v>
+        <v>4057</v>
       </c>
       <c r="E87" s="5">
-        <v>2814</v>
+        <v>4894</v>
       </c>
       <c r="F87" s="4">
-        <v>3788</v>
+        <v>4869</v>
       </c>
       <c r="G87" s="4">
-        <v>2816</v>
+        <v>4512</v>
       </c>
       <c r="H87" s="4">
-        <v>4534</v>
+        <v>8393</v>
       </c>
       <c r="I87" s="4">
-        <v>4378</v>
+        <v>8742</v>
       </c>
       <c r="J87" s="4">
-        <v>5616</v>
+        <v>8453</v>
       </c>
       <c r="K87" s="4">
-        <v>2410</v>
+        <v>3219</v>
       </c>
       <c r="L87" s="4">
-        <v>1723</v>
+        <v>2651</v>
       </c>
       <c r="M87" s="4">
-        <v>2310</v>
+        <v>3874</v>
       </c>
       <c r="N87" s="4">
-        <v>912</v>
+        <v>2127</v>
       </c>
       <c r="O87" s="4">
-        <v>430</v>
+        <v>747</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3">
-        <v>61503</v>
+        <v>45805</v>
       </c>
       <c r="C88" s="3">
-        <v>4965</v>
+        <v>3130</v>
       </c>
       <c r="D88" s="3">
-        <v>4057</v>
+        <v>2530</v>
       </c>
       <c r="E88" s="5">
-        <v>4894</v>
+        <v>2973</v>
       </c>
       <c r="F88" s="4">
-        <v>4869</v>
+        <v>3207</v>
       </c>
       <c r="G88" s="4">
-        <v>4512</v>
+        <v>3599</v>
       </c>
       <c r="H88" s="4">
-        <v>8393</v>
+        <v>6428</v>
       </c>
       <c r="I88" s="4">
-        <v>8742</v>
+        <v>6472</v>
       </c>
       <c r="J88" s="4">
-        <v>8453</v>
+        <v>6232</v>
       </c>
       <c r="K88" s="4">
-        <v>3219</v>
+        <v>2913</v>
       </c>
       <c r="L88" s="4">
-        <v>2651</v>
+        <v>2690</v>
       </c>
       <c r="M88" s="4">
-        <v>3874</v>
+        <v>3174</v>
       </c>
       <c r="N88" s="4">
-        <v>2127</v>
+        <v>1627</v>
       </c>
       <c r="O88" s="4">
-        <v>747</v>
+        <v>830</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3">
-        <v>45805</v>
+        <v>1377</v>
       </c>
       <c r="C89" s="3">
-        <v>3130</v>
+        <v>136</v>
       </c>
       <c r="D89" s="3">
-        <v>2530</v>
+        <v>123</v>
       </c>
       <c r="E89" s="5">
-        <v>2973</v>
+        <v>76</v>
       </c>
       <c r="F89" s="4">
-        <v>3207</v>
+        <v>101</v>
       </c>
       <c r="G89" s="4">
-        <v>3599</v>
+        <v>54</v>
       </c>
       <c r="H89" s="4">
-        <v>6428</v>
+        <v>213</v>
       </c>
       <c r="I89" s="4">
-        <v>6472</v>
+        <v>220</v>
       </c>
       <c r="J89" s="4">
-        <v>6232</v>
+        <v>146</v>
       </c>
       <c r="K89" s="4">
-        <v>2913</v>
+        <v>116</v>
       </c>
       <c r="L89" s="4">
-        <v>2690</v>
+        <v>83</v>
       </c>
       <c r="M89" s="4">
-        <v>3174</v>
+        <v>65</v>
       </c>
       <c r="N89" s="4">
-        <v>1627</v>
+        <v>27</v>
       </c>
       <c r="O89" s="4">
-        <v>830</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="3">
-        <v>1377</v>
-      </c>
-      <c r="C90" s="3">
-        <v>136</v>
+        <v>67185</v>
+      </c>
+      <c r="C90" s="8">
+        <v>2200</v>
       </c>
       <c r="D90" s="3">
-        <v>123</v>
-      </c>
-      <c r="E90" s="5">
-        <v>76</v>
+        <v>1775</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1267</v>
       </c>
       <c r="F90" s="4">
-        <v>101</v>
-      </c>
-      <c r="G90" s="4">
-        <v>54</v>
+        <v>3534</v>
+      </c>
+      <c r="G90" s="5">
+        <v>4984</v>
       </c>
       <c r="H90" s="4">
-        <v>213</v>
+        <v>18428</v>
       </c>
       <c r="I90" s="4">
-        <v>220</v>
+        <v>10167</v>
       </c>
       <c r="J90" s="4">
-        <v>146</v>
-      </c>
-      <c r="K90" s="4">
-        <v>116</v>
+        <v>7752</v>
+      </c>
+      <c r="K90" s="5">
+        <v>3859</v>
       </c>
       <c r="L90" s="4">
-        <v>83</v>
+        <v>4291</v>
       </c>
       <c r="M90" s="4">
-        <v>65</v>
+        <v>5178</v>
       </c>
       <c r="N90" s="4">
-        <v>27</v>
-      </c>
-      <c r="O90" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+        <v>2883</v>
+      </c>
+      <c r="O90" s="5">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3">
-        <v>67185</v>
+        <v>40059</v>
       </c>
       <c r="C91" s="8">
-        <v>2200</v>
+        <v>2096</v>
       </c>
       <c r="D91" s="3">
-        <v>1775</v>
+        <v>1332</v>
       </c>
       <c r="E91" s="4">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F91" s="4">
-        <v>3534</v>
+        <v>1227</v>
       </c>
       <c r="G91" s="5">
-        <v>4984</v>
+        <v>4130</v>
       </c>
       <c r="H91" s="4">
-        <v>18428</v>
+        <v>10505</v>
       </c>
       <c r="I91" s="4">
-        <v>10167</v>
+        <v>6104</v>
       </c>
       <c r="J91" s="4">
-        <v>7752</v>
+        <v>4109</v>
       </c>
       <c r="K91" s="5">
-        <v>3859</v>
+        <v>2343</v>
       </c>
       <c r="L91" s="4">
-        <v>4291</v>
+        <v>2501</v>
       </c>
       <c r="M91" s="4">
-        <v>5178</v>
+        <v>2604</v>
       </c>
       <c r="N91" s="4">
-        <v>2883</v>
+        <v>1242</v>
       </c>
       <c r="O91" s="5">
-        <v>867</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="3">
-        <v>40059</v>
+        <v>37506</v>
       </c>
       <c r="C92" s="8">
-        <v>2096</v>
+        <v>2430</v>
       </c>
       <c r="D92" s="3">
-        <v>1332</v>
+        <v>1402</v>
       </c>
       <c r="E92" s="4">
-        <v>1266</v>
+        <v>692</v>
       </c>
       <c r="F92" s="4">
-        <v>1227</v>
+        <v>1165</v>
       </c>
       <c r="G92" s="5">
-        <v>4130</v>
+        <v>3989</v>
       </c>
       <c r="H92" s="4">
-        <v>10505</v>
+        <v>11947</v>
       </c>
       <c r="I92" s="4">
-        <v>6104</v>
+        <v>6710</v>
       </c>
       <c r="J92" s="4">
-        <v>4109</v>
+        <v>4229</v>
       </c>
       <c r="K92" s="5">
-        <v>2343</v>
+        <v>1172</v>
       </c>
       <c r="L92" s="4">
-        <v>2501</v>
+        <v>1400</v>
       </c>
       <c r="M92" s="4">
-        <v>2604</v>
+        <v>1057</v>
       </c>
       <c r="N92" s="4">
-        <v>1242</v>
+        <v>832</v>
       </c>
       <c r="O92" s="5">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="3">
-        <v>37506</v>
-      </c>
-      <c r="C93" s="8">
-        <v>2430</v>
+        <v>43755</v>
+      </c>
+      <c r="C93" s="3">
+        <v>892</v>
       </c>
       <c r="D93" s="3">
-        <v>1402</v>
-      </c>
-      <c r="E93" s="4">
-        <v>692</v>
+        <v>739</v>
+      </c>
+      <c r="E93" s="5">
+        <v>607</v>
       </c>
       <c r="F93" s="4">
-        <v>1165</v>
-      </c>
-      <c r="G93" s="5">
-        <v>3989</v>
+        <v>3751</v>
+      </c>
+      <c r="G93" s="4">
+        <v>5723</v>
       </c>
       <c r="H93" s="4">
-        <v>11947</v>
+        <v>12686</v>
       </c>
       <c r="I93" s="4">
-        <v>6710</v>
+        <v>6280</v>
       </c>
       <c r="J93" s="4">
-        <v>4229</v>
-      </c>
-      <c r="K93" s="5">
-        <v>1172</v>
+        <v>5097</v>
+      </c>
+      <c r="K93" s="4">
+        <v>2250</v>
       </c>
       <c r="L93" s="4">
-        <v>1400</v>
+        <v>1579</v>
       </c>
       <c r="M93" s="4">
-        <v>1057</v>
+        <v>2228</v>
       </c>
       <c r="N93" s="4">
-        <v>832</v>
-      </c>
-      <c r="O93" s="5">
-        <v>481</v>
+        <v>1280</v>
+      </c>
+      <c r="O93" s="4">
+        <v>643</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="3">
-        <v>43755</v>
+        <v>46550</v>
       </c>
       <c r="C94" s="3">
-        <v>892</v>
+        <v>1618</v>
       </c>
       <c r="D94" s="3">
-        <v>739</v>
+        <v>1933</v>
       </c>
       <c r="E94" s="5">
-        <v>607</v>
+        <v>1884</v>
       </c>
       <c r="F94" s="4">
-        <v>3751</v>
+        <v>2010</v>
       </c>
       <c r="G94" s="4">
-        <v>5723</v>
+        <v>4109</v>
       </c>
       <c r="H94" s="4">
-        <v>12686</v>
+        <v>8947</v>
       </c>
       <c r="I94" s="4">
-        <v>6280</v>
+        <v>7403</v>
       </c>
       <c r="J94" s="4">
-        <v>5097</v>
+        <v>6158</v>
       </c>
       <c r="K94" s="4">
-        <v>2250</v>
+        <v>2186</v>
       </c>
       <c r="L94" s="4">
-        <v>1579</v>
+        <v>3109</v>
       </c>
       <c r="M94" s="4">
-        <v>2228</v>
+        <v>3472</v>
       </c>
       <c r="N94" s="4">
-        <v>1280</v>
+        <v>2488</v>
       </c>
       <c r="O94" s="4">
-        <v>643</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3">
-        <v>46550</v>
+        <v>74243</v>
       </c>
       <c r="C95" s="3">
-        <v>1618</v>
+        <v>3205</v>
       </c>
       <c r="D95" s="3">
-        <v>1933</v>
+        <v>2898</v>
       </c>
       <c r="E95" s="5">
-        <v>1884</v>
+        <v>3369</v>
       </c>
       <c r="F95" s="4">
-        <v>2010</v>
+        <v>4325</v>
       </c>
       <c r="G95" s="4">
-        <v>4109</v>
+        <v>5506</v>
       </c>
       <c r="H95" s="4">
-        <v>8947</v>
+        <v>12315</v>
       </c>
       <c r="I95" s="4">
-        <v>7403</v>
+        <v>9964</v>
       </c>
       <c r="J95" s="4">
-        <v>6158</v>
+        <v>10600</v>
       </c>
       <c r="K95" s="4">
-        <v>2186</v>
+        <v>4423</v>
       </c>
       <c r="L95" s="4">
-        <v>3109</v>
+        <v>4761</v>
       </c>
       <c r="M95" s="4">
-        <v>3472</v>
+        <v>6691</v>
       </c>
       <c r="N95" s="4">
-        <v>2488</v>
+        <v>4375</v>
       </c>
       <c r="O95" s="4">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="3">
-        <v>74243</v>
-      </c>
-      <c r="C96" s="3">
-        <v>3205</v>
+        <v>69299</v>
+      </c>
+      <c r="C96" s="8">
+        <v>2758</v>
       </c>
       <c r="D96" s="3">
-        <v>2898</v>
-      </c>
-      <c r="E96" s="5">
-        <v>3369</v>
+        <v>1903</v>
+      </c>
+      <c r="E96" s="4">
+        <v>1140</v>
       </c>
       <c r="F96" s="4">
-        <v>4325</v>
-      </c>
-      <c r="G96" s="4">
-        <v>5506</v>
+        <v>1994</v>
+      </c>
+      <c r="G96" s="5">
+        <v>5256</v>
       </c>
       <c r="H96" s="4">
-        <v>12315</v>
+        <v>17835</v>
       </c>
       <c r="I96" s="4">
-        <v>9964</v>
+        <v>13579</v>
       </c>
       <c r="J96" s="4">
-        <v>10600</v>
-      </c>
-      <c r="K96" s="4">
-        <v>4423</v>
+        <v>9459</v>
+      </c>
+      <c r="K96" s="5">
+        <v>4331</v>
       </c>
       <c r="L96" s="4">
-        <v>4761</v>
+        <v>3497</v>
       </c>
       <c r="M96" s="4">
-        <v>6691</v>
+        <v>4386</v>
       </c>
       <c r="N96" s="4">
-        <v>4375</v>
-      </c>
-      <c r="O96" s="4">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>2107</v>
+      </c>
+      <c r="O96" s="5">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3">
-        <v>69299</v>
+        <v>42931</v>
       </c>
       <c r="C97" s="8">
-        <v>2758</v>
+        <v>1163</v>
       </c>
       <c r="D97" s="3">
-        <v>1903</v>
+        <v>708</v>
       </c>
       <c r="E97" s="4">
-        <v>1140</v>
+        <v>590</v>
       </c>
       <c r="F97" s="4">
-        <v>1994</v>
+        <v>934</v>
       </c>
       <c r="G97" s="5">
-        <v>5256</v>
+        <v>4172</v>
       </c>
       <c r="H97" s="4">
-        <v>17835</v>
+        <v>12188</v>
       </c>
       <c r="I97" s="4">
-        <v>13579</v>
+        <v>7558</v>
       </c>
       <c r="J97" s="4">
-        <v>9459</v>
+        <v>6096</v>
       </c>
       <c r="K97" s="5">
-        <v>4331</v>
+        <v>2880</v>
       </c>
       <c r="L97" s="4">
-        <v>3497</v>
+        <v>1987</v>
       </c>
       <c r="M97" s="4">
-        <v>4386</v>
+        <v>2615</v>
       </c>
       <c r="N97" s="4">
-        <v>2107</v>
+        <v>1443</v>
       </c>
       <c r="O97" s="5">
-        <v>1054</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="3">
-        <v>42931</v>
+        <v>28228</v>
       </c>
       <c r="C98" s="8">
-        <v>1163</v>
+        <v>888</v>
       </c>
       <c r="D98" s="3">
-        <v>708</v>
+        <v>344</v>
       </c>
       <c r="E98" s="4">
-        <v>590</v>
+        <v>335</v>
       </c>
       <c r="F98" s="4">
-        <v>934</v>
+        <v>1326</v>
       </c>
       <c r="G98" s="5">
-        <v>4172</v>
+        <v>2809</v>
       </c>
       <c r="H98" s="4">
-        <v>12188</v>
+        <v>8006</v>
       </c>
       <c r="I98" s="4">
-        <v>7558</v>
+        <v>4441</v>
       </c>
       <c r="J98" s="4">
-        <v>6096</v>
+        <v>3209</v>
       </c>
       <c r="K98" s="5">
-        <v>2880</v>
+        <v>1826</v>
       </c>
       <c r="L98" s="4">
-        <v>1987</v>
+        <v>1647</v>
       </c>
       <c r="M98" s="4">
-        <v>2615</v>
+        <v>2153</v>
       </c>
       <c r="N98" s="4">
-        <v>1443</v>
+        <v>857</v>
       </c>
       <c r="O98" s="5">
-        <v>597</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>28228</v>
-      </c>
-      <c r="C99" s="8">
+        <v>48393</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1935</v>
+      </c>
+      <c r="D99" s="3">
         <v>888</v>
       </c>
-      <c r="D99" s="3">
-        <v>344</v>
-      </c>
-      <c r="E99" s="4">
-        <v>335</v>
+      <c r="E99" s="5">
+        <v>622</v>
       </c>
       <c r="F99" s="4">
-        <v>1326</v>
-      </c>
-      <c r="G99" s="5">
-        <v>2809</v>
+        <v>539</v>
+      </c>
+      <c r="G99" s="4">
+        <v>3815</v>
       </c>
       <c r="H99" s="4">
-        <v>8006</v>
+        <v>12166</v>
       </c>
       <c r="I99" s="4">
-        <v>4441</v>
+        <v>6909</v>
       </c>
       <c r="J99" s="4">
-        <v>3209</v>
-      </c>
-      <c r="K99" s="5">
-        <v>1826</v>
+        <v>6121</v>
+      </c>
+      <c r="K99" s="4">
+        <v>2955</v>
       </c>
       <c r="L99" s="4">
-        <v>1647</v>
+        <v>3316</v>
       </c>
       <c r="M99" s="4">
-        <v>2153</v>
+        <v>4708</v>
       </c>
       <c r="N99" s="4">
-        <v>857</v>
-      </c>
-      <c r="O99" s="5">
-        <v>387</v>
+        <v>3197</v>
+      </c>
+      <c r="O99" s="4">
+        <v>1222</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="3">
-        <v>48393</v>
+        <v>49515</v>
       </c>
       <c r="C100" s="3">
-        <v>1935</v>
+        <v>1890</v>
       </c>
       <c r="D100" s="3">
-        <v>888</v>
+        <v>1079</v>
       </c>
       <c r="E100" s="5">
-        <v>622</v>
+        <v>848</v>
       </c>
       <c r="F100" s="4">
-        <v>539</v>
+        <v>1361</v>
       </c>
       <c r="G100" s="4">
-        <v>3815</v>
+        <v>6779</v>
       </c>
       <c r="H100" s="4">
-        <v>12166</v>
+        <v>14739</v>
       </c>
       <c r="I100" s="4">
-        <v>6909</v>
+        <v>6709</v>
       </c>
       <c r="J100" s="4">
-        <v>6121</v>
+        <v>5443</v>
       </c>
       <c r="K100" s="4">
-        <v>2955</v>
+        <v>2231</v>
       </c>
       <c r="L100" s="4">
-        <v>3316</v>
+        <v>2415</v>
       </c>
       <c r="M100" s="4">
-        <v>4708</v>
+        <v>3464</v>
       </c>
       <c r="N100" s="4">
-        <v>3197</v>
+        <v>1693</v>
       </c>
       <c r="O100" s="4">
-        <v>1222</v>
+        <v>864</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="3">
-        <v>49515</v>
+        <v>26075</v>
       </c>
       <c r="C101" s="3">
-        <v>1890</v>
+        <v>661</v>
       </c>
       <c r="D101" s="3">
-        <v>1079</v>
+        <v>430</v>
       </c>
       <c r="E101" s="5">
-        <v>848</v>
+        <v>332</v>
       </c>
       <c r="F101" s="4">
-        <v>1361</v>
+        <v>988</v>
       </c>
       <c r="G101" s="4">
-        <v>6779</v>
+        <v>2682</v>
       </c>
       <c r="H101" s="4">
-        <v>14739</v>
+        <v>8091</v>
       </c>
       <c r="I101" s="4">
-        <v>6709</v>
+        <v>4351</v>
       </c>
       <c r="J101" s="4">
-        <v>5443</v>
+        <v>3157</v>
       </c>
       <c r="K101" s="4">
-        <v>2231</v>
+        <v>1208</v>
       </c>
       <c r="L101" s="4">
-        <v>2415</v>
+        <v>1102</v>
       </c>
       <c r="M101" s="4">
-        <v>3464</v>
+        <v>1766</v>
       </c>
       <c r="N101" s="4">
-        <v>1693</v>
+        <v>946</v>
       </c>
       <c r="O101" s="4">
-        <v>864</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="3">
-        <v>26075</v>
+        <v>21864</v>
       </c>
       <c r="C102" s="3">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="D102" s="3">
-        <v>430</v>
+        <v>679</v>
       </c>
       <c r="E102" s="5">
-        <v>332</v>
+        <v>479</v>
       </c>
       <c r="F102" s="4">
-        <v>988</v>
+        <v>213</v>
       </c>
       <c r="G102" s="4">
-        <v>2682</v>
+        <v>3310</v>
       </c>
       <c r="H102" s="4">
-        <v>8091</v>
+        <v>4700</v>
       </c>
       <c r="I102" s="4">
-        <v>4351</v>
+        <v>2469</v>
       </c>
       <c r="J102" s="4">
-        <v>3157</v>
+        <v>2469</v>
       </c>
       <c r="K102" s="4">
-        <v>1208</v>
+        <v>1702</v>
       </c>
       <c r="L102" s="4">
-        <v>1102</v>
+        <v>1492</v>
       </c>
       <c r="M102" s="4">
-        <v>1766</v>
+        <v>1633</v>
       </c>
       <c r="N102" s="4">
-        <v>946</v>
+        <v>1226</v>
       </c>
       <c r="O102" s="4">
-        <v>361</v>
+        <v>921</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="3">
-        <v>21864</v>
+        <v>135718</v>
       </c>
       <c r="C103" s="3">
-        <v>571</v>
+        <v>7515</v>
       </c>
       <c r="D103" s="3">
-        <v>679</v>
+        <v>6065</v>
       </c>
       <c r="E103" s="5">
-        <v>479</v>
+        <v>4775</v>
       </c>
       <c r="F103" s="4">
-        <v>213</v>
+        <v>4084</v>
       </c>
       <c r="G103" s="4">
-        <v>3310</v>
+        <v>6682</v>
       </c>
       <c r="H103" s="4">
-        <v>4700</v>
+        <v>25627</v>
       </c>
       <c r="I103" s="4">
-        <v>2469</v>
+        <v>20818</v>
       </c>
       <c r="J103" s="4">
-        <v>2469</v>
+        <v>19450</v>
       </c>
       <c r="K103" s="4">
-        <v>1702</v>
+        <v>9603</v>
       </c>
       <c r="L103" s="4">
-        <v>1492</v>
+        <v>8576</v>
       </c>
       <c r="M103" s="4">
-        <v>1633</v>
+        <v>12336</v>
       </c>
       <c r="N103" s="4">
-        <v>1226</v>
+        <v>6859</v>
       </c>
       <c r="O103" s="4">
-        <v>921</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="3">
-        <v>135718</v>
+        <v>60205</v>
       </c>
       <c r="C104" s="3">
-        <v>7515</v>
+        <v>4608</v>
       </c>
       <c r="D104" s="3">
-        <v>6065</v>
+        <v>1876</v>
       </c>
       <c r="E104" s="5">
-        <v>4775</v>
+        <v>1461</v>
       </c>
       <c r="F104" s="4">
-        <v>4084</v>
+        <v>1815</v>
       </c>
       <c r="G104" s="4">
-        <v>6682</v>
+        <v>2452</v>
       </c>
       <c r="H104" s="4">
-        <v>25627</v>
+        <v>11904</v>
       </c>
       <c r="I104" s="4">
-        <v>20818</v>
+        <v>10631</v>
       </c>
       <c r="J104" s="4">
-        <v>19450</v>
+        <v>7381</v>
       </c>
       <c r="K104" s="4">
-        <v>9603</v>
+        <v>3803</v>
       </c>
       <c r="L104" s="4">
-        <v>8576</v>
+        <v>4117</v>
       </c>
       <c r="M104" s="4">
-        <v>12336</v>
+        <v>4702</v>
       </c>
       <c r="N104" s="4">
-        <v>6859</v>
+        <v>3734</v>
       </c>
       <c r="O104" s="4">
-        <v>3328</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="3">
-        <v>60205</v>
-      </c>
-      <c r="C105" s="3">
-        <v>4608</v>
+        <v>81378</v>
+      </c>
+      <c r="C105" s="8">
+        <v>4997</v>
       </c>
       <c r="D105" s="3">
-        <v>1876</v>
-      </c>
-      <c r="E105" s="5">
-        <v>1461</v>
+        <v>2723</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1591</v>
       </c>
       <c r="F105" s="4">
-        <v>1815</v>
-      </c>
-      <c r="G105" s="4">
-        <v>2452</v>
+        <v>1518</v>
+      </c>
+      <c r="G105" s="5">
+        <v>4786</v>
       </c>
       <c r="H105" s="4">
-        <v>11904</v>
+        <v>21165</v>
       </c>
       <c r="I105" s="4">
-        <v>10631</v>
+        <v>13111</v>
       </c>
       <c r="J105" s="4">
-        <v>7381</v>
-      </c>
-      <c r="K105" s="4">
-        <v>3803</v>
+        <v>9023</v>
+      </c>
+      <c r="K105" s="5">
+        <v>4207</v>
       </c>
       <c r="L105" s="4">
-        <v>4117</v>
+        <v>4743</v>
       </c>
       <c r="M105" s="4">
-        <v>4702</v>
+        <v>7808</v>
       </c>
       <c r="N105" s="4">
-        <v>3734</v>
-      </c>
-      <c r="O105" s="4">
-        <v>1721</v>
+        <v>4070</v>
+      </c>
+      <c r="O105" s="5">
+        <v>1636</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="3">
-        <v>81378</v>
+        <v>77676</v>
       </c>
       <c r="C106" s="8">
-        <v>4997</v>
+        <v>3658</v>
       </c>
       <c r="D106" s="3">
-        <v>2723</v>
+        <v>2408</v>
       </c>
       <c r="E106" s="4">
-        <v>1591</v>
+        <v>2308</v>
       </c>
       <c r="F106" s="4">
-        <v>1518</v>
+        <v>1214</v>
       </c>
       <c r="G106" s="5">
-        <v>4786</v>
+        <v>4898</v>
       </c>
       <c r="H106" s="4">
-        <v>21165</v>
+        <v>20268</v>
       </c>
       <c r="I106" s="4">
-        <v>13111</v>
+        <v>12783</v>
       </c>
       <c r="J106" s="4">
-        <v>9023</v>
+        <v>8920</v>
       </c>
       <c r="K106" s="5">
-        <v>4207</v>
+        <v>5242</v>
       </c>
       <c r="L106" s="4">
-        <v>4743</v>
+        <v>3942</v>
       </c>
       <c r="M106" s="4">
-        <v>7808</v>
+        <v>6337</v>
       </c>
       <c r="N106" s="4">
-        <v>4070</v>
+        <v>3916</v>
       </c>
       <c r="O106" s="5">
-        <v>1636</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="3">
-        <v>77676</v>
+        <v>58834</v>
       </c>
       <c r="C107" s="8">
-        <v>3658</v>
+        <v>2771</v>
       </c>
       <c r="D107" s="3">
-        <v>2408</v>
+        <v>3028</v>
       </c>
       <c r="E107" s="4">
-        <v>2308</v>
+        <v>3300</v>
       </c>
       <c r="F107" s="4">
-        <v>1214</v>
+        <v>2136</v>
       </c>
       <c r="G107" s="5">
-        <v>4898</v>
+        <v>2144</v>
       </c>
       <c r="H107" s="4">
-        <v>20268</v>
+        <v>6725</v>
       </c>
       <c r="I107" s="4">
-        <v>12783</v>
+        <v>7473</v>
       </c>
       <c r="J107" s="4">
-        <v>8920</v>
+        <v>8478</v>
       </c>
       <c r="K107" s="5">
-        <v>5242</v>
+        <v>3835</v>
       </c>
       <c r="L107" s="4">
-        <v>3942</v>
+        <v>4350</v>
       </c>
       <c r="M107" s="4">
-        <v>6337</v>
+        <v>7928</v>
       </c>
       <c r="N107" s="4">
-        <v>3916</v>
+        <v>5058</v>
       </c>
       <c r="O107" s="5">
-        <v>1782</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="3">
-        <v>58834</v>
+        <v>51527</v>
       </c>
       <c r="C108" s="8">
-        <v>2771</v>
+        <v>2926</v>
       </c>
       <c r="D108" s="3">
-        <v>3028</v>
+        <v>2814</v>
       </c>
       <c r="E108" s="4">
-        <v>3300</v>
+        <v>3069</v>
       </c>
       <c r="F108" s="4">
-        <v>2136</v>
+        <v>3360</v>
       </c>
       <c r="G108" s="5">
-        <v>2144</v>
+        <v>4695</v>
       </c>
       <c r="H108" s="4">
-        <v>6725</v>
+        <v>10552</v>
       </c>
       <c r="I108" s="4">
-        <v>7473</v>
+        <v>7629</v>
       </c>
       <c r="J108" s="4">
-        <v>8478</v>
+        <v>6653</v>
       </c>
       <c r="K108" s="5">
-        <v>3835</v>
+        <v>2429</v>
       </c>
       <c r="L108" s="4">
-        <v>4350</v>
+        <v>2035</v>
       </c>
       <c r="M108" s="4">
-        <v>7928</v>
+        <v>3233</v>
       </c>
       <c r="N108" s="4">
-        <v>5058</v>
+        <v>1542</v>
       </c>
       <c r="O108" s="5">
-        <v>1608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="3">
-        <v>51527</v>
+        <v>23845</v>
       </c>
       <c r="C109" s="8">
-        <v>2926</v>
+        <v>1320</v>
       </c>
       <c r="D109" s="3">
-        <v>2814</v>
+        <v>1336</v>
       </c>
       <c r="E109" s="4">
-        <v>3069</v>
+        <v>1524</v>
       </c>
       <c r="F109" s="4">
-        <v>3360</v>
+        <v>1717</v>
       </c>
       <c r="G109" s="5">
-        <v>4695</v>
+        <v>2526</v>
       </c>
       <c r="H109" s="4">
-        <v>10552</v>
+        <v>4619</v>
       </c>
       <c r="I109" s="4">
-        <v>7629</v>
+        <v>3275</v>
       </c>
       <c r="J109" s="4">
-        <v>6653</v>
+        <v>2734</v>
       </c>
       <c r="K109" s="5">
-        <v>2429</v>
+        <v>1138</v>
       </c>
       <c r="L109" s="4">
-        <v>2035</v>
+        <v>1001</v>
       </c>
       <c r="M109" s="4">
-        <v>3233</v>
+        <v>1542</v>
       </c>
       <c r="N109" s="4">
-        <v>1542</v>
+        <v>769</v>
       </c>
       <c r="O109" s="5">
-        <v>590</v>
+        <v>344</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="3">
-        <v>23845</v>
+        <v>54326</v>
       </c>
       <c r="C110" s="8">
-        <v>1320</v>
+        <v>1815</v>
       </c>
       <c r="D110" s="3">
-        <v>1336</v>
+        <v>1424</v>
       </c>
       <c r="E110" s="4">
-        <v>1524</v>
+        <v>1476</v>
       </c>
       <c r="F110" s="4">
-        <v>1717</v>
+        <v>6442</v>
       </c>
       <c r="G110" s="5">
-        <v>2526</v>
+        <v>8937</v>
       </c>
       <c r="H110" s="4">
-        <v>4619</v>
+        <v>11797</v>
       </c>
       <c r="I110" s="4">
-        <v>3275</v>
+        <v>5301</v>
       </c>
       <c r="J110" s="4">
-        <v>2734</v>
+        <v>6071</v>
       </c>
       <c r="K110" s="5">
-        <v>1138</v>
+        <v>2558</v>
       </c>
       <c r="L110" s="4">
-        <v>1001</v>
+        <v>2362</v>
       </c>
       <c r="M110" s="4">
-        <v>1542</v>
+        <v>2952</v>
       </c>
       <c r="N110" s="4">
-        <v>769</v>
+        <v>1962</v>
       </c>
       <c r="O110" s="5">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="3">
-        <v>54326</v>
+        <v>78193</v>
       </c>
       <c r="C111" s="8">
-        <v>1815</v>
+        <v>4467</v>
       </c>
       <c r="D111" s="3">
-        <v>1424</v>
+        <v>4553</v>
       </c>
       <c r="E111" s="4">
-        <v>1476</v>
+        <v>4731</v>
       </c>
       <c r="F111" s="4">
-        <v>6442</v>
+        <v>5742</v>
       </c>
       <c r="G111" s="5">
-        <v>8937</v>
+        <v>6873</v>
       </c>
       <c r="H111" s="4">
-        <v>11797</v>
+        <v>13035</v>
       </c>
       <c r="I111" s="4">
-        <v>5301</v>
+        <v>11705</v>
       </c>
       <c r="J111" s="4">
-        <v>6071</v>
+        <v>10842</v>
       </c>
       <c r="K111" s="5">
-        <v>2558</v>
+        <v>4688</v>
       </c>
       <c r="L111" s="4">
-        <v>2362</v>
+        <v>2906</v>
       </c>
       <c r="M111" s="4">
-        <v>2952</v>
+        <v>4968</v>
       </c>
       <c r="N111" s="4">
-        <v>1962</v>
+        <v>2593</v>
       </c>
       <c r="O111" s="5">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="3">
-        <v>78193</v>
+        <v>46694</v>
       </c>
       <c r="C112" s="8">
-        <v>4467</v>
+        <v>3477</v>
       </c>
       <c r="D112" s="3">
-        <v>4553</v>
+        <v>2583</v>
       </c>
       <c r="E112" s="4">
-        <v>4731</v>
+        <v>2597</v>
       </c>
       <c r="F112" s="4">
-        <v>5742</v>
+        <v>2684</v>
       </c>
       <c r="G112" s="5">
-        <v>6873</v>
+        <v>3946</v>
       </c>
       <c r="H112" s="4">
-        <v>13035</v>
+        <v>9300</v>
       </c>
       <c r="I112" s="4">
-        <v>11705</v>
+        <v>7284</v>
       </c>
       <c r="J112" s="4">
-        <v>10842</v>
+        <v>6449</v>
       </c>
       <c r="K112" s="5">
-        <v>4688</v>
+        <v>2703</v>
       </c>
       <c r="L112" s="4">
-        <v>2906</v>
+        <v>1878</v>
       </c>
       <c r="M112" s="4">
-        <v>4968</v>
+        <v>2115</v>
       </c>
       <c r="N112" s="4">
-        <v>2593</v>
+        <v>1145</v>
       </c>
       <c r="O112" s="5">
-        <v>1090</v>
+        <v>533</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3">
-        <v>46694</v>
+        <v>59794</v>
       </c>
       <c r="C113" s="8">
-        <v>3477</v>
+        <v>3432</v>
       </c>
       <c r="D113" s="3">
-        <v>2583</v>
+        <v>2704</v>
       </c>
       <c r="E113" s="4">
-        <v>2597</v>
+        <v>3398</v>
       </c>
       <c r="F113" s="4">
-        <v>2684</v>
+        <v>4465</v>
       </c>
       <c r="G113" s="5">
-        <v>3946</v>
+        <v>5410</v>
       </c>
       <c r="H113" s="4">
-        <v>9300</v>
+        <v>11246</v>
       </c>
       <c r="I113" s="4">
-        <v>7284</v>
+        <v>7904</v>
       </c>
       <c r="J113" s="4">
-        <v>6449</v>
+        <v>7514</v>
       </c>
       <c r="K113" s="5">
-        <v>2703</v>
+        <v>3151</v>
       </c>
       <c r="L113" s="4">
-        <v>1878</v>
+        <v>3176</v>
       </c>
       <c r="M113" s="4">
-        <v>2115</v>
+        <v>3419</v>
       </c>
       <c r="N113" s="4">
-        <v>1145</v>
+        <v>2917</v>
       </c>
       <c r="O113" s="5">
-        <v>533</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="3">
-        <v>59794</v>
+        <v>60465</v>
       </c>
       <c r="C114" s="8">
-        <v>3432</v>
+        <v>4231</v>
       </c>
       <c r="D114" s="3">
-        <v>2704</v>
+        <v>3780</v>
       </c>
       <c r="E114" s="4">
-        <v>3398</v>
+        <v>4588</v>
       </c>
       <c r="F114" s="4">
-        <v>4465</v>
+        <v>4914</v>
       </c>
       <c r="G114" s="5">
-        <v>5410</v>
+        <v>5888</v>
       </c>
       <c r="H114" s="4">
-        <v>11246</v>
+        <v>10306</v>
       </c>
       <c r="I114" s="4">
-        <v>7904</v>
+        <v>7582</v>
       </c>
       <c r="J114" s="4">
-        <v>7514</v>
+        <v>6800</v>
       </c>
       <c r="K114" s="5">
-        <v>3151</v>
+        <v>3146</v>
       </c>
       <c r="L114" s="4">
-        <v>3176</v>
+        <v>2541</v>
       </c>
       <c r="M114" s="4">
-        <v>3419</v>
+        <v>3520</v>
       </c>
       <c r="N114" s="4">
-        <v>2917</v>
+        <v>2067</v>
       </c>
       <c r="O114" s="5">
-        <v>1058</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="B115" s="3">
-        <v>60465</v>
+        <v>50358</v>
       </c>
       <c r="C115" s="8">
-        <v>4231</v>
+        <v>3203</v>
       </c>
       <c r="D115" s="3">
-        <v>3780</v>
+        <v>2730</v>
       </c>
       <c r="E115" s="4">
-        <v>4588</v>
+        <v>3282</v>
       </c>
       <c r="F115" s="4">
-        <v>4914</v>
+        <v>3036</v>
       </c>
       <c r="G115" s="5">
-        <v>5888</v>
+        <v>3934</v>
       </c>
       <c r="H115" s="4">
-        <v>10306</v>
+        <v>8269</v>
       </c>
       <c r="I115" s="4">
-        <v>7582</v>
+        <v>7647</v>
       </c>
       <c r="J115" s="4">
-        <v>6800</v>
+        <v>7741</v>
       </c>
       <c r="K115" s="5">
-        <v>3146</v>
+        <v>3271</v>
       </c>
       <c r="L115" s="4">
-        <v>2541</v>
+        <v>2373</v>
       </c>
       <c r="M115" s="4">
-        <v>3520</v>
+        <v>3061</v>
       </c>
       <c r="N115" s="4">
-        <v>2067</v>
+        <v>1175</v>
       </c>
       <c r="O115" s="5">
-        <v>1102</v>
+        <v>636</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -6518,46 +6487,46 @@
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <v>50358</v>
+        <v>71085</v>
       </c>
       <c r="C116" s="8">
-        <v>3203</v>
+        <v>3761</v>
       </c>
       <c r="D116" s="3">
-        <v>2730</v>
+        <v>3034</v>
       </c>
       <c r="E116" s="4">
-        <v>3282</v>
+        <v>3793</v>
       </c>
       <c r="F116" s="4">
-        <v>3036</v>
+        <v>4716</v>
       </c>
       <c r="G116" s="5">
-        <v>3934</v>
+        <v>7048</v>
       </c>
       <c r="H116" s="4">
-        <v>8269</v>
+        <v>12389</v>
       </c>
       <c r="I116" s="4">
-        <v>7647</v>
+        <v>9041</v>
       </c>
       <c r="J116" s="4">
-        <v>7741</v>
+        <v>9486</v>
       </c>
       <c r="K116" s="5">
-        <v>3271</v>
+        <v>4420</v>
       </c>
       <c r="L116" s="4">
-        <v>2373</v>
+        <v>4058</v>
       </c>
       <c r="M116" s="4">
-        <v>3061</v>
+        <v>4768</v>
       </c>
       <c r="N116" s="4">
-        <v>1175</v>
+        <v>2982</v>
       </c>
       <c r="O116" s="5">
-        <v>636</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -6565,46 +6534,46 @@
         <v>115</v>
       </c>
       <c r="B117" s="3">
-        <v>71085</v>
+        <v>89551</v>
       </c>
       <c r="C117" s="8">
-        <v>3761</v>
+        <v>4794</v>
       </c>
       <c r="D117" s="3">
-        <v>3034</v>
+        <v>4400</v>
       </c>
       <c r="E117" s="4">
-        <v>3793</v>
+        <v>3964</v>
       </c>
       <c r="F117" s="4">
-        <v>4716</v>
+        <v>5546</v>
       </c>
       <c r="G117" s="5">
-        <v>7048</v>
+        <v>8742</v>
       </c>
       <c r="H117" s="4">
-        <v>12389</v>
+        <v>17365</v>
       </c>
       <c r="I117" s="4">
-        <v>9041</v>
+        <v>12827</v>
       </c>
       <c r="J117" s="4">
-        <v>9486</v>
+        <v>11477</v>
       </c>
       <c r="K117" s="5">
-        <v>4420</v>
+        <v>5603</v>
       </c>
       <c r="L117" s="4">
-        <v>4058</v>
+        <v>4357</v>
       </c>
       <c r="M117" s="4">
-        <v>4768</v>
+        <v>5645</v>
       </c>
       <c r="N117" s="4">
-        <v>2982</v>
+        <v>3109</v>
       </c>
       <c r="O117" s="5">
-        <v>1589</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -6612,140 +6581,140 @@
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <v>89551</v>
+        <v>1483</v>
       </c>
       <c r="C118" s="8">
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="D118" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="E118" s="4">
-        <v>3964</v>
+        <v>3</v>
       </c>
       <c r="F118" s="4">
-        <v>5546</v>
+        <v>8</v>
       </c>
       <c r="G118" s="5">
-        <v>8742</v>
+        <v>49</v>
       </c>
       <c r="H118" s="4">
-        <v>17365</v>
+        <v>340</v>
       </c>
       <c r="I118" s="4">
-        <v>12827</v>
+        <v>291</v>
       </c>
       <c r="J118" s="4">
-        <v>11477</v>
+        <v>402</v>
       </c>
       <c r="K118" s="5">
-        <v>5603</v>
+        <v>190</v>
       </c>
       <c r="L118" s="4">
-        <v>4357</v>
+        <v>94</v>
       </c>
       <c r="M118" s="4">
-        <v>5645</v>
+        <v>48</v>
       </c>
       <c r="N118" s="4">
-        <v>3109</v>
+        <v>43</v>
       </c>
       <c r="O118" s="5">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="3">
-        <v>1483</v>
+        <v>18539</v>
       </c>
       <c r="C119" s="8">
-        <v>0</v>
+        <v>1128</v>
       </c>
       <c r="D119" s="3">
-        <v>0</v>
+        <v>1313</v>
       </c>
       <c r="E119" s="4">
-        <v>3</v>
+        <v>1464</v>
       </c>
       <c r="F119" s="4">
-        <v>8</v>
+        <v>1324</v>
       </c>
       <c r="G119" s="5">
-        <v>49</v>
+        <v>1681</v>
       </c>
       <c r="H119" s="4">
-        <v>340</v>
+        <v>2897</v>
       </c>
       <c r="I119" s="4">
-        <v>291</v>
+        <v>2777</v>
       </c>
       <c r="J119" s="4">
-        <v>402</v>
+        <v>2477</v>
       </c>
       <c r="K119" s="5">
-        <v>190</v>
+        <v>1026</v>
       </c>
       <c r="L119" s="4">
-        <v>94</v>
+        <v>835</v>
       </c>
       <c r="M119" s="4">
-        <v>48</v>
+        <v>960</v>
       </c>
       <c r="N119" s="4">
-        <v>43</v>
+        <v>498</v>
       </c>
       <c r="O119" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <v>18539</v>
+        <v>75149</v>
       </c>
       <c r="C120" s="8">
-        <v>1128</v>
+        <v>2968</v>
       </c>
       <c r="D120" s="3">
-        <v>1313</v>
+        <v>2710</v>
       </c>
       <c r="E120" s="4">
-        <v>1464</v>
+        <v>2776</v>
       </c>
       <c r="F120" s="4">
-        <v>1324</v>
+        <v>3052</v>
       </c>
       <c r="G120" s="5">
-        <v>1681</v>
+        <v>6372</v>
       </c>
       <c r="H120" s="4">
-        <v>2897</v>
+        <v>19363</v>
       </c>
       <c r="I120" s="4">
-        <v>2777</v>
+        <v>11800</v>
       </c>
       <c r="J120" s="4">
-        <v>2477</v>
+        <v>9419</v>
       </c>
       <c r="K120" s="5">
-        <v>1026</v>
+        <v>3756</v>
       </c>
       <c r="L120" s="4">
-        <v>835</v>
+        <v>3168</v>
       </c>
       <c r="M120" s="4">
-        <v>960</v>
+        <v>5191</v>
       </c>
       <c r="N120" s="4">
-        <v>498</v>
+        <v>3330</v>
       </c>
       <c r="O120" s="5">
-        <v>159</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -6753,46 +6722,46 @@
         <v>119</v>
       </c>
       <c r="B121" s="3">
-        <v>75149</v>
+        <v>26470</v>
       </c>
       <c r="C121" s="8">
-        <v>2968</v>
+        <v>1492</v>
       </c>
       <c r="D121" s="3">
-        <v>2710</v>
+        <v>959</v>
       </c>
       <c r="E121" s="4">
-        <v>2776</v>
+        <v>1075</v>
       </c>
       <c r="F121" s="4">
-        <v>3052</v>
+        <v>1526</v>
       </c>
       <c r="G121" s="5">
-        <v>6372</v>
+        <v>2622</v>
       </c>
       <c r="H121" s="4">
-        <v>19363</v>
+        <v>6588</v>
       </c>
       <c r="I121" s="4">
-        <v>11800</v>
+        <v>4242</v>
       </c>
       <c r="J121" s="4">
-        <v>9419</v>
+        <v>3227</v>
       </c>
       <c r="K121" s="5">
-        <v>3756</v>
+        <v>1239</v>
       </c>
       <c r="L121" s="4">
-        <v>3168</v>
+        <v>822</v>
       </c>
       <c r="M121" s="4">
-        <v>5191</v>
+        <v>1439</v>
       </c>
       <c r="N121" s="4">
-        <v>3330</v>
+        <v>1004</v>
       </c>
       <c r="O121" s="5">
-        <v>1244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -6800,46 +6769,46 @@
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <v>26470</v>
+        <v>49001</v>
       </c>
       <c r="C122" s="8">
-        <v>1492</v>
+        <v>2244</v>
       </c>
       <c r="D122" s="3">
-        <v>959</v>
+        <v>1795</v>
       </c>
       <c r="E122" s="4">
-        <v>1075</v>
+        <v>1932</v>
       </c>
       <c r="F122" s="4">
-        <v>1526</v>
+        <v>2004</v>
       </c>
       <c r="G122" s="5">
-        <v>2622</v>
+        <v>3733</v>
       </c>
       <c r="H122" s="4">
-        <v>6588</v>
+        <v>12344</v>
       </c>
       <c r="I122" s="4">
-        <v>4242</v>
+        <v>7178</v>
       </c>
       <c r="J122" s="4">
-        <v>3227</v>
+        <v>6166</v>
       </c>
       <c r="K122" s="5">
-        <v>1239</v>
+        <v>2634</v>
       </c>
       <c r="L122" s="4">
-        <v>822</v>
+        <v>2536</v>
       </c>
       <c r="M122" s="4">
-        <v>1439</v>
+        <v>3272</v>
       </c>
       <c r="N122" s="4">
-        <v>1004</v>
+        <v>2280</v>
       </c>
       <c r="O122" s="5">
-        <v>235</v>
+        <v>883</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -6847,140 +6816,140 @@
         <v>121</v>
       </c>
       <c r="B123" s="3">
-        <v>49001</v>
+        <v>438</v>
       </c>
       <c r="C123" s="8">
-        <v>2244</v>
+        <v>24</v>
       </c>
       <c r="D123" s="3">
-        <v>1795</v>
+        <v>19</v>
       </c>
       <c r="E123" s="4">
-        <v>1932</v>
+        <v>18</v>
       </c>
       <c r="F123" s="4">
-        <v>2004</v>
+        <v>28</v>
       </c>
       <c r="G123" s="5">
-        <v>3733</v>
+        <v>26</v>
       </c>
       <c r="H123" s="4">
-        <v>12344</v>
+        <v>47</v>
       </c>
       <c r="I123" s="4">
-        <v>7178</v>
+        <v>20</v>
       </c>
       <c r="J123" s="4">
-        <v>6166</v>
+        <v>89</v>
       </c>
       <c r="K123" s="5">
-        <v>2634</v>
+        <v>27</v>
       </c>
       <c r="L123" s="4">
-        <v>2536</v>
+        <v>17</v>
       </c>
       <c r="M123" s="4">
-        <v>3272</v>
+        <v>22</v>
       </c>
       <c r="N123" s="4">
-        <v>2280</v>
+        <v>48</v>
       </c>
       <c r="O123" s="5">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <v>438</v>
+        <v>60575</v>
       </c>
       <c r="C124" s="8">
-        <v>24</v>
+        <v>3345</v>
       </c>
       <c r="D124" s="3">
-        <v>19</v>
+        <v>2385</v>
       </c>
       <c r="E124" s="4">
-        <v>18</v>
+        <v>2112</v>
       </c>
       <c r="F124" s="4">
-        <v>28</v>
+        <v>2369</v>
       </c>
       <c r="G124" s="5">
-        <v>26</v>
+        <v>4276</v>
       </c>
       <c r="H124" s="4">
-        <v>47</v>
+        <v>15344</v>
       </c>
       <c r="I124" s="4">
-        <v>20</v>
+        <v>10886</v>
       </c>
       <c r="J124" s="4">
-        <v>89</v>
+        <v>7535</v>
       </c>
       <c r="K124" s="5">
-        <v>27</v>
+        <v>3383</v>
       </c>
       <c r="L124" s="4">
-        <v>17</v>
+        <v>2798</v>
       </c>
       <c r="M124" s="4">
-        <v>22</v>
+        <v>3855</v>
       </c>
       <c r="N124" s="4">
-        <v>48</v>
+        <v>1692</v>
       </c>
       <c r="O124" s="5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="3">
-        <v>60575</v>
+        <v>25088</v>
       </c>
       <c r="C125" s="8">
-        <v>3345</v>
+        <v>1267</v>
       </c>
       <c r="D125" s="3">
-        <v>2385</v>
+        <v>1304</v>
       </c>
       <c r="E125" s="4">
-        <v>2112</v>
+        <v>1092</v>
       </c>
       <c r="F125" s="4">
-        <v>2369</v>
+        <v>1263</v>
       </c>
       <c r="G125" s="5">
-        <v>4276</v>
+        <v>1467</v>
       </c>
       <c r="H125" s="4">
-        <v>15344</v>
+        <v>4933</v>
       </c>
       <c r="I125" s="4">
-        <v>10886</v>
+        <v>4354</v>
       </c>
       <c r="J125" s="4">
-        <v>7535</v>
+        <v>3580</v>
       </c>
       <c r="K125" s="5">
-        <v>3383</v>
+        <v>1448</v>
       </c>
       <c r="L125" s="4">
-        <v>2798</v>
+        <v>1476</v>
       </c>
       <c r="M125" s="4">
-        <v>3855</v>
+        <v>1559</v>
       </c>
       <c r="N125" s="4">
-        <v>1692</v>
+        <v>1064</v>
       </c>
       <c r="O125" s="5">
-        <v>595</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -6988,46 +6957,46 @@
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <v>25088</v>
+        <v>45259</v>
       </c>
       <c r="C126" s="8">
-        <v>1267</v>
+        <v>2417</v>
       </c>
       <c r="D126" s="3">
-        <v>1304</v>
+        <v>2307</v>
       </c>
       <c r="E126" s="4">
-        <v>1092</v>
+        <v>2238</v>
       </c>
       <c r="F126" s="4">
-        <v>1263</v>
+        <v>2164</v>
       </c>
       <c r="G126" s="5">
-        <v>1467</v>
+        <v>3294</v>
       </c>
       <c r="H126" s="4">
-        <v>4933</v>
+        <v>9394</v>
       </c>
       <c r="I126" s="4">
-        <v>4354</v>
+        <v>7566</v>
       </c>
       <c r="J126" s="4">
-        <v>3580</v>
+        <v>5468</v>
       </c>
       <c r="K126" s="5">
-        <v>1448</v>
+        <v>2455</v>
       </c>
       <c r="L126" s="4">
-        <v>1476</v>
+        <v>2516</v>
       </c>
       <c r="M126" s="4">
-        <v>1559</v>
+        <v>2920</v>
       </c>
       <c r="N126" s="4">
-        <v>1064</v>
+        <v>1629</v>
       </c>
       <c r="O126" s="5">
-        <v>281</v>
+        <v>891</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -7035,46 +7004,46 @@
         <v>125</v>
       </c>
       <c r="B127" s="3">
-        <v>45259</v>
+        <v>50295</v>
       </c>
       <c r="C127" s="8">
-        <v>2417</v>
+        <v>4500</v>
       </c>
       <c r="D127" s="3">
-        <v>2307</v>
+        <v>3489</v>
       </c>
       <c r="E127" s="4">
-        <v>2238</v>
+        <v>2610</v>
       </c>
       <c r="F127" s="4">
-        <v>2164</v>
+        <v>2824</v>
       </c>
       <c r="G127" s="5">
-        <v>3294</v>
+        <v>5171</v>
       </c>
       <c r="H127" s="4">
-        <v>9394</v>
+        <v>11788</v>
       </c>
       <c r="I127" s="4">
-        <v>7566</v>
+        <v>9364</v>
       </c>
       <c r="J127" s="4">
-        <v>5468</v>
+        <v>5034</v>
       </c>
       <c r="K127" s="5">
-        <v>2455</v>
+        <v>1707</v>
       </c>
       <c r="L127" s="4">
-        <v>2516</v>
+        <v>1199</v>
       </c>
       <c r="M127" s="4">
-        <v>2920</v>
+        <v>1630</v>
       </c>
       <c r="N127" s="4">
-        <v>1629</v>
+        <v>678</v>
       </c>
       <c r="O127" s="5">
-        <v>891</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -7082,46 +7051,46 @@
         <v>126</v>
       </c>
       <c r="B128" s="3">
-        <v>50295</v>
+        <v>23070</v>
       </c>
       <c r="C128" s="8">
-        <v>4500</v>
+        <v>1741</v>
       </c>
       <c r="D128" s="3">
-        <v>3489</v>
+        <v>1442</v>
       </c>
       <c r="E128" s="4">
-        <v>2610</v>
+        <v>1320</v>
       </c>
       <c r="F128" s="4">
-        <v>2824</v>
+        <v>1566</v>
       </c>
       <c r="G128" s="5">
-        <v>5171</v>
+        <v>1917</v>
       </c>
       <c r="H128" s="4">
-        <v>11788</v>
+        <v>4243</v>
       </c>
       <c r="I128" s="4">
-        <v>9364</v>
+        <v>3774</v>
       </c>
       <c r="J128" s="4">
-        <v>5034</v>
+        <v>2878</v>
       </c>
       <c r="K128" s="5">
-        <v>1707</v>
+        <v>1170</v>
       </c>
       <c r="L128" s="4">
-        <v>1199</v>
+        <v>839</v>
       </c>
       <c r="M128" s="4">
-        <v>1630</v>
+        <v>1063</v>
       </c>
       <c r="N128" s="4">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="O128" s="5">
-        <v>301</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -7129,46 +7098,46 @@
         <v>127</v>
       </c>
       <c r="B129" s="3">
-        <v>23070</v>
+        <v>105188</v>
       </c>
       <c r="C129" s="8">
-        <v>1741</v>
+        <v>6142</v>
       </c>
       <c r="D129" s="3">
-        <v>1442</v>
+        <v>5182</v>
       </c>
       <c r="E129" s="4">
-        <v>1320</v>
+        <v>5310</v>
       </c>
       <c r="F129" s="4">
-        <v>1566</v>
+        <v>6407</v>
       </c>
       <c r="G129" s="5">
-        <v>1917</v>
+        <v>8405</v>
       </c>
       <c r="H129" s="4">
-        <v>4243</v>
+        <v>17538</v>
       </c>
       <c r="I129" s="4">
-        <v>3774</v>
+        <v>16273</v>
       </c>
       <c r="J129" s="4">
-        <v>2878</v>
+        <v>16298</v>
       </c>
       <c r="K129" s="5">
-        <v>1170</v>
+        <v>6446</v>
       </c>
       <c r="L129" s="4">
-        <v>839</v>
+        <v>5326</v>
       </c>
       <c r="M129" s="4">
-        <v>1063</v>
+        <v>6215</v>
       </c>
       <c r="N129" s="4">
-        <v>765</v>
+        <v>4052</v>
       </c>
       <c r="O129" s="5">
-        <v>352</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -7176,46 +7145,46 @@
         <v>128</v>
       </c>
       <c r="B130" s="3">
-        <v>105188</v>
+        <v>54091</v>
       </c>
       <c r="C130" s="8">
-        <v>6142</v>
+        <v>4115</v>
       </c>
       <c r="D130" s="3">
-        <v>5182</v>
+        <v>3906</v>
       </c>
       <c r="E130" s="4">
-        <v>5310</v>
+        <v>2996</v>
       </c>
       <c r="F130" s="4">
-        <v>6407</v>
+        <v>3843</v>
       </c>
       <c r="G130" s="5">
-        <v>8405</v>
+        <v>4154</v>
       </c>
       <c r="H130" s="4">
-        <v>17538</v>
+        <v>9410</v>
       </c>
       <c r="I130" s="4">
-        <v>16273</v>
+        <v>8296</v>
       </c>
       <c r="J130" s="4">
-        <v>16298</v>
+        <v>6826</v>
       </c>
       <c r="K130" s="5">
-        <v>6446</v>
+        <v>2973</v>
       </c>
       <c r="L130" s="4">
-        <v>5326</v>
+        <v>2264</v>
       </c>
       <c r="M130" s="4">
-        <v>6215</v>
+        <v>2640</v>
       </c>
       <c r="N130" s="4">
-        <v>4052</v>
+        <v>2032</v>
       </c>
       <c r="O130" s="5">
-        <v>1594</v>
+        <v>636</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -7223,46 +7192,46 @@
         <v>129</v>
       </c>
       <c r="B131" s="3">
-        <v>54091</v>
+        <v>84904</v>
       </c>
       <c r="C131" s="8">
-        <v>4115</v>
+        <v>5046</v>
       </c>
       <c r="D131" s="3">
-        <v>3906</v>
+        <v>4291</v>
       </c>
       <c r="E131" s="4">
-        <v>2996</v>
+        <v>4439</v>
       </c>
       <c r="F131" s="4">
-        <v>3843</v>
+        <v>4720</v>
       </c>
       <c r="G131" s="5">
-        <v>4154</v>
+        <v>7048</v>
       </c>
       <c r="H131" s="4">
-        <v>9410</v>
+        <v>16362</v>
       </c>
       <c r="I131" s="4">
-        <v>8296</v>
+        <v>13914</v>
       </c>
       <c r="J131" s="4">
-        <v>6826</v>
+        <v>11870</v>
       </c>
       <c r="K131" s="5">
-        <v>2973</v>
+        <v>4590</v>
       </c>
       <c r="L131" s="4">
-        <v>2264</v>
+        <v>3625</v>
       </c>
       <c r="M131" s="4">
-        <v>2640</v>
+        <v>5723</v>
       </c>
       <c r="N131" s="4">
-        <v>2032</v>
+        <v>2472</v>
       </c>
       <c r="O131" s="5">
-        <v>636</v>
+        <v>804</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -7270,46 +7239,46 @@
         <v>130</v>
       </c>
       <c r="B132" s="3">
-        <v>84904</v>
+        <v>31750</v>
       </c>
       <c r="C132" s="8">
-        <v>5046</v>
+        <v>1946</v>
       </c>
       <c r="D132" s="3">
-        <v>4291</v>
+        <v>1647</v>
       </c>
       <c r="E132" s="4">
-        <v>4439</v>
+        <v>2071</v>
       </c>
       <c r="F132" s="4">
-        <v>4720</v>
+        <v>1975</v>
       </c>
       <c r="G132" s="5">
-        <v>7048</v>
+        <v>2304</v>
       </c>
       <c r="H132" s="4">
-        <v>16362</v>
+        <v>4801</v>
       </c>
       <c r="I132" s="4">
-        <v>13914</v>
+        <v>4365</v>
       </c>
       <c r="J132" s="4">
-        <v>11870</v>
+        <v>4614</v>
       </c>
       <c r="K132" s="5">
-        <v>4590</v>
+        <v>2082</v>
       </c>
       <c r="L132" s="4">
-        <v>3625</v>
+        <v>1677</v>
       </c>
       <c r="M132" s="4">
-        <v>5723</v>
+        <v>2473</v>
       </c>
       <c r="N132" s="4">
-        <v>2472</v>
+        <v>1291</v>
       </c>
       <c r="O132" s="5">
-        <v>804</v>
+        <v>504</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -7317,46 +7286,46 @@
         <v>131</v>
       </c>
       <c r="B133" s="3">
-        <v>31750</v>
+        <v>70166</v>
       </c>
       <c r="C133" s="8">
-        <v>1946</v>
+        <v>5407</v>
       </c>
       <c r="D133" s="3">
-        <v>1647</v>
+        <v>4107</v>
       </c>
       <c r="E133" s="4">
-        <v>2071</v>
+        <v>4365</v>
       </c>
       <c r="F133" s="4">
-        <v>1975</v>
+        <v>4653</v>
       </c>
       <c r="G133" s="5">
-        <v>2304</v>
+        <v>5819</v>
       </c>
       <c r="H133" s="4">
-        <v>4801</v>
+        <v>12823</v>
       </c>
       <c r="I133" s="4">
-        <v>4365</v>
+        <v>10554</v>
       </c>
       <c r="J133" s="4">
-        <v>4614</v>
+        <v>9052</v>
       </c>
       <c r="K133" s="5">
-        <v>2082</v>
+        <v>4344</v>
       </c>
       <c r="L133" s="4">
-        <v>1677</v>
+        <v>2817</v>
       </c>
       <c r="M133" s="4">
-        <v>2473</v>
+        <v>3355</v>
       </c>
       <c r="N133" s="4">
-        <v>1291</v>
+        <v>2042</v>
       </c>
       <c r="O133" s="5">
-        <v>504</v>
+        <v>828</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -7364,46 +7333,46 @@
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <v>70166</v>
+        <v>39062</v>
       </c>
       <c r="C134" s="8">
-        <v>5407</v>
+        <v>1601</v>
       </c>
       <c r="D134" s="3">
-        <v>4107</v>
+        <v>2230</v>
       </c>
       <c r="E134" s="4">
-        <v>4365</v>
+        <v>2146</v>
       </c>
       <c r="F134" s="4">
-        <v>4653</v>
+        <v>1934</v>
       </c>
       <c r="G134" s="5">
-        <v>5819</v>
+        <v>2026</v>
       </c>
       <c r="H134" s="4">
-        <v>12823</v>
+        <v>4620</v>
       </c>
       <c r="I134" s="4">
-        <v>10554</v>
+        <v>6096</v>
       </c>
       <c r="J134" s="4">
-        <v>9052</v>
+        <v>5906</v>
       </c>
       <c r="K134" s="5">
-        <v>4344</v>
+        <v>2552</v>
       </c>
       <c r="L134" s="4">
-        <v>2817</v>
+        <v>2678</v>
       </c>
       <c r="M134" s="4">
-        <v>3355</v>
+        <v>3495</v>
       </c>
       <c r="N134" s="4">
-        <v>2042</v>
+        <v>2552</v>
       </c>
       <c r="O134" s="5">
-        <v>828</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -7411,46 +7380,46 @@
         <v>133</v>
       </c>
       <c r="B135" s="3">
-        <v>39062</v>
+        <v>27677</v>
       </c>
       <c r="C135" s="8">
-        <v>1601</v>
+        <v>1733</v>
       </c>
       <c r="D135" s="3">
-        <v>2230</v>
+        <v>1472</v>
       </c>
       <c r="E135" s="4">
-        <v>2146</v>
+        <v>1522</v>
       </c>
       <c r="F135" s="4">
-        <v>1934</v>
+        <v>1398</v>
       </c>
       <c r="G135" s="5">
-        <v>2026</v>
+        <v>1729</v>
       </c>
       <c r="H135" s="4">
-        <v>4620</v>
+        <v>4066</v>
       </c>
       <c r="I135" s="4">
-        <v>6096</v>
+        <v>4414</v>
       </c>
       <c r="J135" s="4">
-        <v>5906</v>
+        <v>4091</v>
       </c>
       <c r="K135" s="5">
-        <v>2552</v>
+        <v>1914</v>
       </c>
       <c r="L135" s="4">
-        <v>2678</v>
+        <v>1814</v>
       </c>
       <c r="M135" s="4">
-        <v>3495</v>
+        <v>1744</v>
       </c>
       <c r="N135" s="4">
-        <v>2552</v>
+        <v>1100</v>
       </c>
       <c r="O135" s="5">
-        <v>1226</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -7458,46 +7427,46 @@
         <v>134</v>
       </c>
       <c r="B136" s="3">
-        <v>27677</v>
+        <v>84694</v>
       </c>
       <c r="C136" s="8">
-        <v>1733</v>
+        <v>4787</v>
       </c>
       <c r="D136" s="3">
-        <v>1472</v>
+        <v>4193</v>
       </c>
       <c r="E136" s="4">
-        <v>1522</v>
+        <v>3335</v>
       </c>
       <c r="F136" s="4">
-        <v>1398</v>
+        <v>3219</v>
       </c>
       <c r="G136" s="5">
-        <v>1729</v>
+        <v>3497</v>
       </c>
       <c r="H136" s="4">
-        <v>4066</v>
+        <v>14268</v>
       </c>
       <c r="I136" s="4">
-        <v>4414</v>
+        <v>13198</v>
       </c>
       <c r="J136" s="4">
-        <v>4091</v>
+        <v>11880</v>
       </c>
       <c r="K136" s="5">
-        <v>1914</v>
+        <v>5720</v>
       </c>
       <c r="L136" s="4">
-        <v>1814</v>
+        <v>5407</v>
       </c>
       <c r="M136" s="4">
-        <v>1744</v>
+        <v>6888</v>
       </c>
       <c r="N136" s="4">
-        <v>1100</v>
+        <v>5320</v>
       </c>
       <c r="O136" s="5">
-        <v>680</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -7505,46 +7474,46 @@
         <v>135</v>
       </c>
       <c r="B137" s="3">
-        <v>84694</v>
+        <v>27500</v>
       </c>
       <c r="C137" s="8">
-        <v>4787</v>
+        <v>1687</v>
       </c>
       <c r="D137" s="3">
-        <v>4193</v>
+        <v>1039</v>
       </c>
       <c r="E137" s="4">
-        <v>3335</v>
+        <v>1068</v>
       </c>
       <c r="F137" s="4">
-        <v>3219</v>
+        <v>1036</v>
       </c>
       <c r="G137" s="5">
-        <v>3497</v>
+        <v>1398</v>
       </c>
       <c r="H137" s="4">
-        <v>14268</v>
+        <v>5222</v>
       </c>
       <c r="I137" s="4">
-        <v>13198</v>
+        <v>3873</v>
       </c>
       <c r="J137" s="4">
-        <v>11880</v>
+        <v>3671</v>
       </c>
       <c r="K137" s="5">
-        <v>5720</v>
+        <v>2130</v>
       </c>
       <c r="L137" s="4">
-        <v>5407</v>
+        <v>1893</v>
       </c>
       <c r="M137" s="4">
-        <v>6888</v>
+        <v>2257</v>
       </c>
       <c r="N137" s="4">
-        <v>5320</v>
+        <v>1518</v>
       </c>
       <c r="O137" s="5">
-        <v>2982</v>
+        <v>708</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -7552,46 +7521,46 @@
         <v>136</v>
       </c>
       <c r="B138" s="3">
-        <v>27500</v>
+        <v>69382</v>
       </c>
       <c r="C138" s="8">
-        <v>1687</v>
+        <v>3025</v>
       </c>
       <c r="D138" s="3">
-        <v>1039</v>
+        <v>2908</v>
       </c>
       <c r="E138" s="4">
-        <v>1068</v>
+        <v>2877</v>
       </c>
       <c r="F138" s="4">
-        <v>1036</v>
+        <v>3834</v>
       </c>
       <c r="G138" s="5">
-        <v>1398</v>
+        <v>4556</v>
       </c>
       <c r="H138" s="4">
-        <v>5222</v>
+        <v>10275</v>
       </c>
       <c r="I138" s="4">
-        <v>3873</v>
+        <v>10769</v>
       </c>
       <c r="J138" s="4">
-        <v>3671</v>
+        <v>11382</v>
       </c>
       <c r="K138" s="5">
-        <v>2130</v>
+        <v>4949</v>
       </c>
       <c r="L138" s="4">
-        <v>1893</v>
+        <v>3793</v>
       </c>
       <c r="M138" s="4">
-        <v>2257</v>
+        <v>5294</v>
       </c>
       <c r="N138" s="4">
-        <v>1518</v>
+        <v>3611</v>
       </c>
       <c r="O138" s="5">
-        <v>708</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -7599,46 +7568,46 @@
         <v>137</v>
       </c>
       <c r="B139" s="3">
-        <v>69382</v>
+        <v>24199</v>
       </c>
       <c r="C139" s="8">
-        <v>3025</v>
+        <v>1499</v>
       </c>
       <c r="D139" s="3">
-        <v>2908</v>
+        <v>1415</v>
       </c>
       <c r="E139" s="4">
-        <v>2877</v>
+        <v>1403</v>
       </c>
       <c r="F139" s="4">
-        <v>3834</v>
+        <v>1482</v>
       </c>
       <c r="G139" s="5">
-        <v>4556</v>
+        <v>1591</v>
       </c>
       <c r="H139" s="4">
-        <v>10275</v>
+        <v>3428</v>
       </c>
       <c r="I139" s="4">
-        <v>10769</v>
+        <v>3899</v>
       </c>
       <c r="J139" s="4">
-        <v>11382</v>
+        <v>3194</v>
       </c>
       <c r="K139" s="5">
-        <v>4949</v>
+        <v>1507</v>
       </c>
       <c r="L139" s="4">
-        <v>3793</v>
+        <v>1440</v>
       </c>
       <c r="M139" s="4">
-        <v>5294</v>
+        <v>1619</v>
       </c>
       <c r="N139" s="4">
-        <v>3611</v>
+        <v>1051</v>
       </c>
       <c r="O139" s="5">
-        <v>2109</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -7646,46 +7615,46 @@
         <v>138</v>
       </c>
       <c r="B140" s="3">
-        <v>24199</v>
+        <v>22943</v>
       </c>
       <c r="C140" s="8">
-        <v>1499</v>
+        <v>1077</v>
       </c>
       <c r="D140" s="3">
-        <v>1415</v>
+        <v>771</v>
       </c>
       <c r="E140" s="4">
-        <v>1403</v>
+        <v>994</v>
       </c>
       <c r="F140" s="4">
-        <v>1482</v>
+        <v>1249</v>
       </c>
       <c r="G140" s="5">
-        <v>1591</v>
+        <v>1265</v>
       </c>
       <c r="H140" s="4">
-        <v>3428</v>
+        <v>2311</v>
       </c>
       <c r="I140" s="4">
-        <v>3899</v>
+        <v>2763</v>
       </c>
       <c r="J140" s="4">
-        <v>3194</v>
+        <v>3750</v>
       </c>
       <c r="K140" s="5">
-        <v>1507</v>
+        <v>1631</v>
       </c>
       <c r="L140" s="4">
-        <v>1440</v>
+        <v>1522</v>
       </c>
       <c r="M140" s="4">
-        <v>1619</v>
+        <v>2127</v>
       </c>
       <c r="N140" s="4">
-        <v>1051</v>
+        <v>2429</v>
       </c>
       <c r="O140" s="5">
-        <v>671</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -7693,46 +7662,46 @@
         <v>139</v>
       </c>
       <c r="B141" s="3">
-        <v>22943</v>
+        <v>32331</v>
       </c>
       <c r="C141" s="8">
-        <v>1077</v>
+        <v>2088</v>
       </c>
       <c r="D141" s="3">
-        <v>771</v>
+        <v>1774</v>
       </c>
       <c r="E141" s="4">
-        <v>994</v>
+        <v>1917</v>
       </c>
       <c r="F141" s="4">
-        <v>1249</v>
+        <v>1793</v>
       </c>
       <c r="G141" s="5">
-        <v>1265</v>
+        <v>1646</v>
       </c>
       <c r="H141" s="4">
-        <v>2311</v>
+        <v>3981</v>
       </c>
       <c r="I141" s="4">
-        <v>2763</v>
+        <v>4091</v>
       </c>
       <c r="J141" s="4">
-        <v>3750</v>
+        <v>5193</v>
       </c>
       <c r="K141" s="5">
-        <v>1631</v>
+        <v>1987</v>
       </c>
       <c r="L141" s="4">
-        <v>1522</v>
+        <v>2100</v>
       </c>
       <c r="M141" s="4">
-        <v>2127</v>
+        <v>2855</v>
       </c>
       <c r="N141" s="4">
-        <v>2429</v>
+        <v>1904</v>
       </c>
       <c r="O141" s="5">
-        <v>1054</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -7740,46 +7709,46 @@
         <v>140</v>
       </c>
       <c r="B142" s="3">
-        <v>32331</v>
+        <v>51509</v>
       </c>
       <c r="C142" s="8">
-        <v>2088</v>
+        <v>2850</v>
       </c>
       <c r="D142" s="3">
-        <v>1774</v>
+        <v>2381</v>
       </c>
       <c r="E142" s="4">
-        <v>1917</v>
+        <v>1922</v>
       </c>
       <c r="F142" s="4">
-        <v>1793</v>
+        <v>2461</v>
       </c>
       <c r="G142" s="5">
-        <v>1646</v>
+        <v>3257</v>
       </c>
       <c r="H142" s="4">
-        <v>3981</v>
+        <v>8194</v>
       </c>
       <c r="I142" s="4">
-        <v>4091</v>
+        <v>7528</v>
       </c>
       <c r="J142" s="4">
-        <v>5193</v>
+        <v>8089</v>
       </c>
       <c r="K142" s="5">
-        <v>1987</v>
+        <v>3542</v>
       </c>
       <c r="L142" s="4">
-        <v>2100</v>
+        <v>3074</v>
       </c>
       <c r="M142" s="4">
-        <v>2855</v>
+        <v>4265</v>
       </c>
       <c r="N142" s="4">
-        <v>1904</v>
+        <v>2827</v>
       </c>
       <c r="O142" s="5">
-        <v>1002</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -7787,46 +7756,46 @@
         <v>141</v>
       </c>
       <c r="B143" s="3">
-        <v>51509</v>
+        <v>27943</v>
       </c>
       <c r="C143" s="8">
-        <v>2850</v>
+        <v>1336</v>
       </c>
       <c r="D143" s="3">
-        <v>2381</v>
+        <v>1479</v>
       </c>
       <c r="E143" s="4">
-        <v>1922</v>
+        <v>1206</v>
       </c>
       <c r="F143" s="4">
-        <v>2461</v>
+        <v>1244</v>
       </c>
       <c r="G143" s="5">
-        <v>3257</v>
+        <v>2055</v>
       </c>
       <c r="H143" s="4">
-        <v>8194</v>
+        <v>4305</v>
       </c>
       <c r="I143" s="4">
-        <v>7528</v>
+        <v>4154</v>
       </c>
       <c r="J143" s="4">
-        <v>8089</v>
+        <v>4579</v>
       </c>
       <c r="K143" s="5">
-        <v>3542</v>
+        <v>1834</v>
       </c>
       <c r="L143" s="4">
-        <v>3074</v>
+        <v>1457</v>
       </c>
       <c r="M143" s="4">
-        <v>4265</v>
+        <v>2211</v>
       </c>
       <c r="N143" s="4">
-        <v>2827</v>
+        <v>1580</v>
       </c>
       <c r="O143" s="5">
-        <v>1119</v>
+        <v>503</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -7834,46 +7803,46 @@
         <v>142</v>
       </c>
       <c r="B144" s="3">
-        <v>27943</v>
+        <v>20989</v>
       </c>
       <c r="C144" s="8">
-        <v>1336</v>
+        <v>1180</v>
       </c>
       <c r="D144" s="3">
-        <v>1479</v>
+        <v>1392</v>
       </c>
       <c r="E144" s="4">
-        <v>1206</v>
+        <v>1143</v>
       </c>
       <c r="F144" s="4">
-        <v>1244</v>
+        <v>1325</v>
       </c>
       <c r="G144" s="5">
-        <v>2055</v>
+        <v>1409</v>
       </c>
       <c r="H144" s="4">
-        <v>4305</v>
+        <v>3203</v>
       </c>
       <c r="I144" s="4">
-        <v>4154</v>
+        <v>2818</v>
       </c>
       <c r="J144" s="4">
-        <v>4579</v>
+        <v>3571</v>
       </c>
       <c r="K144" s="5">
-        <v>1834</v>
+        <v>1334</v>
       </c>
       <c r="L144" s="4">
-        <v>1457</v>
+        <v>1127</v>
       </c>
       <c r="M144" s="4">
-        <v>2211</v>
+        <v>1271</v>
       </c>
       <c r="N144" s="4">
-        <v>1580</v>
+        <v>905</v>
       </c>
       <c r="O144" s="5">
-        <v>503</v>
+        <v>311</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -7881,46 +7850,46 @@
         <v>143</v>
       </c>
       <c r="B145" s="3">
-        <v>20989</v>
+        <v>25067</v>
       </c>
       <c r="C145" s="8">
-        <v>1180</v>
+        <v>1212</v>
       </c>
       <c r="D145" s="3">
-        <v>1392</v>
+        <v>1098</v>
       </c>
       <c r="E145" s="4">
-        <v>1143</v>
+        <v>1334</v>
       </c>
       <c r="F145" s="4">
-        <v>1325</v>
+        <v>1343</v>
       </c>
       <c r="G145" s="5">
-        <v>1409</v>
+        <v>1640</v>
       </c>
       <c r="H145" s="4">
-        <v>3203</v>
+        <v>2798</v>
       </c>
       <c r="I145" s="4">
-        <v>2818</v>
+        <v>3182</v>
       </c>
       <c r="J145" s="4">
-        <v>3571</v>
+        <v>4557</v>
       </c>
       <c r="K145" s="5">
-        <v>1334</v>
+        <v>1867</v>
       </c>
       <c r="L145" s="4">
-        <v>1127</v>
+        <v>1541</v>
       </c>
       <c r="M145" s="4">
-        <v>1271</v>
+        <v>2362</v>
       </c>
       <c r="N145" s="4">
-        <v>905</v>
+        <v>1394</v>
       </c>
       <c r="O145" s="5">
-        <v>311</v>
+        <v>739</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -7928,46 +7897,46 @@
         <v>144</v>
       </c>
       <c r="B146" s="3">
-        <v>25067</v>
+        <v>38449</v>
       </c>
       <c r="C146" s="8">
-        <v>1212</v>
+        <v>2403</v>
       </c>
       <c r="D146" s="3">
-        <v>1098</v>
+        <v>1743</v>
       </c>
       <c r="E146" s="4">
-        <v>1334</v>
+        <v>1432</v>
       </c>
       <c r="F146" s="4">
-        <v>1343</v>
+        <v>2448</v>
       </c>
       <c r="G146" s="5">
-        <v>1640</v>
+        <v>2714</v>
       </c>
       <c r="H146" s="4">
-        <v>2798</v>
+        <v>6944</v>
       </c>
       <c r="I146" s="4">
-        <v>3182</v>
+        <v>5433</v>
       </c>
       <c r="J146" s="4">
-        <v>4557</v>
+        <v>5465</v>
       </c>
       <c r="K146" s="5">
-        <v>1867</v>
+        <v>3016</v>
       </c>
       <c r="L146" s="4">
-        <v>1541</v>
+        <v>1789</v>
       </c>
       <c r="M146" s="4">
-        <v>2362</v>
+        <v>2806</v>
       </c>
       <c r="N146" s="4">
-        <v>1394</v>
+        <v>1367</v>
       </c>
       <c r="O146" s="5">
-        <v>739</v>
+        <v>889</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -7975,140 +7944,140 @@
         <v>145</v>
       </c>
       <c r="B147" s="3">
-        <v>38449</v>
-      </c>
-      <c r="C147" s="8">
-        <v>2403</v>
+        <v>36683</v>
+      </c>
+      <c r="C147" s="3">
+        <v>3095</v>
       </c>
       <c r="D147" s="3">
-        <v>1743</v>
+        <v>2387</v>
       </c>
       <c r="E147" s="4">
-        <v>1432</v>
+        <v>2312</v>
       </c>
       <c r="F147" s="4">
-        <v>2448</v>
-      </c>
-      <c r="G147" s="5">
-        <v>2714</v>
+        <v>1888</v>
+      </c>
+      <c r="G147" s="4">
+        <v>2895</v>
       </c>
       <c r="H147" s="4">
-        <v>6944</v>
+        <v>5738</v>
       </c>
       <c r="I147" s="4">
-        <v>5433</v>
+        <v>4271</v>
       </c>
       <c r="J147" s="4">
-        <v>5465</v>
-      </c>
-      <c r="K147" s="5">
-        <v>3016</v>
+        <v>4708</v>
+      </c>
+      <c r="K147" s="4">
+        <v>2496</v>
       </c>
       <c r="L147" s="4">
-        <v>1789</v>
+        <v>1823</v>
       </c>
       <c r="M147" s="4">
-        <v>2806</v>
+        <v>2592</v>
       </c>
       <c r="N147" s="4">
-        <v>1367</v>
-      </c>
-      <c r="O147" s="5">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1938</v>
+      </c>
+      <c r="O147" s="4">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="3">
-        <v>36683</v>
+        <v>33532</v>
       </c>
       <c r="C148" s="3">
-        <v>3095</v>
+        <v>1942</v>
       </c>
       <c r="D148" s="3">
-        <v>2387</v>
+        <v>1738</v>
       </c>
       <c r="E148" s="4">
-        <v>2312</v>
+        <v>2097</v>
       </c>
       <c r="F148" s="4">
-        <v>1888</v>
+        <v>3187</v>
       </c>
       <c r="G148" s="4">
-        <v>2895</v>
+        <v>2824</v>
       </c>
       <c r="H148" s="4">
-        <v>5738</v>
+        <v>3677</v>
       </c>
       <c r="I148" s="4">
-        <v>4271</v>
+        <v>4363</v>
       </c>
       <c r="J148" s="4">
-        <v>4708</v>
+        <v>4835</v>
       </c>
       <c r="K148" s="4">
-        <v>2496</v>
+        <v>2408</v>
       </c>
       <c r="L148" s="4">
-        <v>1823</v>
+        <v>1880</v>
       </c>
       <c r="M148" s="4">
-        <v>2592</v>
+        <v>2348</v>
       </c>
       <c r="N148" s="4">
-        <v>1938</v>
+        <v>1616</v>
       </c>
       <c r="O148" s="4">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B149" s="3">
-        <v>33532</v>
+        <v>18177</v>
       </c>
       <c r="C149" s="3">
-        <v>1942</v>
+        <v>1216</v>
       </c>
       <c r="D149" s="3">
-        <v>1738</v>
+        <v>1071</v>
       </c>
       <c r="E149" s="4">
-        <v>2097</v>
+        <v>1224</v>
       </c>
       <c r="F149" s="4">
-        <v>3187</v>
+        <v>821</v>
       </c>
       <c r="G149" s="4">
-        <v>2824</v>
+        <v>1288</v>
       </c>
       <c r="H149" s="4">
-        <v>3677</v>
+        <v>2608</v>
       </c>
       <c r="I149" s="4">
-        <v>4363</v>
+        <v>2465</v>
       </c>
       <c r="J149" s="4">
-        <v>4835</v>
+        <v>2973</v>
       </c>
       <c r="K149" s="4">
-        <v>2408</v>
+        <v>1064</v>
       </c>
       <c r="L149" s="4">
-        <v>1880</v>
+        <v>862</v>
       </c>
       <c r="M149" s="4">
-        <v>2348</v>
+        <v>1412</v>
       </c>
       <c r="N149" s="4">
-        <v>1616</v>
+        <v>729</v>
       </c>
       <c r="O149" s="4">
-        <v>617</v>
+        <v>444</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -8116,46 +8085,46 @@
         <v>148</v>
       </c>
       <c r="B150" s="3">
-        <v>18177</v>
+        <v>59550</v>
       </c>
       <c r="C150" s="3">
-        <v>1216</v>
+        <v>4573</v>
       </c>
       <c r="D150" s="3">
-        <v>1071</v>
+        <v>4112</v>
       </c>
       <c r="E150" s="4">
-        <v>1224</v>
+        <v>3756</v>
       </c>
       <c r="F150" s="4">
-        <v>821</v>
+        <v>4575</v>
       </c>
       <c r="G150" s="4">
-        <v>1288</v>
+        <v>4906</v>
       </c>
       <c r="H150" s="4">
-        <v>2608</v>
+        <v>9283</v>
       </c>
       <c r="I150" s="4">
-        <v>2465</v>
+        <v>8900</v>
       </c>
       <c r="J150" s="4">
-        <v>2973</v>
+        <v>8452</v>
       </c>
       <c r="K150" s="4">
-        <v>1064</v>
+        <v>3260</v>
       </c>
       <c r="L150" s="4">
-        <v>862</v>
+        <v>2704</v>
       </c>
       <c r="M150" s="4">
-        <v>1412</v>
+        <v>2829</v>
       </c>
       <c r="N150" s="4">
-        <v>729</v>
+        <v>1462</v>
       </c>
       <c r="O150" s="4">
-        <v>444</v>
+        <v>738</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -8163,46 +8132,46 @@
         <v>149</v>
       </c>
       <c r="B151" s="3">
-        <v>59550</v>
+        <v>65199</v>
       </c>
       <c r="C151" s="3">
-        <v>4573</v>
+        <v>3708</v>
       </c>
       <c r="D151" s="3">
-        <v>4112</v>
+        <v>4361</v>
       </c>
       <c r="E151" s="4">
-        <v>3756</v>
+        <v>4697</v>
       </c>
       <c r="F151" s="4">
-        <v>4575</v>
+        <v>5145</v>
       </c>
       <c r="G151" s="4">
-        <v>4906</v>
+        <v>5325</v>
       </c>
       <c r="H151" s="4">
-        <v>9283</v>
+        <v>9851</v>
       </c>
       <c r="I151" s="4">
-        <v>8900</v>
+        <v>9683</v>
       </c>
       <c r="J151" s="4">
-        <v>8452</v>
+        <v>9707</v>
       </c>
       <c r="K151" s="4">
-        <v>3260</v>
+        <v>4043</v>
       </c>
       <c r="L151" s="4">
-        <v>2704</v>
+        <v>3359</v>
       </c>
       <c r="M151" s="4">
-        <v>2829</v>
+        <v>3207</v>
       </c>
       <c r="N151" s="4">
-        <v>1462</v>
+        <v>1442</v>
       </c>
       <c r="O151" s="4">
-        <v>738</v>
+        <v>671</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -8210,46 +8179,46 @@
         <v>150</v>
       </c>
       <c r="B152" s="3">
-        <v>65199</v>
+        <v>22878</v>
       </c>
       <c r="C152" s="3">
-        <v>3708</v>
+        <v>1349</v>
       </c>
       <c r="D152" s="3">
-        <v>4361</v>
+        <v>878</v>
       </c>
       <c r="E152" s="4">
-        <v>4697</v>
+        <v>930</v>
       </c>
       <c r="F152" s="4">
-        <v>5145</v>
+        <v>1155</v>
       </c>
       <c r="G152" s="4">
-        <v>5325</v>
+        <v>1479</v>
       </c>
       <c r="H152" s="4">
-        <v>9851</v>
+        <v>4674</v>
       </c>
       <c r="I152" s="4">
-        <v>9683</v>
+        <v>3044</v>
       </c>
       <c r="J152" s="4">
-        <v>9707</v>
+        <v>3058</v>
       </c>
       <c r="K152" s="4">
-        <v>4043</v>
+        <v>1566</v>
       </c>
       <c r="L152" s="4">
-        <v>3359</v>
+        <v>1568</v>
       </c>
       <c r="M152" s="4">
-        <v>3207</v>
+        <v>1791</v>
       </c>
       <c r="N152" s="4">
-        <v>1442</v>
+        <v>850</v>
       </c>
       <c r="O152" s="4">
-        <v>671</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -8257,46 +8226,46 @@
         <v>151</v>
       </c>
       <c r="B153" s="3">
-        <v>22878</v>
+        <v>80046</v>
       </c>
       <c r="C153" s="3">
-        <v>1349</v>
+        <v>4516</v>
       </c>
       <c r="D153" s="3">
-        <v>878</v>
+        <v>4454</v>
       </c>
       <c r="E153" s="4">
-        <v>930</v>
+        <v>5458</v>
       </c>
       <c r="F153" s="4">
-        <v>1155</v>
+        <v>5908</v>
       </c>
       <c r="G153" s="4">
-        <v>1479</v>
+        <v>6953</v>
       </c>
       <c r="H153" s="4">
-        <v>4674</v>
+        <v>11372</v>
       </c>
       <c r="I153" s="4">
-        <v>3044</v>
+        <v>11807</v>
       </c>
       <c r="J153" s="4">
-        <v>3058</v>
+        <v>12454</v>
       </c>
       <c r="K153" s="4">
-        <v>1566</v>
+        <v>5536</v>
       </c>
       <c r="L153" s="4">
-        <v>1568</v>
+        <v>3701</v>
       </c>
       <c r="M153" s="4">
-        <v>1791</v>
+        <v>4934</v>
       </c>
       <c r="N153" s="4">
-        <v>850</v>
+        <v>2341</v>
       </c>
       <c r="O153" s="4">
-        <v>536</v>
+        <v>612</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -8304,46 +8273,46 @@
         <v>152</v>
       </c>
       <c r="B154" s="3">
-        <v>80046</v>
+        <v>22136</v>
       </c>
       <c r="C154" s="3">
-        <v>4516</v>
+        <v>1657</v>
       </c>
       <c r="D154" s="3">
-        <v>4454</v>
+        <v>1210</v>
       </c>
       <c r="E154" s="4">
-        <v>5458</v>
+        <v>1568</v>
       </c>
       <c r="F154" s="4">
-        <v>5908</v>
+        <v>1369</v>
       </c>
       <c r="G154" s="4">
-        <v>6953</v>
+        <v>1851</v>
       </c>
       <c r="H154" s="4">
-        <v>11372</v>
+        <v>3143</v>
       </c>
       <c r="I154" s="4">
-        <v>11807</v>
+        <v>3214</v>
       </c>
       <c r="J154" s="4">
-        <v>12454</v>
+        <v>3523</v>
       </c>
       <c r="K154" s="4">
-        <v>5536</v>
+        <v>1319</v>
       </c>
       <c r="L154" s="4">
-        <v>3701</v>
+        <v>966</v>
       </c>
       <c r="M154" s="4">
-        <v>4934</v>
+        <v>1304</v>
       </c>
       <c r="N154" s="4">
-        <v>2341</v>
+        <v>704</v>
       </c>
       <c r="O154" s="4">
-        <v>612</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -8351,46 +8320,46 @@
         <v>153</v>
       </c>
       <c r="B155" s="3">
-        <v>22136</v>
+        <v>28769</v>
       </c>
       <c r="C155" s="3">
-        <v>1657</v>
+        <v>1377</v>
       </c>
       <c r="D155" s="3">
-        <v>1210</v>
+        <v>1722</v>
       </c>
       <c r="E155" s="4">
-        <v>1568</v>
+        <v>1415</v>
       </c>
       <c r="F155" s="4">
-        <v>1369</v>
+        <v>1392</v>
       </c>
       <c r="G155" s="4">
-        <v>1851</v>
+        <v>1392</v>
       </c>
       <c r="H155" s="4">
-        <v>3143</v>
+        <v>3300</v>
       </c>
       <c r="I155" s="4">
-        <v>3214</v>
+        <v>3646</v>
       </c>
       <c r="J155" s="4">
-        <v>3523</v>
+        <v>3974</v>
       </c>
       <c r="K155" s="4">
-        <v>1319</v>
+        <v>2227</v>
       </c>
       <c r="L155" s="4">
-        <v>966</v>
+        <v>1893</v>
       </c>
       <c r="M155" s="4">
-        <v>1304</v>
+        <v>3215</v>
       </c>
       <c r="N155" s="4">
-        <v>704</v>
+        <v>2148</v>
       </c>
       <c r="O155" s="4">
-        <v>308</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -8398,140 +8367,140 @@
         <v>154</v>
       </c>
       <c r="B156" s="3">
-        <v>28769</v>
+        <v>28097</v>
       </c>
       <c r="C156" s="3">
-        <v>1377</v>
+        <v>1762</v>
       </c>
       <c r="D156" s="3">
-        <v>1722</v>
+        <v>1609</v>
       </c>
       <c r="E156" s="4">
-        <v>1415</v>
+        <v>1560</v>
       </c>
       <c r="F156" s="4">
-        <v>1392</v>
+        <v>1255</v>
       </c>
       <c r="G156" s="4">
-        <v>1392</v>
+        <v>1287</v>
       </c>
       <c r="H156" s="4">
-        <v>3300</v>
+        <v>3697</v>
       </c>
       <c r="I156" s="4">
-        <v>3646</v>
+        <v>3928</v>
       </c>
       <c r="J156" s="4">
-        <v>3974</v>
+        <v>4470</v>
       </c>
       <c r="K156" s="4">
-        <v>2227</v>
+        <v>2306</v>
       </c>
       <c r="L156" s="4">
-        <v>1893</v>
+        <v>1775</v>
       </c>
       <c r="M156" s="4">
-        <v>3215</v>
+        <v>2149</v>
       </c>
       <c r="N156" s="4">
-        <v>2148</v>
+        <v>1457</v>
       </c>
       <c r="O156" s="4">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="3">
-        <v>28097</v>
+        <v>25619</v>
       </c>
       <c r="C157" s="3">
-        <v>1762</v>
+        <v>1262</v>
       </c>
       <c r="D157" s="3">
-        <v>1609</v>
+        <v>1105</v>
       </c>
       <c r="E157" s="4">
-        <v>1560</v>
+        <v>1548</v>
       </c>
       <c r="F157" s="4">
-        <v>1255</v>
+        <v>1568</v>
       </c>
       <c r="G157" s="4">
-        <v>1287</v>
+        <v>1184</v>
       </c>
       <c r="H157" s="4">
-        <v>3697</v>
+        <v>2861</v>
       </c>
       <c r="I157" s="4">
-        <v>3928</v>
+        <v>3097</v>
       </c>
       <c r="J157" s="4">
-        <v>4470</v>
+        <v>4552</v>
       </c>
       <c r="K157" s="4">
-        <v>2306</v>
+        <v>1869</v>
       </c>
       <c r="L157" s="4">
-        <v>1775</v>
+        <v>1827</v>
       </c>
       <c r="M157" s="4">
-        <v>2149</v>
+        <v>2438</v>
       </c>
       <c r="N157" s="4">
-        <v>1457</v>
+        <v>1481</v>
       </c>
       <c r="O157" s="4">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B158" s="3">
-        <v>25619</v>
+        <v>45522</v>
       </c>
       <c r="C158" s="3">
-        <v>1262</v>
+        <v>2257</v>
       </c>
       <c r="D158" s="3">
-        <v>1105</v>
+        <v>1993</v>
       </c>
       <c r="E158" s="4">
-        <v>1548</v>
+        <v>2844</v>
       </c>
       <c r="F158" s="4">
-        <v>1568</v>
+        <v>2603</v>
       </c>
       <c r="G158" s="4">
-        <v>1184</v>
+        <v>2529</v>
       </c>
       <c r="H158" s="4">
-        <v>2861</v>
+        <v>6258</v>
       </c>
       <c r="I158" s="4">
-        <v>3097</v>
+        <v>6025</v>
       </c>
       <c r="J158" s="4">
-        <v>4552</v>
+        <v>7765</v>
       </c>
       <c r="K158" s="4">
-        <v>1869</v>
+        <v>3246</v>
       </c>
       <c r="L158" s="4">
-        <v>1827</v>
+        <v>2855</v>
       </c>
       <c r="M158" s="4">
-        <v>2438</v>
+        <v>3794</v>
       </c>
       <c r="N158" s="4">
-        <v>1481</v>
+        <v>1997</v>
       </c>
       <c r="O158" s="4">
-        <v>827</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -8539,46 +8508,46 @@
         <v>157</v>
       </c>
       <c r="B159" s="3">
-        <v>45522</v>
+        <v>20684</v>
       </c>
       <c r="C159" s="3">
-        <v>2257</v>
+        <v>1445</v>
       </c>
       <c r="D159" s="3">
-        <v>1993</v>
+        <v>741</v>
       </c>
       <c r="E159" s="4">
-        <v>2844</v>
+        <v>1058</v>
       </c>
       <c r="F159" s="4">
-        <v>2603</v>
+        <v>1173</v>
       </c>
       <c r="G159" s="4">
-        <v>2529</v>
+        <v>1268</v>
       </c>
       <c r="H159" s="4">
-        <v>6258</v>
+        <v>2801</v>
       </c>
       <c r="I159" s="4">
-        <v>6025</v>
+        <v>2810</v>
       </c>
       <c r="J159" s="4">
-        <v>7765</v>
+        <v>3214</v>
       </c>
       <c r="K159" s="4">
-        <v>3246</v>
+        <v>1359</v>
       </c>
       <c r="L159" s="4">
-        <v>2855</v>
+        <v>1496</v>
       </c>
       <c r="M159" s="4">
-        <v>3794</v>
+        <v>1679</v>
       </c>
       <c r="N159" s="4">
-        <v>1997</v>
+        <v>1165</v>
       </c>
       <c r="O159" s="4">
-        <v>1356</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -8586,46 +8555,46 @@
         <v>158</v>
       </c>
       <c r="B160" s="3">
-        <v>20684</v>
+        <v>36864</v>
       </c>
       <c r="C160" s="3">
-        <v>1445</v>
+        <v>2652</v>
       </c>
       <c r="D160" s="3">
-        <v>741</v>
+        <v>2451</v>
       </c>
       <c r="E160" s="4">
-        <v>1058</v>
+        <v>2943</v>
       </c>
       <c r="F160" s="4">
-        <v>1173</v>
+        <v>3211</v>
       </c>
       <c r="G160" s="4">
-        <v>1268</v>
+        <v>2779</v>
       </c>
       <c r="H160" s="4">
-        <v>2801</v>
+        <v>5205</v>
       </c>
       <c r="I160" s="4">
-        <v>2810</v>
+        <v>5215</v>
       </c>
       <c r="J160" s="4">
-        <v>3214</v>
+        <v>4857</v>
       </c>
       <c r="K160" s="4">
-        <v>1359</v>
+        <v>1788</v>
       </c>
       <c r="L160" s="4">
-        <v>1496</v>
+        <v>1556</v>
       </c>
       <c r="M160" s="4">
-        <v>1679</v>
+        <v>2586</v>
       </c>
       <c r="N160" s="4">
-        <v>1165</v>
+        <v>1029</v>
       </c>
       <c r="O160" s="4">
-        <v>475</v>
+        <v>592</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -8633,46 +8602,46 @@
         <v>159</v>
       </c>
       <c r="B161" s="3">
-        <v>36864</v>
+        <v>26959</v>
       </c>
       <c r="C161" s="3">
-        <v>2652</v>
+        <v>1465</v>
       </c>
       <c r="D161" s="3">
-        <v>2451</v>
+        <v>1684</v>
       </c>
       <c r="E161" s="4">
-        <v>2943</v>
+        <v>2010</v>
       </c>
       <c r="F161" s="4">
-        <v>3211</v>
+        <v>1799</v>
       </c>
       <c r="G161" s="4">
-        <v>2779</v>
+        <v>1665</v>
       </c>
       <c r="H161" s="4">
-        <v>5205</v>
+        <v>3547</v>
       </c>
       <c r="I161" s="4">
-        <v>5215</v>
+        <v>3930</v>
       </c>
       <c r="J161" s="4">
-        <v>4857</v>
+        <v>3640</v>
       </c>
       <c r="K161" s="4">
-        <v>1788</v>
+        <v>1445</v>
       </c>
       <c r="L161" s="4">
-        <v>1556</v>
+        <v>1679</v>
       </c>
       <c r="M161" s="4">
-        <v>2586</v>
+        <v>2086</v>
       </c>
       <c r="N161" s="4">
-        <v>1029</v>
+        <v>1200</v>
       </c>
       <c r="O161" s="4">
-        <v>592</v>
+        <v>809</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -8680,46 +8649,46 @@
         <v>160</v>
       </c>
       <c r="B162" s="3">
-        <v>26959</v>
+        <v>21520</v>
       </c>
       <c r="C162" s="3">
-        <v>1465</v>
+        <v>1165</v>
       </c>
       <c r="D162" s="3">
-        <v>1684</v>
+        <v>988</v>
       </c>
       <c r="E162" s="4">
-        <v>2010</v>
+        <v>1228</v>
       </c>
       <c r="F162" s="4">
-        <v>1799</v>
+        <v>1675</v>
       </c>
       <c r="G162" s="4">
-        <v>1665</v>
+        <v>2034</v>
       </c>
       <c r="H162" s="4">
-        <v>3547</v>
+        <v>3033</v>
       </c>
       <c r="I162" s="4">
-        <v>3930</v>
+        <v>3046</v>
       </c>
       <c r="J162" s="4">
-        <v>3640</v>
+        <v>3278</v>
       </c>
       <c r="K162" s="4">
-        <v>1445</v>
+        <v>1294</v>
       </c>
       <c r="L162" s="4">
-        <v>1679</v>
+        <v>1236</v>
       </c>
       <c r="M162" s="4">
-        <v>2086</v>
+        <v>1484</v>
       </c>
       <c r="N162" s="4">
-        <v>1200</v>
+        <v>691</v>
       </c>
       <c r="O162" s="4">
-        <v>809</v>
+        <v>368</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -8727,46 +8696,46 @@
         <v>161</v>
       </c>
       <c r="B163" s="3">
-        <v>21520</v>
+        <v>51098</v>
       </c>
       <c r="C163" s="3">
-        <v>1165</v>
+        <v>2914</v>
       </c>
       <c r="D163" s="3">
-        <v>988</v>
+        <v>3179</v>
       </c>
       <c r="E163" s="4">
-        <v>1228</v>
+        <v>3431</v>
       </c>
       <c r="F163" s="4">
-        <v>1675</v>
+        <v>3655</v>
       </c>
       <c r="G163" s="4">
-        <v>2034</v>
+        <v>3749</v>
       </c>
       <c r="H163" s="4">
-        <v>3033</v>
+        <v>6476</v>
       </c>
       <c r="I163" s="4">
-        <v>3046</v>
+        <v>6926</v>
       </c>
       <c r="J163" s="4">
-        <v>3278</v>
+        <v>8342</v>
       </c>
       <c r="K163" s="4">
-        <v>1294</v>
+        <v>2889</v>
       </c>
       <c r="L163" s="4">
-        <v>1236</v>
+        <v>2815</v>
       </c>
       <c r="M163" s="4">
-        <v>1484</v>
+        <v>3176</v>
       </c>
       <c r="N163" s="4">
-        <v>691</v>
+        <v>2496</v>
       </c>
       <c r="O163" s="4">
-        <v>368</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
@@ -8774,46 +8743,46 @@
         <v>162</v>
       </c>
       <c r="B164" s="3">
-        <v>51098</v>
+        <v>50922</v>
       </c>
       <c r="C164" s="3">
-        <v>2914</v>
+        <v>3799</v>
       </c>
       <c r="D164" s="3">
-        <v>3179</v>
+        <v>3278</v>
       </c>
       <c r="E164" s="4">
-        <v>3431</v>
+        <v>3167</v>
       </c>
       <c r="F164" s="4">
-        <v>3655</v>
+        <v>3155</v>
       </c>
       <c r="G164" s="4">
-        <v>3749</v>
+        <v>3412</v>
       </c>
       <c r="H164" s="4">
-        <v>6476</v>
+        <v>8064</v>
       </c>
       <c r="I164" s="4">
-        <v>6926</v>
+        <v>8291</v>
       </c>
       <c r="J164" s="4">
-        <v>8342</v>
+        <v>7096</v>
       </c>
       <c r="K164" s="4">
-        <v>2889</v>
+        <v>3323</v>
       </c>
       <c r="L164" s="4">
-        <v>2815</v>
+        <v>1992</v>
       </c>
       <c r="M164" s="4">
-        <v>3176</v>
+        <v>3328</v>
       </c>
       <c r="N164" s="4">
-        <v>2496</v>
+        <v>1556</v>
       </c>
       <c r="O164" s="4">
-        <v>1050</v>
+        <v>461</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -8821,140 +8790,140 @@
         <v>163</v>
       </c>
       <c r="B165" s="3">
-        <v>50922</v>
+        <v>34293</v>
       </c>
       <c r="C165" s="3">
-        <v>3799</v>
+        <v>2093</v>
       </c>
       <c r="D165" s="3">
-        <v>3278</v>
+        <v>2232</v>
       </c>
       <c r="E165" s="4">
-        <v>3167</v>
+        <v>2374</v>
       </c>
       <c r="F165" s="4">
-        <v>3155</v>
+        <v>3211</v>
       </c>
       <c r="G165" s="4">
-        <v>3412</v>
+        <v>2686</v>
       </c>
       <c r="H165" s="4">
-        <v>8064</v>
+        <v>4493</v>
       </c>
       <c r="I165" s="4">
-        <v>8291</v>
+        <v>5085</v>
       </c>
       <c r="J165" s="4">
-        <v>7096</v>
+        <v>4760</v>
       </c>
       <c r="K165" s="4">
-        <v>3323</v>
+        <v>1992</v>
       </c>
       <c r="L165" s="4">
-        <v>1992</v>
+        <v>1704</v>
       </c>
       <c r="M165" s="4">
-        <v>3328</v>
+        <v>2048</v>
       </c>
       <c r="N165" s="4">
-        <v>1556</v>
+        <v>1064</v>
       </c>
       <c r="O165" s="4">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="3">
-        <v>34293</v>
+        <v>19901</v>
       </c>
       <c r="C166" s="3">
-        <v>2093</v>
+        <v>1313</v>
       </c>
       <c r="D166" s="3">
-        <v>2232</v>
+        <v>1394</v>
       </c>
       <c r="E166" s="4">
-        <v>2374</v>
+        <v>1548</v>
       </c>
       <c r="F166" s="4">
-        <v>3211</v>
+        <v>1175</v>
       </c>
       <c r="G166" s="4">
-        <v>2686</v>
+        <v>1865</v>
       </c>
       <c r="H166" s="4">
-        <v>4493</v>
+        <v>2960</v>
       </c>
       <c r="I166" s="4">
-        <v>5085</v>
+        <v>2622</v>
       </c>
       <c r="J166" s="4">
-        <v>4760</v>
+        <v>3167</v>
       </c>
       <c r="K166" s="4">
-        <v>1992</v>
+        <v>993</v>
       </c>
       <c r="L166" s="4">
-        <v>1704</v>
+        <v>1028</v>
       </c>
       <c r="M166" s="4">
-        <v>2048</v>
+        <v>1124</v>
       </c>
       <c r="N166" s="4">
-        <v>1064</v>
+        <v>570</v>
       </c>
       <c r="O166" s="4">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="3">
-        <v>19901</v>
+        <v>28201</v>
       </c>
       <c r="C167" s="3">
-        <v>1313</v>
+        <v>2087</v>
       </c>
       <c r="D167" s="3">
-        <v>1394</v>
+        <v>2098</v>
       </c>
       <c r="E167" s="4">
-        <v>1548</v>
+        <v>2056</v>
       </c>
       <c r="F167" s="4">
-        <v>1175</v>
+        <v>2282</v>
       </c>
       <c r="G167" s="4">
-        <v>1865</v>
+        <v>2123</v>
       </c>
       <c r="H167" s="4">
-        <v>2960</v>
+        <v>3921</v>
       </c>
       <c r="I167" s="4">
-        <v>2622</v>
+        <v>3425</v>
       </c>
       <c r="J167" s="4">
-        <v>3167</v>
+        <v>4360</v>
       </c>
       <c r="K167" s="4">
-        <v>993</v>
+        <v>1877</v>
       </c>
       <c r="L167" s="4">
-        <v>1028</v>
+        <v>1516</v>
       </c>
       <c r="M167" s="4">
-        <v>1124</v>
+        <v>1504</v>
       </c>
       <c r="N167" s="4">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="O167" s="4">
-        <v>142</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -8962,46 +8931,46 @@
         <v>166</v>
       </c>
       <c r="B168" s="3">
-        <v>28201</v>
+        <v>20212</v>
       </c>
       <c r="C168" s="3">
-        <v>2087</v>
+        <v>896</v>
       </c>
       <c r="D168" s="3">
-        <v>2098</v>
+        <v>815</v>
       </c>
       <c r="E168" s="4">
-        <v>2056</v>
+        <v>891</v>
       </c>
       <c r="F168" s="4">
-        <v>2282</v>
+        <v>1599</v>
       </c>
       <c r="G168" s="4">
-        <v>2123</v>
+        <v>1475</v>
       </c>
       <c r="H168" s="4">
-        <v>3921</v>
+        <v>2122</v>
       </c>
       <c r="I168" s="4">
-        <v>3425</v>
+        <v>2664</v>
       </c>
       <c r="J168" s="4">
-        <v>4360</v>
+        <v>3418</v>
       </c>
       <c r="K168" s="4">
-        <v>1877</v>
+        <v>1392</v>
       </c>
       <c r="L168" s="4">
-        <v>1516</v>
+        <v>1345</v>
       </c>
       <c r="M168" s="4">
-        <v>1504</v>
+        <v>2023</v>
       </c>
       <c r="N168" s="4">
-        <v>621</v>
+        <v>1221</v>
       </c>
       <c r="O168" s="4">
-        <v>331</v>
+        <v>351</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -9009,46 +8978,46 @@
         <v>167</v>
       </c>
       <c r="B169" s="3">
-        <v>20212</v>
+        <v>57549</v>
       </c>
       <c r="C169" s="3">
-        <v>896</v>
+        <v>2974</v>
       </c>
       <c r="D169" s="3">
-        <v>815</v>
+        <v>3078</v>
       </c>
       <c r="E169" s="4">
-        <v>891</v>
+        <v>3458</v>
       </c>
       <c r="F169" s="4">
-        <v>1599</v>
+        <v>4374</v>
       </c>
       <c r="G169" s="4">
-        <v>1475</v>
+        <v>4665</v>
       </c>
       <c r="H169" s="4">
-        <v>2122</v>
+        <v>7950</v>
       </c>
       <c r="I169" s="4">
-        <v>2664</v>
+        <v>8477</v>
       </c>
       <c r="J169" s="4">
-        <v>3418</v>
+        <v>8551</v>
       </c>
       <c r="K169" s="4">
-        <v>1392</v>
+        <v>4216</v>
       </c>
       <c r="L169" s="4">
-        <v>1345</v>
+        <v>3003</v>
       </c>
       <c r="M169" s="4">
-        <v>2023</v>
+        <v>3988</v>
       </c>
       <c r="N169" s="4">
-        <v>1221</v>
+        <v>2123</v>
       </c>
       <c r="O169" s="4">
-        <v>351</v>
+        <v>692</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -9056,234 +9025,234 @@
         <v>168</v>
       </c>
       <c r="B170" s="3">
-        <v>57549</v>
+        <v>25964</v>
       </c>
       <c r="C170" s="3">
-        <v>2974</v>
+        <v>1606</v>
       </c>
       <c r="D170" s="3">
-        <v>3078</v>
+        <v>1450</v>
       </c>
       <c r="E170" s="4">
-        <v>3458</v>
+        <v>1608</v>
       </c>
       <c r="F170" s="4">
-        <v>4374</v>
+        <v>1819</v>
       </c>
       <c r="G170" s="4">
-        <v>4665</v>
+        <v>1492</v>
       </c>
       <c r="H170" s="4">
-        <v>7950</v>
+        <v>4047</v>
       </c>
       <c r="I170" s="4">
-        <v>8477</v>
+        <v>3310</v>
       </c>
       <c r="J170" s="4">
-        <v>8551</v>
+        <v>4331</v>
       </c>
       <c r="K170" s="4">
-        <v>4216</v>
+        <v>1741</v>
       </c>
       <c r="L170" s="4">
-        <v>3003</v>
+        <v>1416</v>
       </c>
       <c r="M170" s="4">
-        <v>3988</v>
+        <v>1546</v>
       </c>
       <c r="N170" s="4">
-        <v>2123</v>
+        <v>1083</v>
       </c>
       <c r="O170" s="4">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="3">
-        <v>25964</v>
+        <v>22427</v>
       </c>
       <c r="C171" s="3">
-        <v>1606</v>
+        <v>1004</v>
       </c>
       <c r="D171" s="3">
-        <v>1450</v>
+        <v>940</v>
       </c>
       <c r="E171" s="4">
-        <v>1608</v>
+        <v>1108</v>
       </c>
       <c r="F171" s="4">
-        <v>1819</v>
+        <v>974</v>
       </c>
       <c r="G171" s="4">
-        <v>1492</v>
+        <v>1025</v>
       </c>
       <c r="H171" s="4">
-        <v>4047</v>
+        <v>3217</v>
       </c>
       <c r="I171" s="4">
-        <v>3310</v>
+        <v>2390</v>
       </c>
       <c r="J171" s="4">
-        <v>4331</v>
+        <v>3107</v>
       </c>
       <c r="K171" s="4">
-        <v>1741</v>
+        <v>1703</v>
       </c>
       <c r="L171" s="4">
-        <v>1416</v>
+        <v>1625</v>
       </c>
       <c r="M171" s="4">
-        <v>1546</v>
+        <v>1861</v>
       </c>
       <c r="N171" s="4">
-        <v>1083</v>
+        <v>1992</v>
       </c>
       <c r="O171" s="4">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B172" s="3">
-        <v>22427</v>
+        <v>25141</v>
       </c>
       <c r="C172" s="3">
-        <v>1004</v>
+        <v>1124</v>
       </c>
       <c r="D172" s="3">
-        <v>940</v>
+        <v>1519</v>
       </c>
       <c r="E172" s="4">
-        <v>1108</v>
+        <v>1724</v>
       </c>
       <c r="F172" s="4">
-        <v>974</v>
+        <v>1866</v>
       </c>
       <c r="G172" s="4">
-        <v>1025</v>
+        <v>1514</v>
       </c>
       <c r="H172" s="4">
-        <v>3217</v>
+        <v>2891</v>
       </c>
       <c r="I172" s="4">
-        <v>2390</v>
+        <v>3220</v>
       </c>
       <c r="J172" s="4">
-        <v>3107</v>
+        <v>3965</v>
       </c>
       <c r="K172" s="4">
-        <v>1703</v>
+        <v>1713</v>
       </c>
       <c r="L172" s="4">
-        <v>1625</v>
+        <v>1811</v>
       </c>
       <c r="M172" s="4">
-        <v>1861</v>
+        <v>2182</v>
       </c>
       <c r="N172" s="4">
-        <v>1992</v>
+        <v>1267</v>
       </c>
       <c r="O172" s="4">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="3">
-        <v>25141</v>
+        <v>29543</v>
       </c>
       <c r="C173" s="3">
-        <v>1124</v>
+        <v>1535</v>
       </c>
       <c r="D173" s="3">
-        <v>1519</v>
+        <v>1954</v>
       </c>
       <c r="E173" s="4">
-        <v>1724</v>
+        <v>1867</v>
       </c>
       <c r="F173" s="4">
-        <v>1866</v>
+        <v>1651</v>
       </c>
       <c r="G173" s="4">
-        <v>1514</v>
+        <v>1212</v>
       </c>
       <c r="H173" s="4">
-        <v>2891</v>
+        <v>2749</v>
       </c>
       <c r="I173" s="4">
-        <v>3220</v>
+        <v>3973</v>
       </c>
       <c r="J173" s="4">
-        <v>3965</v>
+        <v>4730</v>
       </c>
       <c r="K173" s="4">
-        <v>1713</v>
+        <v>2277</v>
       </c>
       <c r="L173" s="4">
-        <v>1811</v>
+        <v>2286</v>
       </c>
       <c r="M173" s="4">
-        <v>2182</v>
+        <v>2758</v>
       </c>
       <c r="N173" s="4">
-        <v>1267</v>
+        <v>1824</v>
       </c>
       <c r="O173" s="4">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="3">
-        <v>29543</v>
+        <v>35500</v>
       </c>
       <c r="C174" s="3">
-        <v>1535</v>
+        <v>2756</v>
       </c>
       <c r="D174" s="3">
-        <v>1954</v>
+        <v>2650</v>
       </c>
       <c r="E174" s="4">
-        <v>1867</v>
+        <v>2989</v>
       </c>
       <c r="F174" s="4">
-        <v>1651</v>
+        <v>3056</v>
       </c>
       <c r="G174" s="4">
-        <v>1212</v>
+        <v>2622</v>
       </c>
       <c r="H174" s="4">
-        <v>2749</v>
+        <v>4337</v>
       </c>
       <c r="I174" s="4">
-        <v>3973</v>
+        <v>4415</v>
       </c>
       <c r="J174" s="4">
-        <v>4730</v>
+        <v>5358</v>
       </c>
       <c r="K174" s="4">
-        <v>2277</v>
+        <v>1753</v>
       </c>
       <c r="L174" s="4">
-        <v>2286</v>
+        <v>1588</v>
       </c>
       <c r="M174" s="4">
-        <v>2758</v>
+        <v>2172</v>
       </c>
       <c r="N174" s="4">
-        <v>1824</v>
+        <v>1240</v>
       </c>
       <c r="O174" s="4">
-        <v>727</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
@@ -9291,46 +9260,46 @@
         <v>173</v>
       </c>
       <c r="B175" s="3">
-        <v>35500</v>
+        <v>50294</v>
       </c>
       <c r="C175" s="3">
-        <v>2756</v>
+        <v>4966</v>
       </c>
       <c r="D175" s="3">
-        <v>2650</v>
+        <v>3648</v>
       </c>
       <c r="E175" s="4">
-        <v>2989</v>
+        <v>3789</v>
       </c>
       <c r="F175" s="4">
-        <v>3056</v>
+        <v>3573</v>
       </c>
       <c r="G175" s="4">
-        <v>2622</v>
+        <v>4108</v>
       </c>
       <c r="H175" s="4">
-        <v>4337</v>
+        <v>7624</v>
       </c>
       <c r="I175" s="4">
-        <v>4415</v>
+        <v>5518</v>
       </c>
       <c r="J175" s="4">
-        <v>5358</v>
+        <v>5545</v>
       </c>
       <c r="K175" s="4">
-        <v>1753</v>
+        <v>2644</v>
       </c>
       <c r="L175" s="4">
-        <v>1588</v>
+        <v>2065</v>
       </c>
       <c r="M175" s="4">
-        <v>2172</v>
+        <v>3571</v>
       </c>
       <c r="N175" s="4">
-        <v>1240</v>
+        <v>2269</v>
       </c>
       <c r="O175" s="4">
-        <v>564</v>
+        <v>974</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -9338,46 +9307,46 @@
         <v>174</v>
       </c>
       <c r="B176" s="3">
-        <v>50294</v>
+        <v>24202</v>
       </c>
       <c r="C176" s="3">
-        <v>4966</v>
+        <v>1450</v>
       </c>
       <c r="D176" s="3">
-        <v>3648</v>
+        <v>1201</v>
       </c>
       <c r="E176" s="4">
-        <v>3789</v>
+        <v>1681</v>
       </c>
       <c r="F176" s="4">
-        <v>3573</v>
+        <v>1449</v>
       </c>
       <c r="G176" s="4">
-        <v>4108</v>
+        <v>1340</v>
       </c>
       <c r="H176" s="4">
-        <v>7624</v>
+        <v>2472</v>
       </c>
       <c r="I176" s="4">
-        <v>5518</v>
+        <v>3876</v>
       </c>
       <c r="J176" s="4">
-        <v>5545</v>
+        <v>3893</v>
       </c>
       <c r="K176" s="4">
-        <v>2644</v>
+        <v>1634</v>
       </c>
       <c r="L176" s="4">
-        <v>2065</v>
+        <v>1472</v>
       </c>
       <c r="M176" s="4">
-        <v>3571</v>
+        <v>1831</v>
       </c>
       <c r="N176" s="4">
-        <v>2269</v>
+        <v>1267</v>
       </c>
       <c r="O176" s="4">
-        <v>974</v>
+        <v>636</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
@@ -9385,93 +9354,93 @@
         <v>175</v>
       </c>
       <c r="B177" s="3">
-        <v>24202</v>
+        <v>23858</v>
       </c>
       <c r="C177" s="3">
-        <v>1450</v>
+        <v>1838</v>
       </c>
       <c r="D177" s="3">
-        <v>1201</v>
+        <v>1887</v>
       </c>
       <c r="E177" s="4">
-        <v>1681</v>
+        <v>1533</v>
       </c>
       <c r="F177" s="4">
-        <v>1449</v>
+        <v>2453</v>
       </c>
       <c r="G177" s="4">
-        <v>1340</v>
+        <v>2498</v>
       </c>
       <c r="H177" s="4">
-        <v>2472</v>
+        <v>3731</v>
       </c>
       <c r="I177" s="4">
-        <v>3876</v>
+        <v>2805</v>
       </c>
       <c r="J177" s="4">
-        <v>3893</v>
+        <v>3107</v>
       </c>
       <c r="K177" s="4">
-        <v>1634</v>
+        <v>959</v>
       </c>
       <c r="L177" s="4">
-        <v>1472</v>
+        <v>1145</v>
       </c>
       <c r="M177" s="4">
-        <v>1831</v>
+        <v>960</v>
       </c>
       <c r="N177" s="4">
-        <v>1267</v>
+        <v>599</v>
       </c>
       <c r="O177" s="4">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="3">
-        <v>23858</v>
+        <v>30473</v>
       </c>
       <c r="C178" s="3">
-        <v>1838</v>
+        <v>2230</v>
       </c>
       <c r="D178" s="3">
-        <v>1887</v>
+        <v>1919</v>
       </c>
       <c r="E178" s="4">
-        <v>1533</v>
+        <v>2564</v>
       </c>
       <c r="F178" s="4">
-        <v>2453</v>
+        <v>2703</v>
       </c>
       <c r="G178" s="4">
-        <v>2498</v>
+        <v>2585</v>
       </c>
       <c r="H178" s="4">
-        <v>3731</v>
+        <v>4475</v>
       </c>
       <c r="I178" s="4">
-        <v>2805</v>
+        <v>4378</v>
       </c>
       <c r="J178" s="4">
-        <v>3107</v>
+        <v>4378</v>
       </c>
       <c r="K178" s="4">
-        <v>959</v>
+        <v>1537</v>
       </c>
       <c r="L178" s="4">
-        <v>1145</v>
+        <v>1302</v>
       </c>
       <c r="M178" s="4">
-        <v>960</v>
+        <v>1363</v>
       </c>
       <c r="N178" s="4">
-        <v>599</v>
+        <v>783</v>
       </c>
       <c r="O178" s="4">
-        <v>343</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="24" x14ac:dyDescent="0.3">
@@ -9479,93 +9448,93 @@
         <v>177</v>
       </c>
       <c r="B179" s="3">
-        <v>30473</v>
+        <v>31214</v>
       </c>
       <c r="C179" s="3">
-        <v>2230</v>
+        <v>2577</v>
       </c>
       <c r="D179" s="3">
-        <v>1919</v>
+        <v>2319</v>
       </c>
       <c r="E179" s="4">
-        <v>2564</v>
+        <v>2063</v>
       </c>
       <c r="F179" s="4">
-        <v>2703</v>
+        <v>2581</v>
       </c>
       <c r="G179" s="4">
-        <v>2585</v>
+        <v>2103</v>
       </c>
       <c r="H179" s="4">
-        <v>4475</v>
+        <v>4530</v>
       </c>
       <c r="I179" s="4">
-        <v>4378</v>
+        <v>4170</v>
       </c>
       <c r="J179" s="4">
-        <v>4378</v>
+        <v>4445</v>
       </c>
       <c r="K179" s="4">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="L179" s="4">
-        <v>1302</v>
+        <v>1606</v>
       </c>
       <c r="M179" s="4">
-        <v>1363</v>
+        <v>1903</v>
       </c>
       <c r="N179" s="4">
-        <v>783</v>
+        <v>982</v>
       </c>
       <c r="O179" s="4">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>178</v>
       </c>
       <c r="B180" s="3">
-        <v>31214</v>
+        <v>19240</v>
       </c>
       <c r="C180" s="3">
+        <v>1774</v>
+      </c>
+      <c r="D180" s="3">
+        <v>1431</v>
+      </c>
+      <c r="E180" s="4">
+        <v>1159</v>
+      </c>
+      <c r="F180" s="4">
+        <v>1260</v>
+      </c>
+      <c r="G180" s="4">
+        <v>1328</v>
+      </c>
+      <c r="H180" s="4">
+        <v>3137</v>
+      </c>
+      <c r="I180" s="4">
         <v>2577</v>
       </c>
-      <c r="D180" s="3">
-        <v>2319</v>
-      </c>
-      <c r="E180" s="4">
-        <v>2063</v>
-      </c>
-      <c r="F180" s="4">
-        <v>2581</v>
-      </c>
-      <c r="G180" s="4">
-        <v>2103</v>
-      </c>
-      <c r="H180" s="4">
-        <v>4530</v>
-      </c>
-      <c r="I180" s="4">
-        <v>4170</v>
-      </c>
       <c r="J180" s="4">
-        <v>4445</v>
+        <v>2475</v>
       </c>
       <c r="K180" s="4">
-        <v>1538</v>
+        <v>1098</v>
       </c>
       <c r="L180" s="4">
-        <v>1606</v>
+        <v>1024</v>
       </c>
       <c r="M180" s="4">
-        <v>1903</v>
+        <v>750</v>
       </c>
       <c r="N180" s="4">
-        <v>982</v>
+        <v>841</v>
       </c>
       <c r="O180" s="4">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
@@ -9573,46 +9542,46 @@
         <v>179</v>
       </c>
       <c r="B181" s="3">
-        <v>19240</v>
+        <v>18310</v>
       </c>
       <c r="C181" s="3">
-        <v>1774</v>
+        <v>1127</v>
       </c>
       <c r="D181" s="3">
-        <v>1431</v>
+        <v>1253</v>
       </c>
       <c r="E181" s="4">
-        <v>1159</v>
+        <v>1289</v>
       </c>
       <c r="F181" s="4">
-        <v>1260</v>
+        <v>1279</v>
       </c>
       <c r="G181" s="4">
-        <v>1328</v>
+        <v>1232</v>
       </c>
       <c r="H181" s="4">
-        <v>3137</v>
+        <v>2408</v>
       </c>
       <c r="I181" s="4">
-        <v>2577</v>
+        <v>2319</v>
       </c>
       <c r="J181" s="4">
-        <v>2475</v>
+        <v>2856</v>
       </c>
       <c r="K181" s="4">
-        <v>1098</v>
+        <v>1336</v>
       </c>
       <c r="L181" s="4">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="M181" s="4">
-        <v>750</v>
+        <v>927</v>
       </c>
       <c r="N181" s="4">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="O181" s="4">
-        <v>386</v>
+        <v>433</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
@@ -9620,46 +9589,46 @@
         <v>180</v>
       </c>
       <c r="B182" s="3">
-        <v>18310</v>
+        <v>25635</v>
       </c>
       <c r="C182" s="3">
-        <v>1127</v>
+        <v>1379</v>
       </c>
       <c r="D182" s="3">
-        <v>1253</v>
+        <v>1696</v>
       </c>
       <c r="E182" s="4">
-        <v>1289</v>
+        <v>1482</v>
       </c>
       <c r="F182" s="4">
-        <v>1279</v>
+        <v>1825</v>
       </c>
       <c r="G182" s="4">
-        <v>1232</v>
+        <v>2116</v>
       </c>
       <c r="H182" s="4">
-        <v>2408</v>
+        <v>3998</v>
       </c>
       <c r="I182" s="4">
-        <v>2319</v>
+        <v>3429</v>
       </c>
       <c r="J182" s="4">
-        <v>2856</v>
+        <v>3799</v>
       </c>
       <c r="K182" s="4">
-        <v>1336</v>
+        <v>1872</v>
       </c>
       <c r="L182" s="4">
-        <v>1016</v>
+        <v>1089</v>
       </c>
       <c r="M182" s="4">
-        <v>927</v>
+        <v>1445</v>
       </c>
       <c r="N182" s="4">
-        <v>835</v>
+        <v>1109</v>
       </c>
       <c r="O182" s="4">
-        <v>433</v>
+        <v>396</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
@@ -9667,46 +9636,46 @@
         <v>181</v>
       </c>
       <c r="B183" s="3">
-        <v>25635</v>
+        <v>39517</v>
       </c>
       <c r="C183" s="3">
-        <v>1379</v>
+        <v>2308</v>
       </c>
       <c r="D183" s="3">
-        <v>1696</v>
+        <v>2048</v>
       </c>
       <c r="E183" s="4">
-        <v>1482</v>
+        <v>2848</v>
       </c>
       <c r="F183" s="4">
-        <v>1825</v>
+        <v>2433</v>
       </c>
       <c r="G183" s="4">
-        <v>2116</v>
+        <v>2061</v>
       </c>
       <c r="H183" s="4">
-        <v>3998</v>
+        <v>4871</v>
       </c>
       <c r="I183" s="4">
-        <v>3429</v>
+        <v>5092</v>
       </c>
       <c r="J183" s="4">
-        <v>3799</v>
+        <v>5964</v>
       </c>
       <c r="K183" s="4">
-        <v>1872</v>
+        <v>3072</v>
       </c>
       <c r="L183" s="4">
-        <v>1089</v>
+        <v>2646</v>
       </c>
       <c r="M183" s="4">
-        <v>1445</v>
+        <v>3496</v>
       </c>
       <c r="N183" s="4">
-        <v>1109</v>
+        <v>1716</v>
       </c>
       <c r="O183" s="4">
-        <v>396</v>
+        <v>962</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
@@ -9714,93 +9683,93 @@
         <v>182</v>
       </c>
       <c r="B184" s="3">
-        <v>39517</v>
+        <v>14775</v>
       </c>
       <c r="C184" s="3">
-        <v>2308</v>
+        <v>909</v>
       </c>
       <c r="D184" s="3">
-        <v>2048</v>
+        <v>977</v>
       </c>
       <c r="E184" s="4">
-        <v>2848</v>
+        <v>887</v>
       </c>
       <c r="F184" s="4">
-        <v>2433</v>
+        <v>711</v>
       </c>
       <c r="G184" s="4">
-        <v>2061</v>
+        <v>941</v>
       </c>
       <c r="H184" s="4">
-        <v>4871</v>
+        <v>2157</v>
       </c>
       <c r="I184" s="4">
-        <v>5092</v>
+        <v>1809</v>
       </c>
       <c r="J184" s="4">
-        <v>5964</v>
+        <v>2220</v>
       </c>
       <c r="K184" s="4">
-        <v>3072</v>
+        <v>1082</v>
       </c>
       <c r="L184" s="4">
-        <v>2646</v>
+        <v>1094</v>
       </c>
       <c r="M184" s="4">
-        <v>3496</v>
+        <v>1090</v>
       </c>
       <c r="N184" s="4">
-        <v>1716</v>
+        <v>578</v>
       </c>
       <c r="O184" s="4">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B185" s="3">
-        <v>14775</v>
+        <v>31931</v>
       </c>
       <c r="C185" s="3">
-        <v>909</v>
+        <v>1482</v>
       </c>
       <c r="D185" s="3">
-        <v>977</v>
+        <v>1513</v>
       </c>
       <c r="E185" s="4">
-        <v>887</v>
+        <v>2031</v>
       </c>
       <c r="F185" s="4">
-        <v>711</v>
+        <v>2220</v>
       </c>
       <c r="G185" s="4">
-        <v>941</v>
+        <v>2047</v>
       </c>
       <c r="H185" s="4">
-        <v>2157</v>
+        <v>3060</v>
       </c>
       <c r="I185" s="4">
-        <v>1809</v>
+        <v>4202</v>
       </c>
       <c r="J185" s="4">
-        <v>2220</v>
+        <v>5158</v>
       </c>
       <c r="K185" s="4">
-        <v>1082</v>
+        <v>2528</v>
       </c>
       <c r="L185" s="4">
-        <v>1094</v>
+        <v>2367</v>
       </c>
       <c r="M185" s="4">
-        <v>1090</v>
+        <v>2795</v>
       </c>
       <c r="N185" s="4">
-        <v>578</v>
+        <v>1702</v>
       </c>
       <c r="O185" s="4">
-        <v>320</v>
+        <v>826</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="24" x14ac:dyDescent="0.3">
@@ -9808,140 +9777,140 @@
         <v>184</v>
       </c>
       <c r="B186" s="3">
-        <v>31931</v>
+        <v>24999</v>
       </c>
       <c r="C186" s="3">
-        <v>1482</v>
+        <v>1288</v>
       </c>
       <c r="D186" s="3">
-        <v>1513</v>
+        <v>1235</v>
       </c>
       <c r="E186" s="4">
-        <v>2031</v>
+        <v>1350</v>
       </c>
       <c r="F186" s="4">
-        <v>2220</v>
+        <v>1469</v>
       </c>
       <c r="G186" s="4">
-        <v>2047</v>
+        <v>2052</v>
       </c>
       <c r="H186" s="4">
-        <v>3060</v>
+        <v>3543</v>
       </c>
       <c r="I186" s="4">
-        <v>4202</v>
+        <v>3160</v>
       </c>
       <c r="J186" s="4">
-        <v>5158</v>
+        <v>3654</v>
       </c>
       <c r="K186" s="4">
-        <v>2528</v>
+        <v>1704</v>
       </c>
       <c r="L186" s="4">
-        <v>2367</v>
+        <v>1407</v>
       </c>
       <c r="M186" s="4">
-        <v>2795</v>
+        <v>2065</v>
       </c>
       <c r="N186" s="4">
-        <v>1702</v>
+        <v>1401</v>
       </c>
       <c r="O186" s="4">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B187" s="3">
-        <v>24999</v>
+        <v>21208</v>
       </c>
       <c r="C187" s="3">
-        <v>1288</v>
+        <v>1509</v>
       </c>
       <c r="D187" s="3">
-        <v>1235</v>
+        <v>1299</v>
       </c>
       <c r="E187" s="4">
-        <v>1350</v>
+        <v>1151</v>
       </c>
       <c r="F187" s="4">
-        <v>1469</v>
+        <v>1295</v>
       </c>
       <c r="G187" s="4">
-        <v>2052</v>
+        <v>1351</v>
       </c>
       <c r="H187" s="4">
-        <v>3543</v>
+        <v>2380</v>
       </c>
       <c r="I187" s="4">
-        <v>3160</v>
+        <v>3142</v>
       </c>
       <c r="J187" s="4">
-        <v>3654</v>
+        <v>3718</v>
       </c>
       <c r="K187" s="4">
-        <v>1704</v>
+        <v>1275</v>
       </c>
       <c r="L187" s="4">
-        <v>1407</v>
+        <v>1229</v>
       </c>
       <c r="M187" s="4">
-        <v>2065</v>
+        <v>1559</v>
       </c>
       <c r="N187" s="4">
-        <v>1401</v>
+        <v>873</v>
       </c>
       <c r="O187" s="4">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="3">
-        <v>21208</v>
+        <v>28727</v>
       </c>
       <c r="C188" s="3">
-        <v>1509</v>
+        <v>1303</v>
       </c>
       <c r="D188" s="3">
-        <v>1299</v>
+        <v>1522</v>
       </c>
       <c r="E188" s="4">
-        <v>1151</v>
+        <v>2146</v>
       </c>
       <c r="F188" s="4">
-        <v>1295</v>
+        <v>1898</v>
       </c>
       <c r="G188" s="4">
-        <v>1351</v>
+        <v>2142</v>
       </c>
       <c r="H188" s="4">
-        <v>2380</v>
+        <v>3095</v>
       </c>
       <c r="I188" s="4">
-        <v>3142</v>
+        <v>4019</v>
       </c>
       <c r="J188" s="4">
-        <v>3718</v>
+        <v>4880</v>
       </c>
       <c r="K188" s="4">
-        <v>1275</v>
+        <v>2093</v>
       </c>
       <c r="L188" s="4">
-        <v>1229</v>
+        <v>1867</v>
       </c>
       <c r="M188" s="4">
-        <v>1559</v>
+        <v>2332</v>
       </c>
       <c r="N188" s="4">
-        <v>873</v>
+        <v>1124</v>
       </c>
       <c r="O188" s="4">
-        <v>427</v>
+        <v>306</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="24" x14ac:dyDescent="0.3">
@@ -9949,93 +9918,93 @@
         <v>187</v>
       </c>
       <c r="B189" s="3">
-        <v>28727</v>
+        <v>24083</v>
       </c>
       <c r="C189" s="3">
-        <v>1303</v>
+        <v>1494</v>
       </c>
       <c r="D189" s="3">
-        <v>1522</v>
+        <v>1965</v>
       </c>
       <c r="E189" s="4">
-        <v>2146</v>
+        <v>1682</v>
       </c>
       <c r="F189" s="4">
-        <v>1898</v>
+        <v>1548</v>
       </c>
       <c r="G189" s="4">
-        <v>2142</v>
+        <v>1512</v>
       </c>
       <c r="H189" s="4">
-        <v>3095</v>
+        <v>2976</v>
       </c>
       <c r="I189" s="4">
-        <v>4019</v>
+        <v>4070</v>
       </c>
       <c r="J189" s="4">
-        <v>4880</v>
+        <v>3959</v>
       </c>
       <c r="K189" s="4">
-        <v>2093</v>
+        <v>1301</v>
       </c>
       <c r="L189" s="4">
-        <v>1867</v>
+        <v>1073</v>
       </c>
       <c r="M189" s="4">
-        <v>2332</v>
+        <v>1661</v>
       </c>
       <c r="N189" s="4">
-        <v>1124</v>
+        <v>638</v>
       </c>
       <c r="O189" s="4">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>188</v>
       </c>
       <c r="B190" s="3">
-        <v>24083</v>
+        <v>22038</v>
       </c>
       <c r="C190" s="3">
-        <v>1494</v>
+        <v>1201</v>
       </c>
       <c r="D190" s="3">
-        <v>1965</v>
+        <v>1196</v>
       </c>
       <c r="E190" s="4">
-        <v>1682</v>
+        <v>1330</v>
       </c>
       <c r="F190" s="4">
-        <v>1548</v>
+        <v>1241</v>
       </c>
       <c r="G190" s="4">
-        <v>1512</v>
+        <v>1084</v>
       </c>
       <c r="H190" s="4">
-        <v>2976</v>
+        <v>2593</v>
       </c>
       <c r="I190" s="4">
-        <v>4070</v>
+        <v>3232</v>
       </c>
       <c r="J190" s="4">
-        <v>3959</v>
+        <v>3025</v>
       </c>
       <c r="K190" s="4">
         <v>1301</v>
       </c>
       <c r="L190" s="4">
-        <v>1073</v>
+        <v>1548</v>
       </c>
       <c r="M190" s="4">
-        <v>1661</v>
+        <v>2179</v>
       </c>
       <c r="N190" s="4">
-        <v>638</v>
+        <v>1549</v>
       </c>
       <c r="O190" s="4">
-        <v>204</v>
+        <v>559</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
@@ -10043,46 +10012,46 @@
         <v>189</v>
       </c>
       <c r="B191" s="3">
-        <v>22038</v>
+        <v>19938</v>
       </c>
       <c r="C191" s="3">
-        <v>1201</v>
+        <v>1019</v>
       </c>
       <c r="D191" s="3">
-        <v>1196</v>
+        <v>1612</v>
       </c>
       <c r="E191" s="4">
-        <v>1330</v>
+        <v>1370</v>
       </c>
       <c r="F191" s="4">
-        <v>1241</v>
+        <v>1007</v>
       </c>
       <c r="G191" s="4">
-        <v>1084</v>
+        <v>1205</v>
       </c>
       <c r="H191" s="4">
-        <v>2593</v>
+        <v>2671</v>
       </c>
       <c r="I191" s="4">
-        <v>3232</v>
+        <v>2951</v>
       </c>
       <c r="J191" s="4">
-        <v>3025</v>
+        <v>2926</v>
       </c>
       <c r="K191" s="4">
-        <v>1301</v>
+        <v>1476</v>
       </c>
       <c r="L191" s="4">
-        <v>1548</v>
+        <v>1434</v>
       </c>
       <c r="M191" s="4">
-        <v>2179</v>
+        <v>1587</v>
       </c>
       <c r="N191" s="4">
-        <v>1549</v>
+        <v>539</v>
       </c>
       <c r="O191" s="4">
-        <v>559</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
@@ -10090,46 +10059,46 @@
         <v>190</v>
       </c>
       <c r="B192" s="3">
-        <v>19938</v>
+        <v>24799</v>
       </c>
       <c r="C192" s="3">
-        <v>1019</v>
+        <v>1202</v>
       </c>
       <c r="D192" s="3">
-        <v>1612</v>
+        <v>1406</v>
       </c>
       <c r="E192" s="4">
-        <v>1370</v>
+        <v>1647</v>
       </c>
       <c r="F192" s="4">
-        <v>1007</v>
+        <v>2034</v>
       </c>
       <c r="G192" s="4">
-        <v>1205</v>
+        <v>1377</v>
       </c>
       <c r="H192" s="4">
-        <v>2671</v>
+        <v>3187</v>
       </c>
       <c r="I192" s="4">
-        <v>2951</v>
+        <v>3888</v>
       </c>
       <c r="J192" s="4">
-        <v>2926</v>
+        <v>3705</v>
       </c>
       <c r="K192" s="4">
-        <v>1476</v>
+        <v>1776</v>
       </c>
       <c r="L192" s="4">
-        <v>1434</v>
+        <v>1996</v>
       </c>
       <c r="M192" s="4">
-        <v>1587</v>
+        <v>1712</v>
       </c>
       <c r="N192" s="4">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="O192" s="4">
-        <v>141</v>
+        <v>270</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.3">
@@ -10137,92 +10106,45 @@
         <v>191</v>
       </c>
       <c r="B193" s="3">
-        <v>24799</v>
+        <v>43427</v>
       </c>
       <c r="C193" s="3">
-        <v>1202</v>
+        <v>2181</v>
       </c>
       <c r="D193" s="3">
-        <v>1406</v>
+        <v>2769</v>
       </c>
       <c r="E193" s="4">
-        <v>1647</v>
+        <v>2847</v>
       </c>
       <c r="F193" s="4">
-        <v>2034</v>
+        <v>2927</v>
       </c>
       <c r="G193" s="4">
-        <v>1377</v>
+        <v>2627</v>
       </c>
       <c r="H193" s="4">
-        <v>3187</v>
+        <v>4632</v>
       </c>
       <c r="I193" s="4">
-        <v>3888</v>
+        <v>6524</v>
       </c>
       <c r="J193" s="4">
-        <v>3705</v>
+        <v>7139</v>
       </c>
       <c r="K193" s="4">
-        <v>1776</v>
+        <v>2999</v>
       </c>
       <c r="L193" s="4">
-        <v>1996</v>
+        <v>2825</v>
       </c>
       <c r="M193" s="4">
-        <v>1712</v>
+        <v>3646</v>
       </c>
       <c r="N193" s="4">
-        <v>599</v>
+        <v>1770</v>
       </c>
       <c r="O193" s="4">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A194" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B194" s="3">
-        <v>43427</v>
-      </c>
-      <c r="C194" s="3">
-        <v>2181</v>
-      </c>
-      <c r="D194" s="3">
-        <v>2769</v>
-      </c>
-      <c r="E194" s="4">
-        <v>2847</v>
-      </c>
-      <c r="F194" s="4">
-        <v>2927</v>
-      </c>
-      <c r="G194" s="4">
-        <v>2627</v>
-      </c>
-      <c r="H194" s="4">
-        <v>4632</v>
-      </c>
-      <c r="I194" s="4">
-        <v>6524</v>
-      </c>
-      <c r="J194" s="4">
-        <v>7139</v>
-      </c>
-      <c r="K194" s="4">
-        <v>2999</v>
-      </c>
-      <c r="L194" s="4">
-        <v>2825</v>
-      </c>
-      <c r="M194" s="4">
-        <v>3646</v>
-      </c>
-      <c r="N194" s="4">
-        <v>1770</v>
-      </c>
-      <c r="O194" s="4">
         <v>541</v>
       </c>
     </row>

--- a/Personal_Fit_Model/nyc_popn.xlsx
+++ b/Personal_Fit_Model/nyc_popn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\realtor-insights\Personal_Fit_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01803233-7F57-4760-8AE0-3E9CEC545DCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1775E38C-3CDD-4A37-B560-F2DB53EC9851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1008" windowWidth="18168" windowHeight="11952" xr2:uid="{81FBC0FE-682C-4D0A-A72B-84E50FF78C15}"/>
+    <workbookView xWindow="3072" yWindow="1008" windowWidth="18168" windowHeight="11952" xr2:uid="{81FBC0FE-682C-4D0A-A72B-84E50FF78C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Total population</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>85 years and over</t>
+  </si>
+  <si>
+    <t>comm</t>
   </si>
 </sst>
 </file>
@@ -1094,9 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB1D75-A1EB-4DBB-8EED-D9B5BD83CC4A}">
   <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1105,6 +1106,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>

--- a/Personal_Fit_Model/nyc_popn.xlsx
+++ b/Personal_Fit_Model/nyc_popn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\realtor-insights\Personal_Fit_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1775E38C-3CDD-4A37-B560-F2DB53EC9851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198CE497-9293-4631-B2E4-62D12F9C91B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="1008" windowWidth="18168" windowHeight="11952" xr2:uid="{81FBC0FE-682C-4D0A-A72B-84E50FF78C15}"/>
+    <workbookView xWindow="2988" yWindow="3240" windowWidth="4188" windowHeight="11952" xr2:uid="{81FBC0FE-682C-4D0A-A72B-84E50FF78C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Total population</t>
   </si>
@@ -74,9 +74,6 @@
     <t>BK78 Bushwick South</t>
   </si>
   <si>
-    <t>BK99 park-cemetery-etc-Brooklyn</t>
-  </si>
-  <si>
     <t>BK82 East New York</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>BX62 Woodlawn-Wakefield</t>
   </si>
   <si>
-    <t>BX99 park-cemetery-etc-Bronx</t>
-  </si>
-  <si>
     <t>MN23 West Village</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
     <t>MN36 Washington Heights South</t>
   </si>
   <si>
-    <t>MN99 park-cemetery-etc-Manhattan</t>
-  </si>
-  <si>
     <t>QN68 Queensbridge-Ravenswood-Long Island City</t>
   </si>
   <si>
@@ -396,9 +387,6 @@
   </si>
   <si>
     <t>QN72 Steinway</t>
-  </si>
-  <si>
-    <t>QN99 park-cemetery-etc-Queens</t>
   </si>
   <si>
     <t>QN31 Hunters Point-Sunnyside-West Maspeth</t>
@@ -1095,9 +1083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB1D75-A1EB-4DBB-8EED-D9B5BD83CC4A}">
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1107,37 +1097,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1565,34 +1555,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>416</v>
+        <v>91956</v>
       </c>
       <c r="C14" s="4">
-        <v>37</v>
+        <v>7706</v>
       </c>
       <c r="D14" s="3">
-        <v>120</v>
+        <v>12579</v>
       </c>
       <c r="E14" s="3">
-        <v>20</v>
+        <v>12456</v>
       </c>
       <c r="F14" s="3">
-        <v>60</v>
+        <v>11454</v>
       </c>
       <c r="G14" s="4">
-        <v>23</v>
+        <v>4514</v>
       </c>
       <c r="H14" s="3">
-        <v>11</v>
+        <v>3982</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>5293</v>
       </c>
       <c r="J14" s="3">
-        <v>17</v>
+        <v>2182</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1600,34 +1590,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>91956</v>
+        <v>47526</v>
       </c>
       <c r="C15" s="4">
-        <v>7706</v>
+        <v>4627</v>
       </c>
       <c r="D15" s="3">
-        <v>12579</v>
+        <v>6811</v>
       </c>
       <c r="E15" s="3">
-        <v>12456</v>
+        <v>7035</v>
       </c>
       <c r="F15" s="3">
-        <v>11454</v>
+        <v>6652</v>
       </c>
       <c r="G15" s="4">
-        <v>4514</v>
+        <v>2319</v>
       </c>
       <c r="H15" s="3">
-        <v>3982</v>
+        <v>1618</v>
       </c>
       <c r="I15" s="3">
-        <v>5293</v>
+        <v>1937</v>
       </c>
       <c r="J15" s="3">
-        <v>2182</v>
+        <v>1237</v>
       </c>
       <c r="K15" s="4">
-        <v>1112</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1635,104 +1625,104 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>47526</v>
+        <v>12822</v>
       </c>
       <c r="C16" s="4">
-        <v>4627</v>
+        <v>1125</v>
       </c>
       <c r="D16" s="3">
-        <v>6811</v>
+        <v>1342</v>
       </c>
       <c r="E16" s="3">
-        <v>7035</v>
+        <v>1537</v>
       </c>
       <c r="F16" s="3">
-        <v>6652</v>
+        <v>1592</v>
       </c>
       <c r="G16" s="4">
-        <v>2319</v>
+        <v>587</v>
       </c>
       <c r="H16" s="3">
-        <v>1618</v>
+        <v>495</v>
       </c>
       <c r="I16" s="3">
-        <v>1937</v>
+        <v>1370</v>
       </c>
       <c r="J16" s="3">
-        <v>1237</v>
+        <v>1457</v>
       </c>
       <c r="K16" s="4">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>12822</v>
+        <v>39422</v>
       </c>
       <c r="C17" s="4">
-        <v>1125</v>
+        <v>1883</v>
       </c>
       <c r="D17" s="3">
-        <v>1342</v>
+        <v>9184</v>
       </c>
       <c r="E17" s="3">
-        <v>1537</v>
+        <v>7377</v>
       </c>
       <c r="F17" s="3">
-        <v>1592</v>
+        <v>4576</v>
       </c>
       <c r="G17" s="4">
-        <v>587</v>
+        <v>2333</v>
       </c>
       <c r="H17" s="3">
-        <v>495</v>
+        <v>1666</v>
       </c>
       <c r="I17" s="3">
-        <v>1370</v>
+        <v>2056</v>
       </c>
       <c r="J17" s="3">
-        <v>1457</v>
+        <v>1422</v>
       </c>
       <c r="K17" s="4">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>39422</v>
+        <v>72864</v>
       </c>
       <c r="C18" s="4">
-        <v>1883</v>
+        <v>4557</v>
       </c>
       <c r="D18" s="3">
-        <v>9184</v>
+        <v>19019</v>
       </c>
       <c r="E18" s="3">
-        <v>7377</v>
+        <v>13091</v>
       </c>
       <c r="F18" s="3">
-        <v>4576</v>
+        <v>8752</v>
       </c>
       <c r="G18" s="4">
-        <v>2333</v>
+        <v>3972</v>
       </c>
       <c r="H18" s="3">
-        <v>1666</v>
+        <v>3637</v>
       </c>
       <c r="I18" s="3">
-        <v>2056</v>
+        <v>3531</v>
       </c>
       <c r="J18" s="3">
-        <v>1422</v>
+        <v>1724</v>
       </c>
       <c r="K18" s="4">
-        <v>650</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1740,34 +1730,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>72864</v>
+        <v>54932</v>
       </c>
       <c r="C19" s="4">
-        <v>4557</v>
+        <v>4887</v>
       </c>
       <c r="D19" s="3">
-        <v>19019</v>
+        <v>12509</v>
       </c>
       <c r="E19" s="3">
-        <v>13091</v>
+        <v>7813</v>
       </c>
       <c r="F19" s="3">
-        <v>8752</v>
+        <v>6513</v>
       </c>
       <c r="G19" s="4">
-        <v>3972</v>
+        <v>2741</v>
       </c>
       <c r="H19" s="3">
-        <v>3637</v>
+        <v>1867</v>
       </c>
       <c r="I19" s="3">
-        <v>3531</v>
+        <v>2287</v>
       </c>
       <c r="J19" s="3">
-        <v>1724</v>
+        <v>1429</v>
       </c>
       <c r="K19" s="4">
-        <v>756</v>
+        <v>679</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1775,34 +1765,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>54932</v>
+        <v>71460</v>
       </c>
       <c r="C20" s="4">
-        <v>4887</v>
+        <v>6055</v>
       </c>
       <c r="D20" s="3">
-        <v>12509</v>
+        <v>13777</v>
       </c>
       <c r="E20" s="3">
-        <v>7813</v>
+        <v>10606</v>
       </c>
       <c r="F20" s="3">
-        <v>6513</v>
+        <v>9409</v>
       </c>
       <c r="G20" s="4">
-        <v>2741</v>
+        <v>3624</v>
       </c>
       <c r="H20" s="3">
-        <v>1867</v>
+        <v>2727</v>
       </c>
       <c r="I20" s="3">
-        <v>2287</v>
+        <v>2919</v>
       </c>
       <c r="J20" s="3">
-        <v>1429</v>
+        <v>2247</v>
       </c>
       <c r="K20" s="4">
-        <v>679</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1810,34 +1800,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>71460</v>
+        <v>22571</v>
       </c>
       <c r="C21" s="4">
-        <v>6055</v>
+        <v>1811</v>
       </c>
       <c r="D21" s="3">
-        <v>13777</v>
+        <v>3841</v>
       </c>
       <c r="E21" s="3">
-        <v>10606</v>
+        <v>4085</v>
       </c>
       <c r="F21" s="3">
-        <v>9409</v>
+        <v>3175</v>
       </c>
       <c r="G21" s="4">
-        <v>3624</v>
+        <v>1701</v>
       </c>
       <c r="H21" s="3">
-        <v>2727</v>
+        <v>951</v>
       </c>
       <c r="I21" s="3">
-        <v>2919</v>
+        <v>1261</v>
       </c>
       <c r="J21" s="3">
-        <v>2247</v>
+        <v>964</v>
       </c>
       <c r="K21" s="4">
-        <v>593</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1845,34 +1835,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>22571</v>
+        <v>100130</v>
       </c>
       <c r="C22" s="4">
-        <v>1811</v>
+        <v>7484</v>
       </c>
       <c r="D22" s="3">
-        <v>3841</v>
+        <v>18898</v>
       </c>
       <c r="E22" s="3">
-        <v>4085</v>
+        <v>13501</v>
       </c>
       <c r="F22" s="3">
-        <v>3175</v>
+        <v>13745</v>
       </c>
       <c r="G22" s="4">
-        <v>1701</v>
+        <v>4898</v>
       </c>
       <c r="H22" s="3">
-        <v>951</v>
+        <v>4710</v>
       </c>
       <c r="I22" s="3">
-        <v>1261</v>
+        <v>6357</v>
       </c>
       <c r="J22" s="3">
-        <v>964</v>
+        <v>3073</v>
       </c>
       <c r="K22" s="4">
-        <v>349</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1880,104 +1870,104 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>100130</v>
+        <v>20449</v>
       </c>
       <c r="C23" s="4">
-        <v>7484</v>
+        <v>1174</v>
       </c>
       <c r="D23" s="3">
-        <v>18898</v>
+        <v>5861</v>
       </c>
       <c r="E23" s="3">
-        <v>13501</v>
+        <v>3966</v>
       </c>
       <c r="F23" s="3">
-        <v>13745</v>
+        <v>2352</v>
       </c>
       <c r="G23" s="4">
-        <v>4898</v>
+        <v>1286</v>
       </c>
       <c r="H23" s="3">
-        <v>4710</v>
+        <v>877</v>
       </c>
       <c r="I23" s="3">
-        <v>6357</v>
+        <v>994</v>
       </c>
       <c r="J23" s="3">
-        <v>3073</v>
+        <v>396</v>
       </c>
       <c r="K23" s="4">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>20449</v>
+        <v>69397</v>
       </c>
       <c r="C24" s="4">
-        <v>1174</v>
+        <v>5724</v>
       </c>
       <c r="D24" s="3">
-        <v>5861</v>
+        <v>11533</v>
       </c>
       <c r="E24" s="3">
-        <v>3966</v>
+        <v>9259</v>
       </c>
       <c r="F24" s="3">
-        <v>2352</v>
+        <v>8811</v>
       </c>
       <c r="G24" s="4">
-        <v>1286</v>
+        <v>4463</v>
       </c>
       <c r="H24" s="3">
-        <v>877</v>
+        <v>3868</v>
       </c>
       <c r="I24" s="3">
-        <v>994</v>
+        <v>5021</v>
       </c>
       <c r="J24" s="3">
-        <v>396</v>
+        <v>2500</v>
       </c>
       <c r="K24" s="4">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>69397</v>
+        <v>41243</v>
       </c>
       <c r="C25" s="4">
-        <v>5724</v>
+        <v>4298</v>
       </c>
       <c r="D25" s="3">
-        <v>11533</v>
+        <v>5829</v>
       </c>
       <c r="E25" s="3">
-        <v>9259</v>
+        <v>4935</v>
       </c>
       <c r="F25" s="3">
-        <v>8811</v>
+        <v>5182</v>
       </c>
       <c r="G25" s="4">
-        <v>4463</v>
+        <v>2627</v>
       </c>
       <c r="H25" s="3">
-        <v>3868</v>
+        <v>2012</v>
       </c>
       <c r="I25" s="3">
-        <v>5021</v>
+        <v>2265</v>
       </c>
       <c r="J25" s="3">
-        <v>2500</v>
+        <v>1347</v>
       </c>
       <c r="K25" s="4">
-        <v>1099</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1985,34 +1975,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>41243</v>
+        <v>45216</v>
       </c>
       <c r="C26" s="4">
-        <v>4298</v>
+        <v>3206</v>
       </c>
       <c r="D26" s="3">
-        <v>5829</v>
+        <v>6835</v>
       </c>
       <c r="E26" s="3">
-        <v>4935</v>
+        <v>6188</v>
       </c>
       <c r="F26" s="3">
-        <v>5182</v>
+        <v>6205</v>
       </c>
       <c r="G26" s="4">
-        <v>2627</v>
+        <v>2817</v>
       </c>
       <c r="H26" s="3">
-        <v>2012</v>
+        <v>2483</v>
       </c>
       <c r="I26" s="3">
-        <v>2265</v>
+        <v>3595</v>
       </c>
       <c r="J26" s="3">
-        <v>1347</v>
+        <v>2526</v>
       </c>
       <c r="K26" s="4">
-        <v>405</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2020,34 +2010,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>45216</v>
+        <v>83821</v>
       </c>
       <c r="C27" s="4">
-        <v>3206</v>
+        <v>4917</v>
       </c>
       <c r="D27" s="3">
-        <v>6835</v>
+        <v>14136</v>
       </c>
       <c r="E27" s="3">
-        <v>6188</v>
+        <v>12637</v>
       </c>
       <c r="F27" s="3">
-        <v>6205</v>
+        <v>11878</v>
       </c>
       <c r="G27" s="4">
-        <v>2817</v>
+        <v>5109</v>
       </c>
       <c r="H27" s="3">
-        <v>2483</v>
+        <v>4645</v>
       </c>
       <c r="I27" s="3">
-        <v>3595</v>
+        <v>5916</v>
       </c>
       <c r="J27" s="3">
-        <v>2526</v>
+        <v>4028</v>
       </c>
       <c r="K27" s="4">
-        <v>1150</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2055,34 +2045,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>83821</v>
+        <v>29311</v>
       </c>
       <c r="C28" s="4">
-        <v>4917</v>
+        <v>1825</v>
       </c>
       <c r="D28" s="3">
-        <v>14136</v>
+        <v>4569</v>
       </c>
       <c r="E28" s="3">
-        <v>12637</v>
+        <v>4277</v>
       </c>
       <c r="F28" s="3">
-        <v>11878</v>
+        <v>3605</v>
       </c>
       <c r="G28" s="4">
-        <v>5109</v>
+        <v>1771</v>
       </c>
       <c r="H28" s="3">
-        <v>4645</v>
+        <v>1780</v>
       </c>
       <c r="I28" s="3">
-        <v>5916</v>
+        <v>2782</v>
       </c>
       <c r="J28" s="3">
-        <v>4028</v>
+        <v>1813</v>
       </c>
       <c r="K28" s="4">
-        <v>1790</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2090,34 +2080,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>29311</v>
+        <v>86592</v>
       </c>
       <c r="C29" s="4">
-        <v>1825</v>
+        <v>5894</v>
       </c>
       <c r="D29" s="3">
-        <v>4569</v>
+        <v>13943</v>
       </c>
       <c r="E29" s="3">
-        <v>4277</v>
+        <v>11443</v>
       </c>
       <c r="F29" s="3">
-        <v>3605</v>
+        <v>11884</v>
       </c>
       <c r="G29" s="4">
-        <v>1771</v>
+        <v>5197</v>
       </c>
       <c r="H29" s="3">
-        <v>1780</v>
+        <v>4925</v>
       </c>
       <c r="I29" s="3">
-        <v>2782</v>
+        <v>6872</v>
       </c>
       <c r="J29" s="3">
-        <v>1813</v>
+        <v>4073</v>
       </c>
       <c r="K29" s="4">
-        <v>654</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2125,34 +2115,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>86592</v>
+        <v>61066</v>
       </c>
       <c r="C30" s="4">
-        <v>5894</v>
+        <v>3814</v>
       </c>
       <c r="D30" s="3">
-        <v>13943</v>
+        <v>9512</v>
       </c>
       <c r="E30" s="3">
-        <v>11443</v>
+        <v>8710</v>
       </c>
       <c r="F30" s="3">
-        <v>11884</v>
+        <v>8291</v>
       </c>
       <c r="G30" s="4">
-        <v>5197</v>
+        <v>4131</v>
       </c>
       <c r="H30" s="3">
-        <v>4925</v>
+        <v>3677</v>
       </c>
       <c r="I30" s="3">
-        <v>6872</v>
+        <v>5423</v>
       </c>
       <c r="J30" s="3">
-        <v>4073</v>
+        <v>3633</v>
       </c>
       <c r="K30" s="4">
-        <v>2299</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2160,34 +2150,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>61066</v>
+        <v>36199</v>
       </c>
       <c r="C31" s="4">
-        <v>3814</v>
+        <v>2562</v>
       </c>
       <c r="D31" s="3">
-        <v>9512</v>
+        <v>6184</v>
       </c>
       <c r="E31" s="3">
-        <v>8710</v>
+        <v>5135</v>
       </c>
       <c r="F31" s="3">
-        <v>8291</v>
+        <v>4191</v>
       </c>
       <c r="G31" s="4">
-        <v>4131</v>
+        <v>1673</v>
       </c>
       <c r="H31" s="3">
-        <v>3677</v>
+        <v>2088</v>
       </c>
       <c r="I31" s="3">
-        <v>5423</v>
+        <v>1946</v>
       </c>
       <c r="J31" s="3">
-        <v>3633</v>
+        <v>1230</v>
       </c>
       <c r="K31" s="4">
-        <v>1150</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2195,34 +2185,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>36199</v>
+        <v>19541</v>
       </c>
       <c r="C32" s="4">
-        <v>2562</v>
+        <v>1576</v>
       </c>
       <c r="D32" s="3">
-        <v>6184</v>
+        <v>2382</v>
       </c>
       <c r="E32" s="3">
-        <v>5135</v>
+        <v>1874</v>
       </c>
       <c r="F32" s="3">
-        <v>4191</v>
+        <v>2251</v>
       </c>
       <c r="G32" s="4">
-        <v>1673</v>
+        <v>1227</v>
       </c>
       <c r="H32" s="3">
-        <v>2088</v>
+        <v>1306</v>
       </c>
       <c r="I32" s="3">
-        <v>1946</v>
+        <v>1177</v>
       </c>
       <c r="J32" s="3">
-        <v>1230</v>
+        <v>965</v>
       </c>
       <c r="K32" s="4">
-        <v>521</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2230,34 +2220,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>19541</v>
+        <v>106203</v>
       </c>
       <c r="C33" s="4">
-        <v>1576</v>
+        <v>8122</v>
       </c>
       <c r="D33" s="3">
-        <v>2382</v>
+        <v>15161</v>
       </c>
       <c r="E33" s="3">
-        <v>1874</v>
+        <v>10136</v>
       </c>
       <c r="F33" s="3">
-        <v>2251</v>
+        <v>10000</v>
       </c>
       <c r="G33" s="4">
-        <v>1227</v>
+        <v>4855</v>
       </c>
       <c r="H33" s="3">
-        <v>1306</v>
+        <v>4934</v>
       </c>
       <c r="I33" s="3">
-        <v>1177</v>
+        <v>3941</v>
       </c>
       <c r="J33" s="3">
-        <v>965</v>
+        <v>3565</v>
       </c>
       <c r="K33" s="4">
-        <v>490</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2265,34 +2255,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>106203</v>
+        <v>31584</v>
       </c>
       <c r="C34" s="4">
-        <v>8122</v>
+        <v>1965</v>
       </c>
       <c r="D34" s="3">
-        <v>15161</v>
+        <v>4053</v>
       </c>
       <c r="E34" s="3">
-        <v>10136</v>
+        <v>3549</v>
       </c>
       <c r="F34" s="3">
-        <v>10000</v>
+        <v>4987</v>
       </c>
       <c r="G34" s="4">
-        <v>4855</v>
+        <v>2060</v>
       </c>
       <c r="H34" s="3">
-        <v>4934</v>
+        <v>2235</v>
       </c>
       <c r="I34" s="3">
-        <v>3941</v>
+        <v>2771</v>
       </c>
       <c r="J34" s="3">
-        <v>3565</v>
+        <v>3020</v>
       </c>
       <c r="K34" s="4">
-        <v>2437</v>
+        <v>977</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2300,34 +2290,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>31584</v>
+        <v>30018</v>
       </c>
       <c r="C35" s="4">
+        <v>2150</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2947</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3103</v>
+      </c>
+      <c r="F35" s="3">
+        <v>4311</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1958</v>
+      </c>
+      <c r="H35" s="3">
         <v>1965</v>
       </c>
-      <c r="D35" s="3">
-        <v>4053</v>
-      </c>
-      <c r="E35" s="3">
-        <v>3549</v>
-      </c>
-      <c r="F35" s="3">
-        <v>4987</v>
-      </c>
-      <c r="G35" s="4">
-        <v>2060</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2235</v>
-      </c>
       <c r="I35" s="3">
-        <v>2771</v>
+        <v>3180</v>
       </c>
       <c r="J35" s="3">
-        <v>3020</v>
+        <v>2175</v>
       </c>
       <c r="K35" s="4">
-        <v>977</v>
+        <v>816</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2335,34 +2325,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>30018</v>
+        <v>15472</v>
       </c>
       <c r="C36" s="4">
-        <v>2150</v>
+        <v>611</v>
       </c>
       <c r="D36" s="3">
-        <v>2947</v>
+        <v>1108</v>
       </c>
       <c r="E36" s="3">
-        <v>3103</v>
+        <v>1603</v>
       </c>
       <c r="F36" s="3">
-        <v>4311</v>
+        <v>2031</v>
       </c>
       <c r="G36" s="4">
-        <v>1958</v>
+        <v>1181</v>
       </c>
       <c r="H36" s="3">
-        <v>1965</v>
+        <v>1529</v>
       </c>
       <c r="I36" s="3">
-        <v>3180</v>
+        <v>3071</v>
       </c>
       <c r="J36" s="3">
-        <v>2175</v>
+        <v>2043</v>
       </c>
       <c r="K36" s="4">
-        <v>816</v>
+        <v>852</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2370,34 +2360,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>15472</v>
+        <v>27759</v>
       </c>
       <c r="C37" s="4">
-        <v>611</v>
+        <v>1590</v>
       </c>
       <c r="D37" s="3">
-        <v>1108</v>
+        <v>3580</v>
       </c>
       <c r="E37" s="3">
-        <v>1603</v>
+        <v>3272</v>
       </c>
       <c r="F37" s="3">
-        <v>2031</v>
+        <v>3540</v>
       </c>
       <c r="G37" s="4">
-        <v>1181</v>
+        <v>1883</v>
       </c>
       <c r="H37" s="3">
-        <v>1529</v>
+        <v>1881</v>
       </c>
       <c r="I37" s="3">
-        <v>3071</v>
+        <v>3503</v>
       </c>
       <c r="J37" s="3">
-        <v>2043</v>
+        <v>1818</v>
       </c>
       <c r="K37" s="4">
-        <v>852</v>
+        <v>920</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2405,34 +2395,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>27759</v>
+        <v>105094</v>
       </c>
       <c r="C38" s="4">
-        <v>1590</v>
+        <v>8663</v>
       </c>
       <c r="D38" s="3">
-        <v>3580</v>
+        <v>16322</v>
       </c>
       <c r="E38" s="3">
-        <v>3272</v>
+        <v>15095</v>
       </c>
       <c r="F38" s="3">
-        <v>3540</v>
+        <v>15188</v>
       </c>
       <c r="G38" s="4">
-        <v>1883</v>
+        <v>6084</v>
       </c>
       <c r="H38" s="3">
-        <v>1881</v>
+        <v>5079</v>
       </c>
       <c r="I38" s="3">
-        <v>3503</v>
+        <v>5955</v>
       </c>
       <c r="J38" s="3">
-        <v>1818</v>
+        <v>2808</v>
       </c>
       <c r="K38" s="4">
-        <v>920</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2440,104 +2430,104 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>105094</v>
+        <v>51514</v>
       </c>
       <c r="C39" s="4">
-        <v>8663</v>
+        <v>4038</v>
       </c>
       <c r="D39" s="3">
-        <v>16322</v>
+        <v>6627</v>
       </c>
       <c r="E39" s="3">
-        <v>15095</v>
+        <v>6337</v>
       </c>
       <c r="F39" s="3">
-        <v>15188</v>
+        <v>5967</v>
       </c>
       <c r="G39" s="4">
-        <v>6084</v>
+        <v>3105</v>
       </c>
       <c r="H39" s="3">
-        <v>5079</v>
+        <v>3523</v>
       </c>
       <c r="I39" s="3">
-        <v>5955</v>
+        <v>3166</v>
       </c>
       <c r="J39" s="3">
-        <v>2808</v>
+        <v>2451</v>
       </c>
       <c r="K39" s="4">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>51514</v>
+        <v>61584</v>
       </c>
       <c r="C40" s="4">
-        <v>4038</v>
+        <v>3625</v>
       </c>
       <c r="D40" s="3">
-        <v>6627</v>
+        <v>7723</v>
       </c>
       <c r="E40" s="3">
-        <v>6337</v>
+        <v>8074</v>
       </c>
       <c r="F40" s="3">
-        <v>5967</v>
+        <v>9328</v>
       </c>
       <c r="G40" s="4">
-        <v>3105</v>
+        <v>4690</v>
       </c>
       <c r="H40" s="3">
-        <v>3523</v>
+        <v>4264</v>
       </c>
       <c r="I40" s="3">
-        <v>3166</v>
+        <v>5290</v>
       </c>
       <c r="J40" s="3">
-        <v>2451</v>
+        <v>3703</v>
       </c>
       <c r="K40" s="4">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>61584</v>
+        <v>41899</v>
       </c>
       <c r="C41" s="4">
-        <v>3625</v>
+        <v>2688</v>
       </c>
       <c r="D41" s="3">
-        <v>7723</v>
+        <v>5729</v>
       </c>
       <c r="E41" s="3">
-        <v>8074</v>
+        <v>5286</v>
       </c>
       <c r="F41" s="3">
-        <v>9328</v>
+        <v>5312</v>
       </c>
       <c r="G41" s="4">
-        <v>4690</v>
+        <v>2616</v>
       </c>
       <c r="H41" s="3">
-        <v>4264</v>
+        <v>2186</v>
       </c>
       <c r="I41" s="3">
-        <v>5290</v>
+        <v>3759</v>
       </c>
       <c r="J41" s="3">
-        <v>3703</v>
+        <v>2382</v>
       </c>
       <c r="K41" s="4">
-        <v>2467</v>
+        <v>827</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2545,34 +2535,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>41899</v>
+        <v>40001</v>
       </c>
       <c r="C42" s="4">
-        <v>2688</v>
+        <v>2532</v>
       </c>
       <c r="D42" s="3">
-        <v>5729</v>
+        <v>4919</v>
       </c>
       <c r="E42" s="3">
-        <v>5286</v>
+        <v>4837</v>
       </c>
       <c r="F42" s="3">
-        <v>5312</v>
+        <v>6507</v>
       </c>
       <c r="G42" s="4">
-        <v>2616</v>
+        <v>3057</v>
       </c>
       <c r="H42" s="3">
-        <v>2186</v>
+        <v>2810</v>
       </c>
       <c r="I42" s="3">
-        <v>3759</v>
+        <v>2272</v>
       </c>
       <c r="J42" s="3">
-        <v>2382</v>
+        <v>2883</v>
       </c>
       <c r="K42" s="4">
-        <v>827</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2580,34 +2570,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>40001</v>
+        <v>31831</v>
       </c>
       <c r="C43" s="4">
-        <v>2532</v>
+        <v>2467</v>
       </c>
       <c r="D43" s="3">
-        <v>4919</v>
+        <v>4525</v>
       </c>
       <c r="E43" s="3">
-        <v>4837</v>
+        <v>4479</v>
       </c>
       <c r="F43" s="3">
-        <v>6507</v>
+        <v>4800</v>
       </c>
       <c r="G43" s="4">
-        <v>3057</v>
+        <v>1080</v>
       </c>
       <c r="H43" s="3">
-        <v>2810</v>
+        <v>974</v>
       </c>
       <c r="I43" s="3">
-        <v>2272</v>
+        <v>2025</v>
       </c>
       <c r="J43" s="3">
-        <v>2883</v>
+        <v>896</v>
       </c>
       <c r="K43" s="4">
-        <v>801</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2615,34 +2605,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>31831</v>
+        <v>55412</v>
       </c>
       <c r="C44" s="4">
-        <v>2467</v>
+        <v>4442</v>
       </c>
       <c r="D44" s="3">
-        <v>4525</v>
+        <v>8129</v>
       </c>
       <c r="E44" s="3">
-        <v>4479</v>
+        <v>6526</v>
       </c>
       <c r="F44" s="3">
-        <v>4800</v>
+        <v>6965</v>
       </c>
       <c r="G44" s="4">
-        <v>1080</v>
+        <v>2554</v>
       </c>
       <c r="H44" s="3">
-        <v>974</v>
+        <v>2489</v>
       </c>
       <c r="I44" s="3">
-        <v>2025</v>
+        <v>3238</v>
       </c>
       <c r="J44" s="3">
-        <v>896</v>
+        <v>1726</v>
       </c>
       <c r="K44" s="4">
-        <v>231</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2650,34 +2640,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>55412</v>
+        <v>29854</v>
       </c>
       <c r="C45" s="4">
-        <v>4442</v>
+        <v>2817</v>
       </c>
       <c r="D45" s="3">
-        <v>8129</v>
+        <v>4050</v>
       </c>
       <c r="E45" s="3">
-        <v>6526</v>
+        <v>3918</v>
       </c>
       <c r="F45" s="3">
-        <v>6965</v>
+        <v>3664</v>
       </c>
       <c r="G45" s="4">
-        <v>2554</v>
+        <v>1547</v>
       </c>
       <c r="H45" s="3">
-        <v>2489</v>
+        <v>1051</v>
       </c>
       <c r="I45" s="3">
-        <v>3238</v>
+        <v>1283</v>
       </c>
       <c r="J45" s="3">
-        <v>1726</v>
+        <v>619</v>
       </c>
       <c r="K45" s="4">
-        <v>498</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2685,34 +2675,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>29854</v>
+        <v>52657</v>
       </c>
       <c r="C46" s="4">
-        <v>2817</v>
+        <v>3728</v>
       </c>
       <c r="D46" s="3">
-        <v>4050</v>
+        <v>8143</v>
       </c>
       <c r="E46" s="3">
-        <v>3918</v>
+        <v>6842</v>
       </c>
       <c r="F46" s="3">
-        <v>3664</v>
+        <v>7232</v>
       </c>
       <c r="G46" s="4">
-        <v>1547</v>
+        <v>3757</v>
       </c>
       <c r="H46" s="3">
-        <v>1051</v>
+        <v>3247</v>
       </c>
       <c r="I46" s="3">
-        <v>1283</v>
+        <v>4156</v>
       </c>
       <c r="J46" s="3">
-        <v>619</v>
+        <v>2139</v>
       </c>
       <c r="K46" s="4">
-        <v>60</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2720,34 +2710,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>52657</v>
+        <v>29933</v>
       </c>
       <c r="C47" s="4">
-        <v>3728</v>
+        <v>2290</v>
       </c>
       <c r="D47" s="3">
-        <v>8143</v>
+        <v>4677</v>
       </c>
       <c r="E47" s="3">
-        <v>6842</v>
+        <v>4142</v>
       </c>
       <c r="F47" s="3">
-        <v>7232</v>
+        <v>4238</v>
       </c>
       <c r="G47" s="4">
-        <v>3757</v>
+        <v>1635</v>
       </c>
       <c r="H47" s="3">
-        <v>3247</v>
+        <v>1525</v>
       </c>
       <c r="I47" s="3">
-        <v>4156</v>
+        <v>1724</v>
       </c>
       <c r="J47" s="3">
-        <v>2139</v>
+        <v>838</v>
       </c>
       <c r="K47" s="4">
-        <v>578</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2755,104 +2745,104 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>29933</v>
+        <v>56277</v>
       </c>
       <c r="C48" s="4">
-        <v>2290</v>
+        <v>3987</v>
       </c>
       <c r="D48" s="3">
-        <v>4677</v>
+        <v>7788</v>
       </c>
       <c r="E48" s="3">
-        <v>4142</v>
+        <v>7452</v>
       </c>
       <c r="F48" s="3">
-        <v>4238</v>
+        <v>8423</v>
       </c>
       <c r="G48" s="4">
-        <v>1635</v>
+        <v>3690</v>
       </c>
       <c r="H48" s="3">
-        <v>1525</v>
+        <v>3601</v>
       </c>
       <c r="I48" s="3">
-        <v>1724</v>
+        <v>4295</v>
       </c>
       <c r="J48" s="3">
-        <v>838</v>
+        <v>2147</v>
       </c>
       <c r="K48" s="4">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>56277</v>
+        <v>48351</v>
       </c>
       <c r="C49" s="4">
-        <v>3987</v>
+        <v>2820</v>
       </c>
       <c r="D49" s="3">
-        <v>7788</v>
+        <v>6093</v>
       </c>
       <c r="E49" s="3">
-        <v>7452</v>
+        <v>6382</v>
       </c>
       <c r="F49" s="3">
-        <v>8423</v>
+        <v>6799</v>
       </c>
       <c r="G49" s="4">
-        <v>3690</v>
+        <v>3289</v>
       </c>
       <c r="H49" s="3">
-        <v>3601</v>
+        <v>2921</v>
       </c>
       <c r="I49" s="3">
-        <v>4295</v>
+        <v>3041</v>
       </c>
       <c r="J49" s="3">
-        <v>2147</v>
+        <v>2455</v>
       </c>
       <c r="K49" s="4">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>48351</v>
-      </c>
-      <c r="C50" s="4">
-        <v>2820</v>
+        <v>86160</v>
+      </c>
+      <c r="C50" s="3">
+        <v>6933</v>
       </c>
       <c r="D50" s="3">
-        <v>6093</v>
+        <v>11685</v>
       </c>
       <c r="E50" s="3">
-        <v>6382</v>
+        <v>11590</v>
       </c>
       <c r="F50" s="3">
-        <v>6799</v>
-      </c>
-      <c r="G50" s="4">
-        <v>3289</v>
+        <v>13843</v>
+      </c>
+      <c r="G50" s="3">
+        <v>5721</v>
       </c>
       <c r="H50" s="3">
-        <v>2921</v>
+        <v>4656</v>
       </c>
       <c r="I50" s="3">
-        <v>3041</v>
+        <v>4580</v>
       </c>
       <c r="J50" s="3">
-        <v>2455</v>
-      </c>
-      <c r="K50" s="4">
-        <v>1128</v>
+        <v>2306</v>
+      </c>
+      <c r="K50" s="3">
+        <v>998</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2860,34 +2850,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>86160</v>
+        <v>70872</v>
       </c>
       <c r="C51" s="3">
-        <v>6933</v>
+        <v>5760</v>
       </c>
       <c r="D51" s="3">
-        <v>11685</v>
+        <v>9372</v>
       </c>
       <c r="E51" s="3">
-        <v>11590</v>
+        <v>8553</v>
       </c>
       <c r="F51" s="3">
-        <v>13843</v>
+        <v>10658</v>
       </c>
       <c r="G51" s="3">
-        <v>5721</v>
+        <v>5255</v>
       </c>
       <c r="H51" s="3">
-        <v>4656</v>
+        <v>3985</v>
       </c>
       <c r="I51" s="3">
-        <v>4580</v>
+        <v>5069</v>
       </c>
       <c r="J51" s="3">
-        <v>2306</v>
+        <v>2338</v>
       </c>
       <c r="K51" s="3">
-        <v>998</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2895,34 +2885,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>70872</v>
+        <v>27562</v>
       </c>
       <c r="C52" s="3">
-        <v>5760</v>
+        <v>2505</v>
       </c>
       <c r="D52" s="3">
-        <v>9372</v>
+        <v>4746</v>
       </c>
       <c r="E52" s="3">
-        <v>8553</v>
+        <v>3557</v>
       </c>
       <c r="F52" s="3">
-        <v>10658</v>
+        <v>2975</v>
       </c>
       <c r="G52" s="3">
-        <v>5255</v>
+        <v>1029</v>
       </c>
       <c r="H52" s="3">
-        <v>3985</v>
+        <v>939</v>
       </c>
       <c r="I52" s="3">
-        <v>5069</v>
+        <v>1436</v>
       </c>
       <c r="J52" s="3">
-        <v>2338</v>
+        <v>649</v>
       </c>
       <c r="K52" s="3">
-        <v>1024</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2930,34 +2920,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>27562</v>
+        <v>25542</v>
       </c>
       <c r="C53" s="3">
-        <v>2505</v>
+        <v>1988</v>
       </c>
       <c r="D53" s="3">
-        <v>4746</v>
+        <v>3964</v>
       </c>
       <c r="E53" s="3">
-        <v>3557</v>
+        <v>3082</v>
       </c>
       <c r="F53" s="3">
-        <v>2975</v>
+        <v>3097</v>
       </c>
       <c r="G53" s="3">
-        <v>1029</v>
+        <v>1007</v>
       </c>
       <c r="H53" s="3">
-        <v>939</v>
+        <v>803</v>
       </c>
       <c r="I53" s="3">
-        <v>1436</v>
+        <v>1348</v>
       </c>
       <c r="J53" s="3">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="K53" s="3">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2965,34 +2955,34 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>25542</v>
+        <v>39020</v>
       </c>
       <c r="C54" s="3">
-        <v>1988</v>
+        <v>3754</v>
       </c>
       <c r="D54" s="3">
-        <v>3964</v>
+        <v>6486</v>
       </c>
       <c r="E54" s="3">
-        <v>3082</v>
+        <v>4218</v>
       </c>
       <c r="F54" s="3">
-        <v>3097</v>
+        <v>4282</v>
       </c>
       <c r="G54" s="3">
-        <v>1007</v>
+        <v>1461</v>
       </c>
       <c r="H54" s="3">
-        <v>803</v>
+        <v>1621</v>
       </c>
       <c r="I54" s="3">
-        <v>1348</v>
+        <v>1764</v>
       </c>
       <c r="J54" s="3">
-        <v>664</v>
+        <v>1192</v>
       </c>
       <c r="K54" s="3">
-        <v>185</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -3000,34 +2990,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>39020</v>
+        <v>52132</v>
       </c>
       <c r="C55" s="3">
-        <v>3754</v>
+        <v>4731</v>
       </c>
       <c r="D55" s="3">
-        <v>6486</v>
+        <v>7543</v>
       </c>
       <c r="E55" s="3">
-        <v>4218</v>
+        <v>7224</v>
       </c>
       <c r="F55" s="3">
-        <v>4282</v>
+        <v>6359</v>
       </c>
       <c r="G55" s="3">
-        <v>1461</v>
+        <v>2103</v>
       </c>
       <c r="H55" s="3">
-        <v>1621</v>
+        <v>1854</v>
       </c>
       <c r="I55" s="3">
-        <v>1764</v>
+        <v>2741</v>
       </c>
       <c r="J55" s="3">
-        <v>1192</v>
+        <v>1596</v>
       </c>
       <c r="K55" s="3">
-        <v>323</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -3035,34 +3025,34 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>52132</v>
+        <v>30715</v>
       </c>
       <c r="C56" s="3">
-        <v>4731</v>
+        <v>3091</v>
       </c>
       <c r="D56" s="3">
-        <v>7543</v>
+        <v>4214</v>
       </c>
       <c r="E56" s="3">
-        <v>7224</v>
+        <v>3842</v>
       </c>
       <c r="F56" s="3">
-        <v>6359</v>
+        <v>4279</v>
       </c>
       <c r="G56" s="3">
-        <v>2103</v>
+        <v>1317</v>
       </c>
       <c r="H56" s="3">
-        <v>1854</v>
+        <v>781</v>
       </c>
       <c r="I56" s="3">
-        <v>2741</v>
+        <v>1339</v>
       </c>
       <c r="J56" s="3">
-        <v>1596</v>
+        <v>575</v>
       </c>
       <c r="K56" s="3">
-        <v>361</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -3070,34 +3060,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>30715</v>
+        <v>25783</v>
       </c>
       <c r="C57" s="3">
-        <v>3091</v>
+        <v>4027</v>
       </c>
       <c r="D57" s="3">
-        <v>4214</v>
+        <v>3284</v>
       </c>
       <c r="E57" s="3">
-        <v>3842</v>
+        <v>3332</v>
       </c>
       <c r="F57" s="3">
-        <v>4279</v>
+        <v>2407</v>
       </c>
       <c r="G57" s="3">
-        <v>1317</v>
+        <v>847</v>
       </c>
       <c r="H57" s="3">
-        <v>781</v>
+        <v>750</v>
       </c>
       <c r="I57" s="3">
-        <v>1339</v>
+        <v>1138</v>
       </c>
       <c r="J57" s="3">
-        <v>575</v>
+        <v>674</v>
       </c>
       <c r="K57" s="3">
-        <v>204</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -3105,34 +3095,34 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>25783</v>
+        <v>41871</v>
       </c>
       <c r="C58" s="3">
-        <v>4027</v>
+        <v>3995</v>
       </c>
       <c r="D58" s="3">
-        <v>3284</v>
+        <v>5572</v>
       </c>
       <c r="E58" s="3">
-        <v>3332</v>
+        <v>5275</v>
       </c>
       <c r="F58" s="3">
-        <v>2407</v>
+        <v>5255</v>
       </c>
       <c r="G58" s="3">
-        <v>847</v>
+        <v>2138</v>
       </c>
       <c r="H58" s="3">
-        <v>750</v>
+        <v>1570</v>
       </c>
       <c r="I58" s="3">
-        <v>1138</v>
+        <v>1969</v>
       </c>
       <c r="J58" s="3">
-        <v>674</v>
+        <v>1035</v>
       </c>
       <c r="K58" s="3">
-        <v>159</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3140,34 +3130,34 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>41871</v>
+        <v>37872</v>
       </c>
       <c r="C59" s="3">
-        <v>3995</v>
+        <v>3243</v>
       </c>
       <c r="D59" s="3">
-        <v>5572</v>
+        <v>5556</v>
       </c>
       <c r="E59" s="3">
-        <v>5275</v>
+        <v>5060</v>
       </c>
       <c r="F59" s="3">
-        <v>5255</v>
+        <v>4711</v>
       </c>
       <c r="G59" s="3">
-        <v>2138</v>
+        <v>2118</v>
       </c>
       <c r="H59" s="3">
-        <v>1570</v>
+        <v>1289</v>
       </c>
       <c r="I59" s="3">
-        <v>1969</v>
+        <v>1759</v>
       </c>
       <c r="J59" s="3">
-        <v>1035</v>
+        <v>880</v>
       </c>
       <c r="K59" s="3">
-        <v>365</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3175,104 +3165,104 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>37872</v>
+        <v>20352</v>
       </c>
       <c r="C60" s="3">
-        <v>3243</v>
+        <v>1452</v>
       </c>
       <c r="D60" s="3">
-        <v>5556</v>
+        <v>2828</v>
       </c>
       <c r="E60" s="3">
-        <v>5060</v>
+        <v>2459</v>
       </c>
       <c r="F60" s="3">
-        <v>4711</v>
+        <v>2536</v>
       </c>
       <c r="G60" s="3">
-        <v>2118</v>
+        <v>932</v>
       </c>
       <c r="H60" s="3">
-        <v>1289</v>
+        <v>638</v>
       </c>
       <c r="I60" s="3">
-        <v>1759</v>
+        <v>1078</v>
       </c>
       <c r="J60" s="3">
-        <v>880</v>
+        <v>521</v>
       </c>
       <c r="K60" s="3">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>20352</v>
+        <v>63504</v>
       </c>
       <c r="C61" s="3">
-        <v>1452</v>
+        <v>5274</v>
       </c>
       <c r="D61" s="3">
-        <v>2828</v>
+        <v>9679</v>
       </c>
       <c r="E61" s="3">
-        <v>2459</v>
+        <v>8452</v>
       </c>
       <c r="F61" s="3">
-        <v>2536</v>
+        <v>8361</v>
       </c>
       <c r="G61" s="3">
-        <v>932</v>
+        <v>3404</v>
       </c>
       <c r="H61" s="3">
-        <v>638</v>
+        <v>2396</v>
       </c>
       <c r="I61" s="3">
-        <v>1078</v>
+        <v>3898</v>
       </c>
       <c r="J61" s="3">
-        <v>521</v>
+        <v>1857</v>
       </c>
       <c r="K61" s="3">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>63504</v>
+        <v>37065</v>
       </c>
       <c r="C62" s="3">
-        <v>5274</v>
+        <v>2782</v>
       </c>
       <c r="D62" s="3">
-        <v>9679</v>
+        <v>5724</v>
       </c>
       <c r="E62" s="3">
-        <v>8452</v>
+        <v>5096</v>
       </c>
       <c r="F62" s="3">
-        <v>8361</v>
+        <v>4771</v>
       </c>
       <c r="G62" s="3">
-        <v>3404</v>
+        <v>1724</v>
       </c>
       <c r="H62" s="3">
-        <v>2396</v>
+        <v>1527</v>
       </c>
       <c r="I62" s="3">
-        <v>3898</v>
+        <v>1613</v>
       </c>
       <c r="J62" s="3">
-        <v>1857</v>
+        <v>835</v>
       </c>
       <c r="K62" s="3">
-        <v>682</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3280,34 +3270,34 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>37065</v>
+        <v>39680</v>
       </c>
       <c r="C63" s="3">
-        <v>2782</v>
+        <v>2901</v>
       </c>
       <c r="D63" s="3">
-        <v>5724</v>
+        <v>6143</v>
       </c>
       <c r="E63" s="3">
-        <v>5096</v>
+        <v>6091</v>
       </c>
       <c r="F63" s="3">
-        <v>4771</v>
+        <v>5098</v>
       </c>
       <c r="G63" s="3">
-        <v>1724</v>
+        <v>2084</v>
       </c>
       <c r="H63" s="3">
-        <v>1527</v>
+        <v>1603</v>
       </c>
       <c r="I63" s="3">
-        <v>1613</v>
+        <v>1546</v>
       </c>
       <c r="J63" s="3">
-        <v>835</v>
+        <v>678</v>
       </c>
       <c r="K63" s="3">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3315,34 +3305,34 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>39680</v>
+        <v>53944</v>
       </c>
       <c r="C64" s="3">
-        <v>2901</v>
+        <v>5142</v>
       </c>
       <c r="D64" s="3">
-        <v>6143</v>
+        <v>8102</v>
       </c>
       <c r="E64" s="3">
-        <v>6091</v>
+        <v>6858</v>
       </c>
       <c r="F64" s="3">
-        <v>5098</v>
+        <v>7731</v>
       </c>
       <c r="G64" s="3">
-        <v>2084</v>
+        <v>3050</v>
       </c>
       <c r="H64" s="3">
-        <v>1603</v>
+        <v>2238</v>
       </c>
       <c r="I64" s="3">
-        <v>1546</v>
+        <v>2285</v>
       </c>
       <c r="J64" s="3">
-        <v>678</v>
+        <v>804</v>
       </c>
       <c r="K64" s="3">
-        <v>163</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3350,34 +3340,34 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>53944</v>
+        <v>26336</v>
       </c>
       <c r="C65" s="3">
-        <v>5142</v>
+        <v>2230</v>
       </c>
       <c r="D65" s="3">
-        <v>8102</v>
+        <v>3929</v>
       </c>
       <c r="E65" s="3">
-        <v>6858</v>
+        <v>3656</v>
       </c>
       <c r="F65" s="3">
-        <v>7731</v>
+        <v>3196</v>
       </c>
       <c r="G65" s="3">
-        <v>3050</v>
+        <v>913</v>
       </c>
       <c r="H65" s="3">
-        <v>2238</v>
+        <v>844</v>
       </c>
       <c r="I65" s="3">
-        <v>2285</v>
+        <v>870</v>
       </c>
       <c r="J65" s="3">
-        <v>804</v>
+        <v>537</v>
       </c>
       <c r="K65" s="3">
-        <v>331</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3385,34 +3375,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>26336</v>
+        <v>52237</v>
       </c>
       <c r="C66" s="3">
-        <v>2230</v>
+        <v>4468</v>
       </c>
       <c r="D66" s="3">
-        <v>3929</v>
+        <v>7709</v>
       </c>
       <c r="E66" s="3">
-        <v>3656</v>
+        <v>7378</v>
       </c>
       <c r="F66" s="3">
-        <v>3196</v>
+        <v>7764</v>
       </c>
       <c r="G66" s="3">
-        <v>913</v>
+        <v>2471</v>
       </c>
       <c r="H66" s="3">
-        <v>844</v>
+        <v>1794</v>
       </c>
       <c r="I66" s="3">
-        <v>870</v>
+        <v>2311</v>
       </c>
       <c r="J66" s="3">
-        <v>537</v>
+        <v>1002</v>
       </c>
       <c r="K66" s="3">
-        <v>84</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3420,34 +3410,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>52237</v>
+        <v>52591</v>
       </c>
       <c r="C67" s="3">
-        <v>4468</v>
+        <v>4111</v>
       </c>
       <c r="D67" s="3">
-        <v>7709</v>
+        <v>8646</v>
       </c>
       <c r="E67" s="3">
-        <v>7378</v>
+        <v>7584</v>
       </c>
       <c r="F67" s="3">
-        <v>7764</v>
+        <v>7444</v>
       </c>
       <c r="G67" s="3">
-        <v>2471</v>
+        <v>2393</v>
       </c>
       <c r="H67" s="3">
-        <v>1794</v>
+        <v>2031</v>
       </c>
       <c r="I67" s="3">
-        <v>2311</v>
+        <v>2496</v>
       </c>
       <c r="J67" s="3">
-        <v>1002</v>
+        <v>901</v>
       </c>
       <c r="K67" s="3">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3455,34 +3445,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>52591</v>
+        <v>30599</v>
       </c>
       <c r="C68" s="3">
-        <v>4111</v>
+        <v>2709</v>
       </c>
       <c r="D68" s="3">
-        <v>8646</v>
+        <v>5129</v>
       </c>
       <c r="E68" s="3">
-        <v>7584</v>
+        <v>4491</v>
       </c>
       <c r="F68" s="3">
-        <v>7444</v>
+        <v>3818</v>
       </c>
       <c r="G68" s="3">
-        <v>2393</v>
+        <v>1510</v>
       </c>
       <c r="H68" s="3">
-        <v>2031</v>
+        <v>1482</v>
       </c>
       <c r="I68" s="3">
-        <v>2496</v>
+        <v>1542</v>
       </c>
       <c r="J68" s="3">
-        <v>901</v>
+        <v>986</v>
       </c>
       <c r="K68" s="3">
-        <v>350</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3490,104 +3480,104 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>30599</v>
+        <v>41217</v>
       </c>
       <c r="C69" s="3">
-        <v>2709</v>
+        <v>3578</v>
       </c>
       <c r="D69" s="3">
-        <v>5129</v>
+        <v>7427</v>
       </c>
       <c r="E69" s="3">
-        <v>4491</v>
+        <v>6080</v>
       </c>
       <c r="F69" s="3">
-        <v>3818</v>
+        <v>4681</v>
       </c>
       <c r="G69" s="3">
-        <v>1510</v>
+        <v>1679</v>
       </c>
       <c r="H69" s="3">
-        <v>1482</v>
+        <v>1363</v>
       </c>
       <c r="I69" s="3">
-        <v>1542</v>
+        <v>1943</v>
       </c>
       <c r="J69" s="3">
-        <v>986</v>
+        <v>1093</v>
       </c>
       <c r="K69" s="3">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>41217</v>
+        <v>26839</v>
       </c>
       <c r="C70" s="3">
-        <v>3578</v>
+        <v>2198</v>
       </c>
       <c r="D70" s="3">
-        <v>7427</v>
+        <v>2814</v>
       </c>
       <c r="E70" s="3">
-        <v>6080</v>
+        <v>3283</v>
       </c>
       <c r="F70" s="3">
-        <v>4681</v>
+        <v>3525</v>
       </c>
       <c r="G70" s="3">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="H70" s="3">
-        <v>1363</v>
+        <v>1450</v>
       </c>
       <c r="I70" s="3">
-        <v>1943</v>
+        <v>2399</v>
       </c>
       <c r="J70" s="3">
-        <v>1093</v>
+        <v>1987</v>
       </c>
       <c r="K70" s="3">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>26839</v>
+        <v>49715</v>
       </c>
       <c r="C71" s="3">
-        <v>2198</v>
+        <v>4447</v>
       </c>
       <c r="D71" s="3">
-        <v>2814</v>
+        <v>7302</v>
       </c>
       <c r="E71" s="3">
-        <v>3283</v>
+        <v>6488</v>
       </c>
       <c r="F71" s="3">
-        <v>3525</v>
+        <v>7166</v>
       </c>
       <c r="G71" s="3">
-        <v>1671</v>
+        <v>3128</v>
       </c>
       <c r="H71" s="3">
-        <v>1450</v>
+        <v>2218</v>
       </c>
       <c r="I71" s="3">
-        <v>2399</v>
+        <v>2834</v>
       </c>
       <c r="J71" s="3">
-        <v>1987</v>
+        <v>1654</v>
       </c>
       <c r="K71" s="3">
-        <v>1330</v>
+        <v>994</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3595,34 +3585,34 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>49715</v>
+        <v>29848</v>
       </c>
       <c r="C72" s="3">
-        <v>4447</v>
+        <v>1506</v>
       </c>
       <c r="D72" s="3">
-        <v>7302</v>
+        <v>4163</v>
       </c>
       <c r="E72" s="3">
-        <v>6488</v>
+        <v>4433</v>
       </c>
       <c r="F72" s="3">
-        <v>7166</v>
+        <v>3624</v>
       </c>
       <c r="G72" s="3">
-        <v>3128</v>
+        <v>1937</v>
       </c>
       <c r="H72" s="3">
-        <v>2218</v>
+        <v>1992</v>
       </c>
       <c r="I72" s="3">
-        <v>2834</v>
+        <v>2524</v>
       </c>
       <c r="J72" s="3">
-        <v>1654</v>
+        <v>2053</v>
       </c>
       <c r="K72" s="3">
-        <v>994</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3630,104 +3620,104 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>29848</v>
+        <v>35325</v>
       </c>
       <c r="C73" s="3">
-        <v>1506</v>
+        <v>3031</v>
       </c>
       <c r="D73" s="3">
-        <v>4163</v>
+        <v>6467</v>
       </c>
       <c r="E73" s="3">
-        <v>4433</v>
+        <v>4169</v>
       </c>
       <c r="F73" s="3">
-        <v>3624</v>
+        <v>4846</v>
       </c>
       <c r="G73" s="3">
-        <v>1937</v>
+        <v>1733</v>
       </c>
       <c r="H73" s="3">
-        <v>1992</v>
+        <v>1331</v>
       </c>
       <c r="I73" s="3">
-        <v>2524</v>
+        <v>1726</v>
       </c>
       <c r="J73" s="3">
-        <v>2053</v>
+        <v>980</v>
       </c>
       <c r="K73" s="3">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>35325</v>
+        <v>53800</v>
       </c>
       <c r="C74" s="3">
-        <v>3031</v>
+        <v>4439</v>
       </c>
       <c r="D74" s="3">
-        <v>6467</v>
+        <v>6928</v>
       </c>
       <c r="E74" s="3">
-        <v>4169</v>
+        <v>6845</v>
       </c>
       <c r="F74" s="3">
-        <v>4846</v>
+        <v>7326</v>
       </c>
       <c r="G74" s="3">
-        <v>1733</v>
+        <v>3613</v>
       </c>
       <c r="H74" s="3">
-        <v>1331</v>
+        <v>2571</v>
       </c>
       <c r="I74" s="3">
-        <v>1726</v>
+        <v>4177</v>
       </c>
       <c r="J74" s="3">
-        <v>980</v>
+        <v>1885</v>
       </c>
       <c r="K74" s="3">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>53800</v>
+        <v>30376</v>
       </c>
       <c r="C75" s="3">
-        <v>4439</v>
+        <v>1749</v>
       </c>
       <c r="D75" s="3">
-        <v>6928</v>
+        <v>4837</v>
       </c>
       <c r="E75" s="3">
-        <v>6845</v>
+        <v>5103</v>
       </c>
       <c r="F75" s="3">
-        <v>7326</v>
+        <v>4361</v>
       </c>
       <c r="G75" s="3">
-        <v>3613</v>
+        <v>1931</v>
       </c>
       <c r="H75" s="3">
-        <v>2571</v>
+        <v>1334</v>
       </c>
       <c r="I75" s="3">
-        <v>4177</v>
+        <v>2057</v>
       </c>
       <c r="J75" s="3">
-        <v>1885</v>
+        <v>1016</v>
       </c>
       <c r="K75" s="3">
-        <v>712</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -3735,34 +3725,34 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>30376</v>
+        <v>35886</v>
       </c>
       <c r="C76" s="3">
-        <v>1749</v>
+        <v>3042</v>
       </c>
       <c r="D76" s="3">
-        <v>4837</v>
+        <v>5345</v>
       </c>
       <c r="E76" s="3">
-        <v>5103</v>
+        <v>4288</v>
       </c>
       <c r="F76" s="3">
-        <v>4361</v>
+        <v>4626</v>
       </c>
       <c r="G76" s="3">
-        <v>1931</v>
+        <v>1872</v>
       </c>
       <c r="H76" s="3">
-        <v>1334</v>
+        <v>1734</v>
       </c>
       <c r="I76" s="3">
-        <v>2057</v>
+        <v>2219</v>
       </c>
       <c r="J76" s="3">
-        <v>1016</v>
+        <v>817</v>
       </c>
       <c r="K76" s="3">
-        <v>316</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -3770,174 +3760,174 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>35886</v>
+        <v>27483</v>
       </c>
       <c r="C77" s="3">
-        <v>3042</v>
+        <v>1811</v>
       </c>
       <c r="D77" s="3">
-        <v>5345</v>
+        <v>4062</v>
       </c>
       <c r="E77" s="3">
-        <v>4288</v>
+        <v>4570</v>
       </c>
       <c r="F77" s="3">
-        <v>4626</v>
+        <v>3353</v>
       </c>
       <c r="G77" s="3">
-        <v>1872</v>
+        <v>1196</v>
       </c>
       <c r="H77" s="3">
-        <v>1734</v>
+        <v>1322</v>
       </c>
       <c r="I77" s="3">
-        <v>2219</v>
+        <v>1146</v>
       </c>
       <c r="J77" s="3">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="K77" s="3">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>27483</v>
+        <v>26139</v>
       </c>
       <c r="C78" s="3">
-        <v>1811</v>
+        <v>1367</v>
       </c>
       <c r="D78" s="3">
-        <v>4062</v>
+        <v>3701</v>
       </c>
       <c r="E78" s="3">
-        <v>4570</v>
+        <v>3580</v>
       </c>
       <c r="F78" s="3">
-        <v>3353</v>
+        <v>4034</v>
       </c>
       <c r="G78" s="3">
-        <v>1196</v>
+        <v>1799</v>
       </c>
       <c r="H78" s="3">
-        <v>1322</v>
+        <v>1521</v>
       </c>
       <c r="I78" s="3">
-        <v>1146</v>
+        <v>2120</v>
       </c>
       <c r="J78" s="3">
-        <v>800</v>
+        <v>2374</v>
       </c>
       <c r="K78" s="3">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>26139</v>
+        <v>44304</v>
       </c>
       <c r="C79" s="3">
-        <v>1367</v>
+        <v>2751</v>
       </c>
       <c r="D79" s="3">
-        <v>3701</v>
+        <v>4241</v>
       </c>
       <c r="E79" s="3">
-        <v>3580</v>
+        <v>5378</v>
       </c>
       <c r="F79" s="3">
-        <v>4034</v>
+        <v>7427</v>
       </c>
       <c r="G79" s="3">
-        <v>1799</v>
+        <v>3285</v>
       </c>
       <c r="H79" s="3">
-        <v>1521</v>
+        <v>2714</v>
       </c>
       <c r="I79" s="3">
-        <v>2120</v>
+        <v>4805</v>
       </c>
       <c r="J79" s="3">
-        <v>2374</v>
+        <v>3223</v>
       </c>
       <c r="K79" s="3">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>44304</v>
+        <v>46104</v>
       </c>
       <c r="C80" s="3">
-        <v>2751</v>
+        <v>3505</v>
       </c>
       <c r="D80" s="3">
-        <v>4241</v>
+        <v>5895</v>
       </c>
       <c r="E80" s="3">
-        <v>5378</v>
+        <v>6263</v>
       </c>
       <c r="F80" s="3">
-        <v>7427</v>
+        <v>6220</v>
       </c>
       <c r="G80" s="3">
-        <v>3285</v>
+        <v>3294</v>
       </c>
       <c r="H80" s="3">
-        <v>2714</v>
+        <v>2387</v>
       </c>
       <c r="I80" s="3">
-        <v>4805</v>
+        <v>3681</v>
       </c>
       <c r="J80" s="3">
-        <v>3223</v>
+        <v>2363</v>
       </c>
       <c r="K80" s="3">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>46104</v>
+        <v>33728</v>
       </c>
       <c r="C81" s="3">
-        <v>3505</v>
+        <v>2354</v>
       </c>
       <c r="D81" s="3">
-        <v>5895</v>
+        <v>5438</v>
       </c>
       <c r="E81" s="3">
-        <v>6263</v>
+        <v>4366</v>
       </c>
       <c r="F81" s="3">
-        <v>6220</v>
+        <v>4883</v>
       </c>
       <c r="G81" s="3">
-        <v>3294</v>
+        <v>2341</v>
       </c>
       <c r="H81" s="3">
-        <v>2387</v>
+        <v>1469</v>
       </c>
       <c r="I81" s="3">
-        <v>3681</v>
+        <v>2206</v>
       </c>
       <c r="J81" s="3">
-        <v>2363</v>
+        <v>1496</v>
       </c>
       <c r="K81" s="3">
-        <v>1023</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -3945,104 +3935,104 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>33728</v>
+        <v>33404</v>
       </c>
       <c r="C82" s="3">
-        <v>2354</v>
+        <v>2351</v>
       </c>
       <c r="D82" s="3">
-        <v>5438</v>
+        <v>3804</v>
       </c>
       <c r="E82" s="3">
-        <v>4366</v>
+        <v>4475</v>
       </c>
       <c r="F82" s="3">
-        <v>4883</v>
+        <v>4676</v>
       </c>
       <c r="G82" s="3">
-        <v>2341</v>
+        <v>2010</v>
       </c>
       <c r="H82" s="3">
-        <v>1469</v>
+        <v>1905</v>
       </c>
       <c r="I82" s="3">
-        <v>2206</v>
+        <v>2444</v>
       </c>
       <c r="J82" s="3">
-        <v>1496</v>
+        <v>1981</v>
       </c>
       <c r="K82" s="3">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>33404</v>
+        <v>30098</v>
       </c>
       <c r="C83" s="3">
-        <v>2351</v>
+        <v>2258</v>
       </c>
       <c r="D83" s="3">
-        <v>3804</v>
+        <v>4868</v>
       </c>
       <c r="E83" s="3">
-        <v>4475</v>
+        <v>3902</v>
       </c>
       <c r="F83" s="3">
-        <v>4676</v>
+        <v>3972</v>
       </c>
       <c r="G83" s="3">
-        <v>2010</v>
+        <v>1729</v>
       </c>
       <c r="H83" s="3">
-        <v>1905</v>
+        <v>1435</v>
       </c>
       <c r="I83" s="3">
-        <v>2444</v>
+        <v>1824</v>
       </c>
       <c r="J83" s="3">
-        <v>1981</v>
+        <v>1018</v>
       </c>
       <c r="K83" s="3">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>30098</v>
+        <v>30191</v>
       </c>
       <c r="C84" s="3">
-        <v>2258</v>
+        <v>1912</v>
       </c>
       <c r="D84" s="3">
-        <v>4868</v>
+        <v>5119</v>
       </c>
       <c r="E84" s="3">
-        <v>3902</v>
+        <v>4427</v>
       </c>
       <c r="F84" s="3">
-        <v>3972</v>
+        <v>4064</v>
       </c>
       <c r="G84" s="3">
-        <v>1729</v>
+        <v>1766</v>
       </c>
       <c r="H84" s="3">
-        <v>1435</v>
+        <v>1574</v>
       </c>
       <c r="I84" s="3">
-        <v>1824</v>
+        <v>2244</v>
       </c>
       <c r="J84" s="3">
-        <v>1018</v>
+        <v>1294</v>
       </c>
       <c r="K84" s="3">
-        <v>590</v>
+        <v>903</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -4050,34 +4040,34 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>30191</v>
+        <v>36676</v>
       </c>
       <c r="C85" s="3">
-        <v>1912</v>
+        <v>2816</v>
       </c>
       <c r="D85" s="3">
-        <v>5119</v>
+        <v>4534</v>
       </c>
       <c r="E85" s="3">
-        <v>4427</v>
+        <v>4378</v>
       </c>
       <c r="F85" s="3">
-        <v>4064</v>
+        <v>5616</v>
       </c>
       <c r="G85" s="3">
-        <v>1766</v>
+        <v>2410</v>
       </c>
       <c r="H85" s="3">
-        <v>1574</v>
+        <v>1723</v>
       </c>
       <c r="I85" s="3">
-        <v>2244</v>
+        <v>2310</v>
       </c>
       <c r="J85" s="3">
-        <v>1294</v>
+        <v>912</v>
       </c>
       <c r="K85" s="3">
-        <v>903</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -4085,34 +4075,34 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>36676</v>
+        <v>61503</v>
       </c>
       <c r="C86" s="3">
-        <v>2816</v>
+        <v>4512</v>
       </c>
       <c r="D86" s="3">
-        <v>4534</v>
+        <v>8393</v>
       </c>
       <c r="E86" s="3">
-        <v>4378</v>
+        <v>8742</v>
       </c>
       <c r="F86" s="3">
-        <v>5616</v>
+        <v>8453</v>
       </c>
       <c r="G86" s="3">
-        <v>2410</v>
+        <v>3219</v>
       </c>
       <c r="H86" s="3">
-        <v>1723</v>
+        <v>2651</v>
       </c>
       <c r="I86" s="3">
-        <v>2310</v>
+        <v>3874</v>
       </c>
       <c r="J86" s="3">
-        <v>912</v>
+        <v>2127</v>
       </c>
       <c r="K86" s="3">
-        <v>430</v>
+        <v>747</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -4120,34 +4110,34 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>61503</v>
+        <v>45805</v>
       </c>
       <c r="C87" s="3">
-        <v>4512</v>
+        <v>3599</v>
       </c>
       <c r="D87" s="3">
-        <v>8393</v>
+        <v>6428</v>
       </c>
       <c r="E87" s="3">
-        <v>8742</v>
+        <v>6472</v>
       </c>
       <c r="F87" s="3">
-        <v>8453</v>
+        <v>6232</v>
       </c>
       <c r="G87" s="3">
-        <v>3219</v>
+        <v>2913</v>
       </c>
       <c r="H87" s="3">
-        <v>2651</v>
+        <v>2690</v>
       </c>
       <c r="I87" s="3">
-        <v>3874</v>
+        <v>3174</v>
       </c>
       <c r="J87" s="3">
-        <v>2127</v>
+        <v>1627</v>
       </c>
       <c r="K87" s="3">
-        <v>747</v>
+        <v>830</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -4155,174 +4145,174 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>45805</v>
-      </c>
-      <c r="C88" s="3">
-        <v>3599</v>
+        <v>67185</v>
+      </c>
+      <c r="C88" s="4">
+        <v>4984</v>
       </c>
       <c r="D88" s="3">
-        <v>6428</v>
+        <v>18428</v>
       </c>
       <c r="E88" s="3">
-        <v>6472</v>
+        <v>10167</v>
       </c>
       <c r="F88" s="3">
-        <v>6232</v>
-      </c>
-      <c r="G88" s="3">
-        <v>2913</v>
+        <v>7752</v>
+      </c>
+      <c r="G88" s="4">
+        <v>3859</v>
       </c>
       <c r="H88" s="3">
-        <v>2690</v>
+        <v>4291</v>
       </c>
       <c r="I88" s="3">
-        <v>3174</v>
+        <v>5178</v>
       </c>
       <c r="J88" s="3">
-        <v>1627</v>
-      </c>
-      <c r="K88" s="3">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2883</v>
+      </c>
+      <c r="K88" s="4">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>1377</v>
-      </c>
-      <c r="C89" s="3">
-        <v>54</v>
+        <v>40059</v>
+      </c>
+      <c r="C89" s="4">
+        <v>4130</v>
       </c>
       <c r="D89" s="3">
-        <v>213</v>
+        <v>10505</v>
       </c>
       <c r="E89" s="3">
-        <v>220</v>
+        <v>6104</v>
       </c>
       <c r="F89" s="3">
-        <v>146</v>
-      </c>
-      <c r="G89" s="3">
-        <v>116</v>
+        <v>4109</v>
+      </c>
+      <c r="G89" s="4">
+        <v>2343</v>
       </c>
       <c r="H89" s="3">
-        <v>83</v>
+        <v>2501</v>
       </c>
       <c r="I89" s="3">
-        <v>65</v>
+        <v>2604</v>
       </c>
       <c r="J89" s="3">
-        <v>27</v>
-      </c>
-      <c r="K89" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1242</v>
+      </c>
+      <c r="K89" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>67185</v>
+        <v>37506</v>
       </c>
       <c r="C90" s="4">
-        <v>4984</v>
+        <v>3989</v>
       </c>
       <c r="D90" s="3">
-        <v>18428</v>
+        <v>11947</v>
       </c>
       <c r="E90" s="3">
-        <v>10167</v>
+        <v>6710</v>
       </c>
       <c r="F90" s="3">
-        <v>7752</v>
+        <v>4229</v>
       </c>
       <c r="G90" s="4">
-        <v>3859</v>
+        <v>1172</v>
       </c>
       <c r="H90" s="3">
-        <v>4291</v>
+        <v>1400</v>
       </c>
       <c r="I90" s="3">
-        <v>5178</v>
+        <v>1057</v>
       </c>
       <c r="J90" s="3">
-        <v>2883</v>
+        <v>832</v>
       </c>
       <c r="K90" s="4">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>40059</v>
-      </c>
-      <c r="C91" s="4">
-        <v>4130</v>
+        <v>43755</v>
+      </c>
+      <c r="C91" s="3">
+        <v>5723</v>
       </c>
       <c r="D91" s="3">
-        <v>10505</v>
+        <v>12686</v>
       </c>
       <c r="E91" s="3">
-        <v>6104</v>
+        <v>6280</v>
       </c>
       <c r="F91" s="3">
-        <v>4109</v>
-      </c>
-      <c r="G91" s="4">
-        <v>2343</v>
+        <v>5097</v>
+      </c>
+      <c r="G91" s="3">
+        <v>2250</v>
       </c>
       <c r="H91" s="3">
-        <v>2501</v>
+        <v>1579</v>
       </c>
       <c r="I91" s="3">
-        <v>2604</v>
+        <v>2228</v>
       </c>
       <c r="J91" s="3">
-        <v>1242</v>
-      </c>
-      <c r="K91" s="4">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>1280</v>
+      </c>
+      <c r="K91" s="3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>37506</v>
-      </c>
-      <c r="C92" s="4">
-        <v>3989</v>
+        <v>46550</v>
+      </c>
+      <c r="C92" s="3">
+        <v>4109</v>
       </c>
       <c r="D92" s="3">
-        <v>11947</v>
+        <v>8947</v>
       </c>
       <c r="E92" s="3">
-        <v>6710</v>
+        <v>7403</v>
       </c>
       <c r="F92" s="3">
-        <v>4229</v>
-      </c>
-      <c r="G92" s="4">
-        <v>1172</v>
+        <v>6158</v>
+      </c>
+      <c r="G92" s="3">
+        <v>2186</v>
       </c>
       <c r="H92" s="3">
-        <v>1400</v>
+        <v>3109</v>
       </c>
       <c r="I92" s="3">
-        <v>1057</v>
+        <v>3472</v>
       </c>
       <c r="J92" s="3">
-        <v>832</v>
-      </c>
-      <c r="K92" s="4">
-        <v>481</v>
+        <v>2488</v>
+      </c>
+      <c r="K92" s="3">
+        <v>1233</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -4330,69 +4320,69 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>43755</v>
+        <v>74243</v>
       </c>
       <c r="C93" s="3">
-        <v>5723</v>
+        <v>5506</v>
       </c>
       <c r="D93" s="3">
-        <v>12686</v>
+        <v>12315</v>
       </c>
       <c r="E93" s="3">
-        <v>6280</v>
+        <v>9964</v>
       </c>
       <c r="F93" s="3">
-        <v>5097</v>
+        <v>10600</v>
       </c>
       <c r="G93" s="3">
-        <v>2250</v>
+        <v>4423</v>
       </c>
       <c r="H93" s="3">
-        <v>1579</v>
+        <v>4761</v>
       </c>
       <c r="I93" s="3">
-        <v>2228</v>
+        <v>6691</v>
       </c>
       <c r="J93" s="3">
-        <v>1280</v>
+        <v>4375</v>
       </c>
       <c r="K93" s="3">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>46550</v>
-      </c>
-      <c r="C94" s="3">
-        <v>4109</v>
+        <v>69299</v>
+      </c>
+      <c r="C94" s="4">
+        <v>5256</v>
       </c>
       <c r="D94" s="3">
-        <v>8947</v>
+        <v>17835</v>
       </c>
       <c r="E94" s="3">
-        <v>7403</v>
+        <v>13579</v>
       </c>
       <c r="F94" s="3">
-        <v>6158</v>
-      </c>
-      <c r="G94" s="3">
-        <v>2186</v>
+        <v>9459</v>
+      </c>
+      <c r="G94" s="4">
+        <v>4331</v>
       </c>
       <c r="H94" s="3">
-        <v>3109</v>
+        <v>3497</v>
       </c>
       <c r="I94" s="3">
-        <v>3472</v>
+        <v>4386</v>
       </c>
       <c r="J94" s="3">
-        <v>2488</v>
-      </c>
-      <c r="K94" s="3">
-        <v>1233</v>
+        <v>2107</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1054</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -4400,69 +4390,69 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>74243</v>
-      </c>
-      <c r="C95" s="3">
-        <v>5506</v>
+        <v>42931</v>
+      </c>
+      <c r="C95" s="4">
+        <v>4172</v>
       </c>
       <c r="D95" s="3">
-        <v>12315</v>
+        <v>12188</v>
       </c>
       <c r="E95" s="3">
-        <v>9964</v>
+        <v>7558</v>
       </c>
       <c r="F95" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G95" s="3">
-        <v>4423</v>
+        <v>6096</v>
+      </c>
+      <c r="G95" s="4">
+        <v>2880</v>
       </c>
       <c r="H95" s="3">
-        <v>4761</v>
+        <v>1987</v>
       </c>
       <c r="I95" s="3">
-        <v>6691</v>
+        <v>2615</v>
       </c>
       <c r="J95" s="3">
-        <v>4375</v>
-      </c>
-      <c r="K95" s="3">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>1443</v>
+      </c>
+      <c r="K95" s="4">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>69299</v>
+        <v>28228</v>
       </c>
       <c r="C96" s="4">
-        <v>5256</v>
+        <v>2809</v>
       </c>
       <c r="D96" s="3">
-        <v>17835</v>
+        <v>8006</v>
       </c>
       <c r="E96" s="3">
-        <v>13579</v>
+        <v>4441</v>
       </c>
       <c r="F96" s="3">
-        <v>9459</v>
+        <v>3209</v>
       </c>
       <c r="G96" s="4">
-        <v>4331</v>
+        <v>1826</v>
       </c>
       <c r="H96" s="3">
-        <v>3497</v>
+        <v>1647</v>
       </c>
       <c r="I96" s="3">
-        <v>4386</v>
+        <v>2153</v>
       </c>
       <c r="J96" s="3">
-        <v>2107</v>
+        <v>857</v>
       </c>
       <c r="K96" s="4">
-        <v>1054</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -4470,34 +4460,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>42931</v>
-      </c>
-      <c r="C97" s="4">
-        <v>4172</v>
+        <v>48393</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3815</v>
       </c>
       <c r="D97" s="3">
-        <v>12188</v>
+        <v>12166</v>
       </c>
       <c r="E97" s="3">
-        <v>7558</v>
+        <v>6909</v>
       </c>
       <c r="F97" s="3">
-        <v>6096</v>
-      </c>
-      <c r="G97" s="4">
-        <v>2880</v>
+        <v>6121</v>
+      </c>
+      <c r="G97" s="3">
+        <v>2955</v>
       </c>
       <c r="H97" s="3">
-        <v>1987</v>
+        <v>3316</v>
       </c>
       <c r="I97" s="3">
-        <v>2615</v>
+        <v>4708</v>
       </c>
       <c r="J97" s="3">
-        <v>1443</v>
-      </c>
-      <c r="K97" s="4">
-        <v>597</v>
+        <v>3197</v>
+      </c>
+      <c r="K97" s="3">
+        <v>1222</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -4505,34 +4495,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>28228</v>
-      </c>
-      <c r="C98" s="4">
-        <v>2809</v>
+        <v>49515</v>
+      </c>
+      <c r="C98" s="3">
+        <v>6779</v>
       </c>
       <c r="D98" s="3">
-        <v>8006</v>
+        <v>14739</v>
       </c>
       <c r="E98" s="3">
-        <v>4441</v>
+        <v>6709</v>
       </c>
       <c r="F98" s="3">
-        <v>3209</v>
-      </c>
-      <c r="G98" s="4">
-        <v>1826</v>
+        <v>5443</v>
+      </c>
+      <c r="G98" s="3">
+        <v>2231</v>
       </c>
       <c r="H98" s="3">
-        <v>1647</v>
+        <v>2415</v>
       </c>
       <c r="I98" s="3">
-        <v>2153</v>
+        <v>3464</v>
       </c>
       <c r="J98" s="3">
-        <v>857</v>
-      </c>
-      <c r="K98" s="4">
-        <v>387</v>
+        <v>1693</v>
+      </c>
+      <c r="K98" s="3">
+        <v>864</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -4540,34 +4530,34 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>48393</v>
+        <v>26075</v>
       </c>
       <c r="C99" s="3">
-        <v>3815</v>
+        <v>2682</v>
       </c>
       <c r="D99" s="3">
-        <v>12166</v>
+        <v>8091</v>
       </c>
       <c r="E99" s="3">
-        <v>6909</v>
+        <v>4351</v>
       </c>
       <c r="F99" s="3">
-        <v>6121</v>
+        <v>3157</v>
       </c>
       <c r="G99" s="3">
-        <v>2955</v>
+        <v>1208</v>
       </c>
       <c r="H99" s="3">
-        <v>3316</v>
+        <v>1102</v>
       </c>
       <c r="I99" s="3">
-        <v>4708</v>
+        <v>1766</v>
       </c>
       <c r="J99" s="3">
-        <v>3197</v>
+        <v>946</v>
       </c>
       <c r="K99" s="3">
-        <v>1222</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -4575,34 +4565,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>49515</v>
+        <v>21864</v>
       </c>
       <c r="C100" s="3">
-        <v>6779</v>
+        <v>3310</v>
       </c>
       <c r="D100" s="3">
-        <v>14739</v>
+        <v>4700</v>
       </c>
       <c r="E100" s="3">
-        <v>6709</v>
+        <v>2469</v>
       </c>
       <c r="F100" s="3">
-        <v>5443</v>
+        <v>2469</v>
       </c>
       <c r="G100" s="3">
-        <v>2231</v>
+        <v>1702</v>
       </c>
       <c r="H100" s="3">
-        <v>2415</v>
+        <v>1492</v>
       </c>
       <c r="I100" s="3">
-        <v>3464</v>
+        <v>1633</v>
       </c>
       <c r="J100" s="3">
-        <v>1693</v>
+        <v>1226</v>
       </c>
       <c r="K100" s="3">
-        <v>864</v>
+        <v>921</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -4610,34 +4600,34 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>26075</v>
+        <v>135718</v>
       </c>
       <c r="C101" s="3">
-        <v>2682</v>
+        <v>6682</v>
       </c>
       <c r="D101" s="3">
-        <v>8091</v>
+        <v>25627</v>
       </c>
       <c r="E101" s="3">
-        <v>4351</v>
+        <v>20818</v>
       </c>
       <c r="F101" s="3">
-        <v>3157</v>
+        <v>19450</v>
       </c>
       <c r="G101" s="3">
-        <v>1208</v>
+        <v>9603</v>
       </c>
       <c r="H101" s="3">
-        <v>1102</v>
+        <v>8576</v>
       </c>
       <c r="I101" s="3">
-        <v>1766</v>
+        <v>12336</v>
       </c>
       <c r="J101" s="3">
-        <v>946</v>
+        <v>6859</v>
       </c>
       <c r="K101" s="3">
-        <v>361</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -4645,34 +4635,34 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>21864</v>
+        <v>60205</v>
       </c>
       <c r="C102" s="3">
-        <v>3310</v>
+        <v>2452</v>
       </c>
       <c r="D102" s="3">
-        <v>4700</v>
+        <v>11904</v>
       </c>
       <c r="E102" s="3">
-        <v>2469</v>
+        <v>10631</v>
       </c>
       <c r="F102" s="3">
-        <v>2469</v>
+        <v>7381</v>
       </c>
       <c r="G102" s="3">
-        <v>1702</v>
+        <v>3803</v>
       </c>
       <c r="H102" s="3">
-        <v>1492</v>
+        <v>4117</v>
       </c>
       <c r="I102" s="3">
-        <v>1633</v>
+        <v>4702</v>
       </c>
       <c r="J102" s="3">
-        <v>1226</v>
+        <v>3734</v>
       </c>
       <c r="K102" s="3">
-        <v>921</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -4680,34 +4670,34 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>135718</v>
-      </c>
-      <c r="C103" s="3">
-        <v>6682</v>
+        <v>81378</v>
+      </c>
+      <c r="C103" s="4">
+        <v>4786</v>
       </c>
       <c r="D103" s="3">
-        <v>25627</v>
+        <v>21165</v>
       </c>
       <c r="E103" s="3">
-        <v>20818</v>
+        <v>13111</v>
       </c>
       <c r="F103" s="3">
-        <v>19450</v>
-      </c>
-      <c r="G103" s="3">
-        <v>9603</v>
+        <v>9023</v>
+      </c>
+      <c r="G103" s="4">
+        <v>4207</v>
       </c>
       <c r="H103" s="3">
-        <v>8576</v>
+        <v>4743</v>
       </c>
       <c r="I103" s="3">
-        <v>12336</v>
+        <v>7808</v>
       </c>
       <c r="J103" s="3">
-        <v>6859</v>
-      </c>
-      <c r="K103" s="3">
-        <v>3328</v>
+        <v>4070</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1636</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -4715,34 +4705,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>60205</v>
-      </c>
-      <c r="C104" s="3">
-        <v>2452</v>
+        <v>77676</v>
+      </c>
+      <c r="C104" s="4">
+        <v>4898</v>
       </c>
       <c r="D104" s="3">
-        <v>11904</v>
+        <v>20268</v>
       </c>
       <c r="E104" s="3">
-        <v>10631</v>
+        <v>12783</v>
       </c>
       <c r="F104" s="3">
-        <v>7381</v>
-      </c>
-      <c r="G104" s="3">
-        <v>3803</v>
+        <v>8920</v>
+      </c>
+      <c r="G104" s="4">
+        <v>5242</v>
       </c>
       <c r="H104" s="3">
-        <v>4117</v>
+        <v>3942</v>
       </c>
       <c r="I104" s="3">
-        <v>4702</v>
+        <v>6337</v>
       </c>
       <c r="J104" s="3">
-        <v>3734</v>
-      </c>
-      <c r="K104" s="3">
-        <v>1721</v>
+        <v>3916</v>
+      </c>
+      <c r="K104" s="4">
+        <v>1782</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -4750,34 +4740,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>81378</v>
+        <v>58834</v>
       </c>
       <c r="C105" s="4">
-        <v>4786</v>
+        <v>2144</v>
       </c>
       <c r="D105" s="3">
-        <v>21165</v>
+        <v>6725</v>
       </c>
       <c r="E105" s="3">
-        <v>13111</v>
+        <v>7473</v>
       </c>
       <c r="F105" s="3">
-        <v>9023</v>
+        <v>8478</v>
       </c>
       <c r="G105" s="4">
-        <v>4207</v>
+        <v>3835</v>
       </c>
       <c r="H105" s="3">
-        <v>4743</v>
+        <v>4350</v>
       </c>
       <c r="I105" s="3">
-        <v>7808</v>
+        <v>7928</v>
       </c>
       <c r="J105" s="3">
-        <v>4070</v>
+        <v>5058</v>
       </c>
       <c r="K105" s="4">
-        <v>1636</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -4785,34 +4775,34 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>77676</v>
+        <v>51527</v>
       </c>
       <c r="C106" s="4">
-        <v>4898</v>
+        <v>4695</v>
       </c>
       <c r="D106" s="3">
-        <v>20268</v>
+        <v>10552</v>
       </c>
       <c r="E106" s="3">
-        <v>12783</v>
+        <v>7629</v>
       </c>
       <c r="F106" s="3">
-        <v>8920</v>
+        <v>6653</v>
       </c>
       <c r="G106" s="4">
-        <v>5242</v>
+        <v>2429</v>
       </c>
       <c r="H106" s="3">
-        <v>3942</v>
+        <v>2035</v>
       </c>
       <c r="I106" s="3">
-        <v>6337</v>
+        <v>3233</v>
       </c>
       <c r="J106" s="3">
-        <v>3916</v>
+        <v>1542</v>
       </c>
       <c r="K106" s="4">
-        <v>1782</v>
+        <v>590</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -4820,34 +4810,34 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>58834</v>
+        <v>23845</v>
       </c>
       <c r="C107" s="4">
-        <v>2144</v>
+        <v>2526</v>
       </c>
       <c r="D107" s="3">
-        <v>6725</v>
+        <v>4619</v>
       </c>
       <c r="E107" s="3">
-        <v>7473</v>
+        <v>3275</v>
       </c>
       <c r="F107" s="3">
-        <v>8478</v>
+        <v>2734</v>
       </c>
       <c r="G107" s="4">
-        <v>3835</v>
+        <v>1138</v>
       </c>
       <c r="H107" s="3">
-        <v>4350</v>
+        <v>1001</v>
       </c>
       <c r="I107" s="3">
-        <v>7928</v>
+        <v>1542</v>
       </c>
       <c r="J107" s="3">
-        <v>5058</v>
+        <v>769</v>
       </c>
       <c r="K107" s="4">
-        <v>1608</v>
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -4855,69 +4845,69 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>51527</v>
+        <v>54326</v>
       </c>
       <c r="C108" s="4">
-        <v>4695</v>
+        <v>8937</v>
       </c>
       <c r="D108" s="3">
-        <v>10552</v>
+        <v>11797</v>
       </c>
       <c r="E108" s="3">
-        <v>7629</v>
+        <v>5301</v>
       </c>
       <c r="F108" s="3">
-        <v>6653</v>
+        <v>6071</v>
       </c>
       <c r="G108" s="4">
-        <v>2429</v>
+        <v>2558</v>
       </c>
       <c r="H108" s="3">
-        <v>2035</v>
+        <v>2362</v>
       </c>
       <c r="I108" s="3">
-        <v>3233</v>
+        <v>2952</v>
       </c>
       <c r="J108" s="3">
-        <v>1542</v>
+        <v>1962</v>
       </c>
       <c r="K108" s="4">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>23845</v>
+        <v>78193</v>
       </c>
       <c r="C109" s="4">
-        <v>2526</v>
+        <v>6873</v>
       </c>
       <c r="D109" s="3">
-        <v>4619</v>
+        <v>13035</v>
       </c>
       <c r="E109" s="3">
-        <v>3275</v>
+        <v>11705</v>
       </c>
       <c r="F109" s="3">
-        <v>2734</v>
+        <v>10842</v>
       </c>
       <c r="G109" s="4">
-        <v>1138</v>
+        <v>4688</v>
       </c>
       <c r="H109" s="3">
-        <v>1001</v>
+        <v>2906</v>
       </c>
       <c r="I109" s="3">
-        <v>1542</v>
+        <v>4968</v>
       </c>
       <c r="J109" s="3">
-        <v>769</v>
+        <v>2593</v>
       </c>
       <c r="K109" s="4">
-        <v>344</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -4925,69 +4915,69 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>54326</v>
+        <v>46694</v>
       </c>
       <c r="C110" s="4">
-        <v>8937</v>
+        <v>3946</v>
       </c>
       <c r="D110" s="3">
-        <v>11797</v>
+        <v>9300</v>
       </c>
       <c r="E110" s="3">
-        <v>5301</v>
+        <v>7284</v>
       </c>
       <c r="F110" s="3">
-        <v>6071</v>
+        <v>6449</v>
       </c>
       <c r="G110" s="4">
-        <v>2558</v>
+        <v>2703</v>
       </c>
       <c r="H110" s="3">
-        <v>2362</v>
+        <v>1878</v>
       </c>
       <c r="I110" s="3">
-        <v>2952</v>
+        <v>2115</v>
       </c>
       <c r="J110" s="3">
-        <v>1962</v>
+        <v>1145</v>
       </c>
       <c r="K110" s="4">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>78193</v>
+        <v>59794</v>
       </c>
       <c r="C111" s="4">
-        <v>6873</v>
+        <v>5410</v>
       </c>
       <c r="D111" s="3">
-        <v>13035</v>
+        <v>11246</v>
       </c>
       <c r="E111" s="3">
-        <v>11705</v>
+        <v>7904</v>
       </c>
       <c r="F111" s="3">
-        <v>10842</v>
+        <v>7514</v>
       </c>
       <c r="G111" s="4">
-        <v>4688</v>
+        <v>3151</v>
       </c>
       <c r="H111" s="3">
-        <v>2906</v>
+        <v>3176</v>
       </c>
       <c r="I111" s="3">
-        <v>4968</v>
+        <v>3419</v>
       </c>
       <c r="J111" s="3">
-        <v>2593</v>
+        <v>2917</v>
       </c>
       <c r="K111" s="4">
-        <v>1090</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -4995,174 +4985,174 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>46694</v>
+        <v>60465</v>
       </c>
       <c r="C112" s="4">
-        <v>3946</v>
+        <v>5888</v>
       </c>
       <c r="D112" s="3">
-        <v>9300</v>
+        <v>10306</v>
       </c>
       <c r="E112" s="3">
-        <v>7284</v>
+        <v>7582</v>
       </c>
       <c r="F112" s="3">
-        <v>6449</v>
+        <v>6800</v>
       </c>
       <c r="G112" s="4">
-        <v>2703</v>
+        <v>3146</v>
       </c>
       <c r="H112" s="3">
-        <v>1878</v>
+        <v>2541</v>
       </c>
       <c r="I112" s="3">
-        <v>2115</v>
+        <v>3520</v>
       </c>
       <c r="J112" s="3">
-        <v>1145</v>
+        <v>2067</v>
       </c>
       <c r="K112" s="4">
-        <v>533</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="B113" s="2">
-        <v>59794</v>
+        <v>50358</v>
       </c>
       <c r="C113" s="4">
-        <v>5410</v>
+        <v>3934</v>
       </c>
       <c r="D113" s="3">
-        <v>11246</v>
+        <v>8269</v>
       </c>
       <c r="E113" s="3">
-        <v>7904</v>
+        <v>7647</v>
       </c>
       <c r="F113" s="3">
-        <v>7514</v>
+        <v>7741</v>
       </c>
       <c r="G113" s="4">
-        <v>3151</v>
+        <v>3271</v>
       </c>
       <c r="H113" s="3">
-        <v>3176</v>
+        <v>2373</v>
       </c>
       <c r="I113" s="3">
-        <v>3419</v>
+        <v>3061</v>
       </c>
       <c r="J113" s="3">
-        <v>2917</v>
+        <v>1175</v>
       </c>
       <c r="K113" s="4">
-        <v>1058</v>
+        <v>636</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>60465</v>
+        <v>71085</v>
       </c>
       <c r="C114" s="4">
-        <v>5888</v>
+        <v>7048</v>
       </c>
       <c r="D114" s="3">
-        <v>10306</v>
+        <v>12389</v>
       </c>
       <c r="E114" s="3">
-        <v>7582</v>
+        <v>9041</v>
       </c>
       <c r="F114" s="3">
-        <v>6800</v>
+        <v>9486</v>
       </c>
       <c r="G114" s="4">
-        <v>3146</v>
+        <v>4420</v>
       </c>
       <c r="H114" s="3">
-        <v>2541</v>
+        <v>4058</v>
       </c>
       <c r="I114" s="3">
-        <v>3520</v>
+        <v>4768</v>
       </c>
       <c r="J114" s="3">
-        <v>2067</v>
+        <v>2982</v>
       </c>
       <c r="K114" s="4">
-        <v>1102</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>50358</v>
+        <v>89551</v>
       </c>
       <c r="C115" s="4">
-        <v>3934</v>
+        <v>8742</v>
       </c>
       <c r="D115" s="3">
-        <v>8269</v>
+        <v>17365</v>
       </c>
       <c r="E115" s="3">
-        <v>7647</v>
+        <v>12827</v>
       </c>
       <c r="F115" s="3">
-        <v>7741</v>
+        <v>11477</v>
       </c>
       <c r="G115" s="4">
-        <v>3271</v>
+        <v>5603</v>
       </c>
       <c r="H115" s="3">
-        <v>2373</v>
+        <v>4357</v>
       </c>
       <c r="I115" s="3">
-        <v>3061</v>
+        <v>5645</v>
       </c>
       <c r="J115" s="3">
-        <v>1175</v>
+        <v>3109</v>
       </c>
       <c r="K115" s="4">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>71085</v>
+        <v>18539</v>
       </c>
       <c r="C116" s="4">
-        <v>7048</v>
+        <v>1681</v>
       </c>
       <c r="D116" s="3">
-        <v>12389</v>
+        <v>2897</v>
       </c>
       <c r="E116" s="3">
-        <v>9041</v>
+        <v>2777</v>
       </c>
       <c r="F116" s="3">
-        <v>9486</v>
+        <v>2477</v>
       </c>
       <c r="G116" s="4">
-        <v>4420</v>
+        <v>1026</v>
       </c>
       <c r="H116" s="3">
-        <v>4058</v>
+        <v>835</v>
       </c>
       <c r="I116" s="3">
-        <v>4768</v>
+        <v>960</v>
       </c>
       <c r="J116" s="3">
-        <v>2982</v>
+        <v>498</v>
       </c>
       <c r="K116" s="4">
-        <v>1589</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -5170,34 +5160,34 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>89551</v>
+        <v>75149</v>
       </c>
       <c r="C117" s="4">
-        <v>8742</v>
+        <v>6372</v>
       </c>
       <c r="D117" s="3">
-        <v>17365</v>
+        <v>19363</v>
       </c>
       <c r="E117" s="3">
-        <v>12827</v>
+        <v>11800</v>
       </c>
       <c r="F117" s="3">
-        <v>11477</v>
+        <v>9419</v>
       </c>
       <c r="G117" s="4">
-        <v>5603</v>
+        <v>3756</v>
       </c>
       <c r="H117" s="3">
-        <v>4357</v>
+        <v>3168</v>
       </c>
       <c r="I117" s="3">
-        <v>5645</v>
+        <v>5191</v>
       </c>
       <c r="J117" s="3">
-        <v>3109</v>
+        <v>3330</v>
       </c>
       <c r="K117" s="4">
-        <v>1722</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -5205,104 +5195,104 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>1483</v>
+        <v>26470</v>
       </c>
       <c r="C118" s="4">
-        <v>49</v>
+        <v>2622</v>
       </c>
       <c r="D118" s="3">
-        <v>340</v>
+        <v>6588</v>
       </c>
       <c r="E118" s="3">
-        <v>291</v>
+        <v>4242</v>
       </c>
       <c r="F118" s="3">
-        <v>402</v>
+        <v>3227</v>
       </c>
       <c r="G118" s="4">
-        <v>190</v>
+        <v>1239</v>
       </c>
       <c r="H118" s="3">
-        <v>94</v>
+        <v>822</v>
       </c>
       <c r="I118" s="3">
-        <v>48</v>
+        <v>1439</v>
       </c>
       <c r="J118" s="3">
-        <v>43</v>
+        <v>1004</v>
       </c>
       <c r="K118" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>18539</v>
+        <v>49001</v>
       </c>
       <c r="C119" s="4">
-        <v>1681</v>
+        <v>3733</v>
       </c>
       <c r="D119" s="3">
-        <v>2897</v>
+        <v>12344</v>
       </c>
       <c r="E119" s="3">
-        <v>2777</v>
+        <v>7178</v>
       </c>
       <c r="F119" s="3">
-        <v>2477</v>
+        <v>6166</v>
       </c>
       <c r="G119" s="4">
-        <v>1026</v>
+        <v>2634</v>
       </c>
       <c r="H119" s="3">
-        <v>835</v>
+        <v>2536</v>
       </c>
       <c r="I119" s="3">
-        <v>960</v>
+        <v>3272</v>
       </c>
       <c r="J119" s="3">
-        <v>498</v>
+        <v>2280</v>
       </c>
       <c r="K119" s="4">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>75149</v>
+        <v>60575</v>
       </c>
       <c r="C120" s="4">
-        <v>6372</v>
+        <v>4276</v>
       </c>
       <c r="D120" s="3">
-        <v>19363</v>
+        <v>15344</v>
       </c>
       <c r="E120" s="3">
-        <v>11800</v>
+        <v>10886</v>
       </c>
       <c r="F120" s="3">
-        <v>9419</v>
+        <v>7535</v>
       </c>
       <c r="G120" s="4">
-        <v>3756</v>
+        <v>3383</v>
       </c>
       <c r="H120" s="3">
-        <v>3168</v>
+        <v>2798</v>
       </c>
       <c r="I120" s="3">
-        <v>5191</v>
+        <v>3855</v>
       </c>
       <c r="J120" s="3">
-        <v>3330</v>
+        <v>1692</v>
       </c>
       <c r="K120" s="4">
-        <v>1244</v>
+        <v>595</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -5310,34 +5300,34 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>26470</v>
+        <v>25088</v>
       </c>
       <c r="C121" s="4">
-        <v>2622</v>
+        <v>1467</v>
       </c>
       <c r="D121" s="3">
-        <v>6588</v>
+        <v>4933</v>
       </c>
       <c r="E121" s="3">
-        <v>4242</v>
+        <v>4354</v>
       </c>
       <c r="F121" s="3">
-        <v>3227</v>
+        <v>3580</v>
       </c>
       <c r="G121" s="4">
-        <v>1239</v>
+        <v>1448</v>
       </c>
       <c r="H121" s="3">
-        <v>822</v>
+        <v>1476</v>
       </c>
       <c r="I121" s="3">
-        <v>1439</v>
+        <v>1559</v>
       </c>
       <c r="J121" s="3">
-        <v>1004</v>
+        <v>1064</v>
       </c>
       <c r="K121" s="4">
-        <v>235</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -5345,34 +5335,34 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>49001</v>
+        <v>45259</v>
       </c>
       <c r="C122" s="4">
-        <v>3733</v>
+        <v>3294</v>
       </c>
       <c r="D122" s="3">
-        <v>12344</v>
+        <v>9394</v>
       </c>
       <c r="E122" s="3">
-        <v>7178</v>
+        <v>7566</v>
       </c>
       <c r="F122" s="3">
-        <v>6166</v>
+        <v>5468</v>
       </c>
       <c r="G122" s="4">
-        <v>2634</v>
+        <v>2455</v>
       </c>
       <c r="H122" s="3">
-        <v>2536</v>
+        <v>2516</v>
       </c>
       <c r="I122" s="3">
-        <v>3272</v>
+        <v>2920</v>
       </c>
       <c r="J122" s="3">
-        <v>2280</v>
+        <v>1629</v>
       </c>
       <c r="K122" s="4">
-        <v>883</v>
+        <v>891</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -5380,69 +5370,69 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>438</v>
+        <v>50295</v>
       </c>
       <c r="C123" s="4">
-        <v>26</v>
+        <v>5171</v>
       </c>
       <c r="D123" s="3">
-        <v>47</v>
+        <v>11788</v>
       </c>
       <c r="E123" s="3">
-        <v>20</v>
+        <v>9364</v>
       </c>
       <c r="F123" s="3">
-        <v>89</v>
+        <v>5034</v>
       </c>
       <c r="G123" s="4">
-        <v>27</v>
+        <v>1707</v>
       </c>
       <c r="H123" s="3">
-        <v>17</v>
+        <v>1199</v>
       </c>
       <c r="I123" s="3">
-        <v>22</v>
+        <v>1630</v>
       </c>
       <c r="J123" s="3">
-        <v>48</v>
+        <v>678</v>
       </c>
       <c r="K123" s="4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>60575</v>
+        <v>23070</v>
       </c>
       <c r="C124" s="4">
-        <v>4276</v>
+        <v>1917</v>
       </c>
       <c r="D124" s="3">
-        <v>15344</v>
+        <v>4243</v>
       </c>
       <c r="E124" s="3">
-        <v>10886</v>
+        <v>3774</v>
       </c>
       <c r="F124" s="3">
-        <v>7535</v>
+        <v>2878</v>
       </c>
       <c r="G124" s="4">
-        <v>3383</v>
+        <v>1170</v>
       </c>
       <c r="H124" s="3">
-        <v>2798</v>
+        <v>839</v>
       </c>
       <c r="I124" s="3">
-        <v>3855</v>
+        <v>1063</v>
       </c>
       <c r="J124" s="3">
-        <v>1692</v>
+        <v>765</v>
       </c>
       <c r="K124" s="4">
-        <v>595</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -5450,34 +5440,34 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>25088</v>
+        <v>105188</v>
       </c>
       <c r="C125" s="4">
-        <v>1467</v>
+        <v>8405</v>
       </c>
       <c r="D125" s="3">
-        <v>4933</v>
+        <v>17538</v>
       </c>
       <c r="E125" s="3">
-        <v>4354</v>
+        <v>16273</v>
       </c>
       <c r="F125" s="3">
-        <v>3580</v>
+        <v>16298</v>
       </c>
       <c r="G125" s="4">
-        <v>1448</v>
+        <v>6446</v>
       </c>
       <c r="H125" s="3">
-        <v>1476</v>
+        <v>5326</v>
       </c>
       <c r="I125" s="3">
-        <v>1559</v>
+        <v>6215</v>
       </c>
       <c r="J125" s="3">
-        <v>1064</v>
+        <v>4052</v>
       </c>
       <c r="K125" s="4">
-        <v>281</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -5485,34 +5475,34 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>45259</v>
+        <v>54091</v>
       </c>
       <c r="C126" s="4">
-        <v>3294</v>
+        <v>4154</v>
       </c>
       <c r="D126" s="3">
-        <v>9394</v>
+        <v>9410</v>
       </c>
       <c r="E126" s="3">
-        <v>7566</v>
+        <v>8296</v>
       </c>
       <c r="F126" s="3">
-        <v>5468</v>
+        <v>6826</v>
       </c>
       <c r="G126" s="4">
-        <v>2455</v>
+        <v>2973</v>
       </c>
       <c r="H126" s="3">
-        <v>2516</v>
+        <v>2264</v>
       </c>
       <c r="I126" s="3">
-        <v>2920</v>
+        <v>2640</v>
       </c>
       <c r="J126" s="3">
-        <v>1629</v>
+        <v>2032</v>
       </c>
       <c r="K126" s="4">
-        <v>891</v>
+        <v>636</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -5520,34 +5510,34 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>50295</v>
+        <v>84904</v>
       </c>
       <c r="C127" s="4">
-        <v>5171</v>
+        <v>7048</v>
       </c>
       <c r="D127" s="3">
-        <v>11788</v>
+        <v>16362</v>
       </c>
       <c r="E127" s="3">
-        <v>9364</v>
+        <v>13914</v>
       </c>
       <c r="F127" s="3">
-        <v>5034</v>
+        <v>11870</v>
       </c>
       <c r="G127" s="4">
-        <v>1707</v>
+        <v>4590</v>
       </c>
       <c r="H127" s="3">
-        <v>1199</v>
+        <v>3625</v>
       </c>
       <c r="I127" s="3">
-        <v>1630</v>
+        <v>5723</v>
       </c>
       <c r="J127" s="3">
-        <v>678</v>
+        <v>2472</v>
       </c>
       <c r="K127" s="4">
-        <v>301</v>
+        <v>804</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -5555,34 +5545,34 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>23070</v>
+        <v>31750</v>
       </c>
       <c r="C128" s="4">
-        <v>1917</v>
+        <v>2304</v>
       </c>
       <c r="D128" s="3">
-        <v>4243</v>
+        <v>4801</v>
       </c>
       <c r="E128" s="3">
-        <v>3774</v>
+        <v>4365</v>
       </c>
       <c r="F128" s="3">
-        <v>2878</v>
+        <v>4614</v>
       </c>
       <c r="G128" s="4">
-        <v>1170</v>
+        <v>2082</v>
       </c>
       <c r="H128" s="3">
-        <v>839</v>
+        <v>1677</v>
       </c>
       <c r="I128" s="3">
-        <v>1063</v>
+        <v>2473</v>
       </c>
       <c r="J128" s="3">
-        <v>765</v>
+        <v>1291</v>
       </c>
       <c r="K128" s="4">
-        <v>352</v>
+        <v>504</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -5590,34 +5580,34 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>105188</v>
+        <v>70166</v>
       </c>
       <c r="C129" s="4">
-        <v>8405</v>
+        <v>5819</v>
       </c>
       <c r="D129" s="3">
-        <v>17538</v>
+        <v>12823</v>
       </c>
       <c r="E129" s="3">
-        <v>16273</v>
+        <v>10554</v>
       </c>
       <c r="F129" s="3">
-        <v>16298</v>
+        <v>9052</v>
       </c>
       <c r="G129" s="4">
-        <v>6446</v>
+        <v>4344</v>
       </c>
       <c r="H129" s="3">
-        <v>5326</v>
+        <v>2817</v>
       </c>
       <c r="I129" s="3">
-        <v>6215</v>
+        <v>3355</v>
       </c>
       <c r="J129" s="3">
-        <v>4052</v>
+        <v>2042</v>
       </c>
       <c r="K129" s="4">
-        <v>1594</v>
+        <v>828</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -5625,34 +5615,34 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>54091</v>
+        <v>39062</v>
       </c>
       <c r="C130" s="4">
-        <v>4154</v>
+        <v>2026</v>
       </c>
       <c r="D130" s="3">
-        <v>9410</v>
+        <v>4620</v>
       </c>
       <c r="E130" s="3">
-        <v>8296</v>
+        <v>6096</v>
       </c>
       <c r="F130" s="3">
-        <v>6826</v>
+        <v>5906</v>
       </c>
       <c r="G130" s="4">
-        <v>2973</v>
+        <v>2552</v>
       </c>
       <c r="H130" s="3">
-        <v>2264</v>
+        <v>2678</v>
       </c>
       <c r="I130" s="3">
-        <v>2640</v>
+        <v>3495</v>
       </c>
       <c r="J130" s="3">
-        <v>2032</v>
+        <v>2552</v>
       </c>
       <c r="K130" s="4">
-        <v>636</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -5660,34 +5650,34 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>84904</v>
+        <v>27677</v>
       </c>
       <c r="C131" s="4">
-        <v>7048</v>
+        <v>1729</v>
       </c>
       <c r="D131" s="3">
-        <v>16362</v>
+        <v>4066</v>
       </c>
       <c r="E131" s="3">
-        <v>13914</v>
+        <v>4414</v>
       </c>
       <c r="F131" s="3">
-        <v>11870</v>
+        <v>4091</v>
       </c>
       <c r="G131" s="4">
-        <v>4590</v>
+        <v>1914</v>
       </c>
       <c r="H131" s="3">
-        <v>3625</v>
+        <v>1814</v>
       </c>
       <c r="I131" s="3">
-        <v>5723</v>
+        <v>1744</v>
       </c>
       <c r="J131" s="3">
-        <v>2472</v>
+        <v>1100</v>
       </c>
       <c r="K131" s="4">
-        <v>804</v>
+        <v>680</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -5695,34 +5685,34 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>31750</v>
+        <v>84694</v>
       </c>
       <c r="C132" s="4">
-        <v>2304</v>
+        <v>3497</v>
       </c>
       <c r="D132" s="3">
-        <v>4801</v>
+        <v>14268</v>
       </c>
       <c r="E132" s="3">
-        <v>4365</v>
+        <v>13198</v>
       </c>
       <c r="F132" s="3">
-        <v>4614</v>
+        <v>11880</v>
       </c>
       <c r="G132" s="4">
-        <v>2082</v>
+        <v>5720</v>
       </c>
       <c r="H132" s="3">
-        <v>1677</v>
+        <v>5407</v>
       </c>
       <c r="I132" s="3">
-        <v>2473</v>
+        <v>6888</v>
       </c>
       <c r="J132" s="3">
-        <v>1291</v>
+        <v>5320</v>
       </c>
       <c r="K132" s="4">
-        <v>504</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -5730,34 +5720,34 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>70166</v>
+        <v>27500</v>
       </c>
       <c r="C133" s="4">
-        <v>5819</v>
+        <v>1398</v>
       </c>
       <c r="D133" s="3">
-        <v>12823</v>
+        <v>5222</v>
       </c>
       <c r="E133" s="3">
-        <v>10554</v>
+        <v>3873</v>
       </c>
       <c r="F133" s="3">
-        <v>9052</v>
+        <v>3671</v>
       </c>
       <c r="G133" s="4">
-        <v>4344</v>
+        <v>2130</v>
       </c>
       <c r="H133" s="3">
-        <v>2817</v>
+        <v>1893</v>
       </c>
       <c r="I133" s="3">
-        <v>3355</v>
+        <v>2257</v>
       </c>
       <c r="J133" s="3">
-        <v>2042</v>
+        <v>1518</v>
       </c>
       <c r="K133" s="4">
-        <v>828</v>
+        <v>708</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -5765,34 +5755,34 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>39062</v>
+        <v>69382</v>
       </c>
       <c r="C134" s="4">
-        <v>2026</v>
+        <v>4556</v>
       </c>
       <c r="D134" s="3">
-        <v>4620</v>
+        <v>10275</v>
       </c>
       <c r="E134" s="3">
-        <v>6096</v>
+        <v>10769</v>
       </c>
       <c r="F134" s="3">
-        <v>5906</v>
+        <v>11382</v>
       </c>
       <c r="G134" s="4">
-        <v>2552</v>
+        <v>4949</v>
       </c>
       <c r="H134" s="3">
-        <v>2678</v>
+        <v>3793</v>
       </c>
       <c r="I134" s="3">
-        <v>3495</v>
+        <v>5294</v>
       </c>
       <c r="J134" s="3">
-        <v>2552</v>
+        <v>3611</v>
       </c>
       <c r="K134" s="4">
-        <v>1226</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -5800,34 +5790,34 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>27677</v>
+        <v>24199</v>
       </c>
       <c r="C135" s="4">
-        <v>1729</v>
+        <v>1591</v>
       </c>
       <c r="D135" s="3">
-        <v>4066</v>
+        <v>3428</v>
       </c>
       <c r="E135" s="3">
-        <v>4414</v>
+        <v>3899</v>
       </c>
       <c r="F135" s="3">
-        <v>4091</v>
+        <v>3194</v>
       </c>
       <c r="G135" s="4">
-        <v>1914</v>
+        <v>1507</v>
       </c>
       <c r="H135" s="3">
-        <v>1814</v>
+        <v>1440</v>
       </c>
       <c r="I135" s="3">
-        <v>1744</v>
+        <v>1619</v>
       </c>
       <c r="J135" s="3">
-        <v>1100</v>
+        <v>1051</v>
       </c>
       <c r="K135" s="4">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -5835,34 +5825,34 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>84694</v>
+        <v>22943</v>
       </c>
       <c r="C136" s="4">
-        <v>3497</v>
+        <v>1265</v>
       </c>
       <c r="D136" s="3">
-        <v>14268</v>
+        <v>2311</v>
       </c>
       <c r="E136" s="3">
-        <v>13198</v>
+        <v>2763</v>
       </c>
       <c r="F136" s="3">
-        <v>11880</v>
+        <v>3750</v>
       </c>
       <c r="G136" s="4">
-        <v>5720</v>
+        <v>1631</v>
       </c>
       <c r="H136" s="3">
-        <v>5407</v>
+        <v>1522</v>
       </c>
       <c r="I136" s="3">
-        <v>6888</v>
+        <v>2127</v>
       </c>
       <c r="J136" s="3">
-        <v>5320</v>
+        <v>2429</v>
       </c>
       <c r="K136" s="4">
-        <v>2982</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -5870,34 +5860,34 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>27500</v>
+        <v>32331</v>
       </c>
       <c r="C137" s="4">
-        <v>1398</v>
+        <v>1646</v>
       </c>
       <c r="D137" s="3">
-        <v>5222</v>
+        <v>3981</v>
       </c>
       <c r="E137" s="3">
-        <v>3873</v>
+        <v>4091</v>
       </c>
       <c r="F137" s="3">
-        <v>3671</v>
+        <v>5193</v>
       </c>
       <c r="G137" s="4">
-        <v>2130</v>
+        <v>1987</v>
       </c>
       <c r="H137" s="3">
-        <v>1893</v>
+        <v>2100</v>
       </c>
       <c r="I137" s="3">
-        <v>2257</v>
+        <v>2855</v>
       </c>
       <c r="J137" s="3">
-        <v>1518</v>
+        <v>1904</v>
       </c>
       <c r="K137" s="4">
-        <v>708</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -5905,34 +5895,34 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>69382</v>
+        <v>51509</v>
       </c>
       <c r="C138" s="4">
-        <v>4556</v>
+        <v>3257</v>
       </c>
       <c r="D138" s="3">
-        <v>10275</v>
+        <v>8194</v>
       </c>
       <c r="E138" s="3">
-        <v>10769</v>
+        <v>7528</v>
       </c>
       <c r="F138" s="3">
-        <v>11382</v>
+        <v>8089</v>
       </c>
       <c r="G138" s="4">
-        <v>4949</v>
+        <v>3542</v>
       </c>
       <c r="H138" s="3">
-        <v>3793</v>
+        <v>3074</v>
       </c>
       <c r="I138" s="3">
-        <v>5294</v>
+        <v>4265</v>
       </c>
       <c r="J138" s="3">
-        <v>3611</v>
+        <v>2827</v>
       </c>
       <c r="K138" s="4">
-        <v>2109</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -5940,34 +5930,34 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>24199</v>
+        <v>27943</v>
       </c>
       <c r="C139" s="4">
-        <v>1591</v>
+        <v>2055</v>
       </c>
       <c r="D139" s="3">
-        <v>3428</v>
+        <v>4305</v>
       </c>
       <c r="E139" s="3">
-        <v>3899</v>
+        <v>4154</v>
       </c>
       <c r="F139" s="3">
-        <v>3194</v>
+        <v>4579</v>
       </c>
       <c r="G139" s="4">
-        <v>1507</v>
+        <v>1834</v>
       </c>
       <c r="H139" s="3">
-        <v>1440</v>
+        <v>1457</v>
       </c>
       <c r="I139" s="3">
-        <v>1619</v>
+        <v>2211</v>
       </c>
       <c r="J139" s="3">
-        <v>1051</v>
+        <v>1580</v>
       </c>
       <c r="K139" s="4">
-        <v>671</v>
+        <v>503</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -5975,34 +5965,34 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>22943</v>
+        <v>20989</v>
       </c>
       <c r="C140" s="4">
-        <v>1265</v>
+        <v>1409</v>
       </c>
       <c r="D140" s="3">
-        <v>2311</v>
+        <v>3203</v>
       </c>
       <c r="E140" s="3">
-        <v>2763</v>
+        <v>2818</v>
       </c>
       <c r="F140" s="3">
-        <v>3750</v>
+        <v>3571</v>
       </c>
       <c r="G140" s="4">
-        <v>1631</v>
+        <v>1334</v>
       </c>
       <c r="H140" s="3">
-        <v>1522</v>
+        <v>1127</v>
       </c>
       <c r="I140" s="3">
-        <v>2127</v>
+        <v>1271</v>
       </c>
       <c r="J140" s="3">
-        <v>2429</v>
+        <v>905</v>
       </c>
       <c r="K140" s="4">
-        <v>1054</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -6010,34 +6000,34 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>32331</v>
+        <v>25067</v>
       </c>
       <c r="C141" s="4">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="D141" s="3">
-        <v>3981</v>
+        <v>2798</v>
       </c>
       <c r="E141" s="3">
-        <v>4091</v>
+        <v>3182</v>
       </c>
       <c r="F141" s="3">
-        <v>5193</v>
+        <v>4557</v>
       </c>
       <c r="G141" s="4">
-        <v>1987</v>
+        <v>1867</v>
       </c>
       <c r="H141" s="3">
-        <v>2100</v>
+        <v>1541</v>
       </c>
       <c r="I141" s="3">
-        <v>2855</v>
+        <v>2362</v>
       </c>
       <c r="J141" s="3">
-        <v>1904</v>
+        <v>1394</v>
       </c>
       <c r="K141" s="4">
-        <v>1002</v>
+        <v>739</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -6045,34 +6035,34 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>51509</v>
+        <v>38449</v>
       </c>
       <c r="C142" s="4">
-        <v>3257</v>
+        <v>2714</v>
       </c>
       <c r="D142" s="3">
-        <v>8194</v>
+        <v>6944</v>
       </c>
       <c r="E142" s="3">
-        <v>7528</v>
+        <v>5433</v>
       </c>
       <c r="F142" s="3">
-        <v>8089</v>
+        <v>5465</v>
       </c>
       <c r="G142" s="4">
-        <v>3542</v>
+        <v>3016</v>
       </c>
       <c r="H142" s="3">
-        <v>3074</v>
+        <v>1789</v>
       </c>
       <c r="I142" s="3">
-        <v>4265</v>
+        <v>2806</v>
       </c>
       <c r="J142" s="3">
-        <v>2827</v>
+        <v>1367</v>
       </c>
       <c r="K142" s="4">
-        <v>1119</v>
+        <v>889</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -6080,69 +6070,69 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>27943</v>
-      </c>
-      <c r="C143" s="4">
-        <v>2055</v>
+        <v>36683</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2895</v>
       </c>
       <c r="D143" s="3">
-        <v>4305</v>
+        <v>5738</v>
       </c>
       <c r="E143" s="3">
-        <v>4154</v>
+        <v>4271</v>
       </c>
       <c r="F143" s="3">
-        <v>4579</v>
-      </c>
-      <c r="G143" s="4">
-        <v>1834</v>
+        <v>4708</v>
+      </c>
+      <c r="G143" s="3">
+        <v>2496</v>
       </c>
       <c r="H143" s="3">
-        <v>1457</v>
+        <v>1823</v>
       </c>
       <c r="I143" s="3">
-        <v>2211</v>
+        <v>2592</v>
       </c>
       <c r="J143" s="3">
-        <v>1580</v>
-      </c>
-      <c r="K143" s="4">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1938</v>
+      </c>
+      <c r="K143" s="3">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>20989</v>
-      </c>
-      <c r="C144" s="4">
-        <v>1409</v>
+        <v>33532</v>
+      </c>
+      <c r="C144" s="3">
+        <v>2824</v>
       </c>
       <c r="D144" s="3">
-        <v>3203</v>
+        <v>3677</v>
       </c>
       <c r="E144" s="3">
-        <v>2818</v>
+        <v>4363</v>
       </c>
       <c r="F144" s="3">
-        <v>3571</v>
-      </c>
-      <c r="G144" s="4">
-        <v>1334</v>
+        <v>4835</v>
+      </c>
+      <c r="G144" s="3">
+        <v>2408</v>
       </c>
       <c r="H144" s="3">
-        <v>1127</v>
+        <v>1880</v>
       </c>
       <c r="I144" s="3">
-        <v>1271</v>
+        <v>2348</v>
       </c>
       <c r="J144" s="3">
-        <v>905</v>
-      </c>
-      <c r="K144" s="4">
-        <v>311</v>
+        <v>1616</v>
+      </c>
+      <c r="K144" s="3">
+        <v>617</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -6150,34 +6140,34 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>25067</v>
-      </c>
-      <c r="C145" s="4">
-        <v>1640</v>
+        <v>18177</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1288</v>
       </c>
       <c r="D145" s="3">
-        <v>2798</v>
+        <v>2608</v>
       </c>
       <c r="E145" s="3">
-        <v>3182</v>
+        <v>2465</v>
       </c>
       <c r="F145" s="3">
-        <v>4557</v>
-      </c>
-      <c r="G145" s="4">
-        <v>1867</v>
+        <v>2973</v>
+      </c>
+      <c r="G145" s="3">
+        <v>1064</v>
       </c>
       <c r="H145" s="3">
-        <v>1541</v>
+        <v>862</v>
       </c>
       <c r="I145" s="3">
-        <v>2362</v>
+        <v>1412</v>
       </c>
       <c r="J145" s="3">
-        <v>1394</v>
-      </c>
-      <c r="K145" s="4">
-        <v>739</v>
+        <v>729</v>
+      </c>
+      <c r="K145" s="3">
+        <v>444</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -6185,34 +6175,34 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>38449</v>
-      </c>
-      <c r="C146" s="4">
-        <v>2714</v>
+        <v>59550</v>
+      </c>
+      <c r="C146" s="3">
+        <v>4906</v>
       </c>
       <c r="D146" s="3">
-        <v>6944</v>
+        <v>9283</v>
       </c>
       <c r="E146" s="3">
-        <v>5433</v>
+        <v>8900</v>
       </c>
       <c r="F146" s="3">
-        <v>5465</v>
-      </c>
-      <c r="G146" s="4">
-        <v>3016</v>
+        <v>8452</v>
+      </c>
+      <c r="G146" s="3">
+        <v>3260</v>
       </c>
       <c r="H146" s="3">
-        <v>1789</v>
+        <v>2704</v>
       </c>
       <c r="I146" s="3">
-        <v>2806</v>
+        <v>2829</v>
       </c>
       <c r="J146" s="3">
-        <v>1367</v>
-      </c>
-      <c r="K146" s="4">
-        <v>889</v>
+        <v>1462</v>
+      </c>
+      <c r="K146" s="3">
+        <v>738</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -6220,69 +6210,69 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>36683</v>
+        <v>65199</v>
       </c>
       <c r="C147" s="3">
-        <v>2895</v>
+        <v>5325</v>
       </c>
       <c r="D147" s="3">
-        <v>5738</v>
+        <v>9851</v>
       </c>
       <c r="E147" s="3">
-        <v>4271</v>
+        <v>9683</v>
       </c>
       <c r="F147" s="3">
-        <v>4708</v>
+        <v>9707</v>
       </c>
       <c r="G147" s="3">
-        <v>2496</v>
+        <v>4043</v>
       </c>
       <c r="H147" s="3">
-        <v>1823</v>
+        <v>3359</v>
       </c>
       <c r="I147" s="3">
-        <v>2592</v>
+        <v>3207</v>
       </c>
       <c r="J147" s="3">
-        <v>1938</v>
+        <v>1442</v>
       </c>
       <c r="K147" s="3">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>33532</v>
+        <v>22878</v>
       </c>
       <c r="C148" s="3">
-        <v>2824</v>
+        <v>1479</v>
       </c>
       <c r="D148" s="3">
-        <v>3677</v>
+        <v>4674</v>
       </c>
       <c r="E148" s="3">
-        <v>4363</v>
+        <v>3044</v>
       </c>
       <c r="F148" s="3">
-        <v>4835</v>
+        <v>3058</v>
       </c>
       <c r="G148" s="3">
-        <v>2408</v>
+        <v>1566</v>
       </c>
       <c r="H148" s="3">
-        <v>1880</v>
+        <v>1568</v>
       </c>
       <c r="I148" s="3">
-        <v>2348</v>
+        <v>1791</v>
       </c>
       <c r="J148" s="3">
-        <v>1616</v>
+        <v>850</v>
       </c>
       <c r="K148" s="3">
-        <v>617</v>
+        <v>536</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -6290,34 +6280,34 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>18177</v>
+        <v>80046</v>
       </c>
       <c r="C149" s="3">
-        <v>1288</v>
+        <v>6953</v>
       </c>
       <c r="D149" s="3">
-        <v>2608</v>
+        <v>11372</v>
       </c>
       <c r="E149" s="3">
-        <v>2465</v>
+        <v>11807</v>
       </c>
       <c r="F149" s="3">
-        <v>2973</v>
+        <v>12454</v>
       </c>
       <c r="G149" s="3">
-        <v>1064</v>
+        <v>5536</v>
       </c>
       <c r="H149" s="3">
-        <v>862</v>
+        <v>3701</v>
       </c>
       <c r="I149" s="3">
-        <v>1412</v>
+        <v>4934</v>
       </c>
       <c r="J149" s="3">
-        <v>729</v>
+        <v>2341</v>
       </c>
       <c r="K149" s="3">
-        <v>444</v>
+        <v>612</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -6325,34 +6315,34 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>59550</v>
+        <v>22136</v>
       </c>
       <c r="C150" s="3">
-        <v>4906</v>
+        <v>1851</v>
       </c>
       <c r="D150" s="3">
-        <v>9283</v>
+        <v>3143</v>
       </c>
       <c r="E150" s="3">
-        <v>8900</v>
+        <v>3214</v>
       </c>
       <c r="F150" s="3">
-        <v>8452</v>
+        <v>3523</v>
       </c>
       <c r="G150" s="3">
-        <v>3260</v>
+        <v>1319</v>
       </c>
       <c r="H150" s="3">
-        <v>2704</v>
+        <v>966</v>
       </c>
       <c r="I150" s="3">
-        <v>2829</v>
+        <v>1304</v>
       </c>
       <c r="J150" s="3">
-        <v>1462</v>
+        <v>704</v>
       </c>
       <c r="K150" s="3">
-        <v>738</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -6360,34 +6350,34 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>65199</v>
+        <v>28769</v>
       </c>
       <c r="C151" s="3">
-        <v>5325</v>
+        <v>1392</v>
       </c>
       <c r="D151" s="3">
-        <v>9851</v>
+        <v>3300</v>
       </c>
       <c r="E151" s="3">
-        <v>9683</v>
+        <v>3646</v>
       </c>
       <c r="F151" s="3">
-        <v>9707</v>
+        <v>3974</v>
       </c>
       <c r="G151" s="3">
-        <v>4043</v>
+        <v>2227</v>
       </c>
       <c r="H151" s="3">
-        <v>3359</v>
+        <v>1893</v>
       </c>
       <c r="I151" s="3">
-        <v>3207</v>
+        <v>3215</v>
       </c>
       <c r="J151" s="3">
-        <v>1442</v>
+        <v>2148</v>
       </c>
       <c r="K151" s="3">
-        <v>671</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -6395,69 +6385,69 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>22878</v>
+        <v>28097</v>
       </c>
       <c r="C152" s="3">
-        <v>1479</v>
+        <v>1287</v>
       </c>
       <c r="D152" s="3">
-        <v>4674</v>
+        <v>3697</v>
       </c>
       <c r="E152" s="3">
-        <v>3044</v>
+        <v>3928</v>
       </c>
       <c r="F152" s="3">
-        <v>3058</v>
+        <v>4470</v>
       </c>
       <c r="G152" s="3">
-        <v>1566</v>
+        <v>2306</v>
       </c>
       <c r="H152" s="3">
-        <v>1568</v>
+        <v>1775</v>
       </c>
       <c r="I152" s="3">
-        <v>1791</v>
+        <v>2149</v>
       </c>
       <c r="J152" s="3">
-        <v>850</v>
+        <v>1457</v>
       </c>
       <c r="K152" s="3">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>80046</v>
+        <v>25619</v>
       </c>
       <c r="C153" s="3">
-        <v>6953</v>
+        <v>1184</v>
       </c>
       <c r="D153" s="3">
-        <v>11372</v>
+        <v>2861</v>
       </c>
       <c r="E153" s="3">
-        <v>11807</v>
+        <v>3097</v>
       </c>
       <c r="F153" s="3">
-        <v>12454</v>
+        <v>4552</v>
       </c>
       <c r="G153" s="3">
-        <v>5536</v>
+        <v>1869</v>
       </c>
       <c r="H153" s="3">
-        <v>3701</v>
+        <v>1827</v>
       </c>
       <c r="I153" s="3">
-        <v>4934</v>
+        <v>2438</v>
       </c>
       <c r="J153" s="3">
-        <v>2341</v>
+        <v>1481</v>
       </c>
       <c r="K153" s="3">
-        <v>612</v>
+        <v>827</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -6465,34 +6455,34 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>22136</v>
+        <v>45522</v>
       </c>
       <c r="C154" s="3">
-        <v>1851</v>
+        <v>2529</v>
       </c>
       <c r="D154" s="3">
-        <v>3143</v>
+        <v>6258</v>
       </c>
       <c r="E154" s="3">
-        <v>3214</v>
+        <v>6025</v>
       </c>
       <c r="F154" s="3">
-        <v>3523</v>
+        <v>7765</v>
       </c>
       <c r="G154" s="3">
-        <v>1319</v>
+        <v>3246</v>
       </c>
       <c r="H154" s="3">
-        <v>966</v>
+        <v>2855</v>
       </c>
       <c r="I154" s="3">
-        <v>1304</v>
+        <v>3794</v>
       </c>
       <c r="J154" s="3">
-        <v>704</v>
+        <v>1997</v>
       </c>
       <c r="K154" s="3">
-        <v>308</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -6500,34 +6490,34 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>28769</v>
+        <v>20684</v>
       </c>
       <c r="C155" s="3">
-        <v>1392</v>
+        <v>1268</v>
       </c>
       <c r="D155" s="3">
-        <v>3300</v>
+        <v>2801</v>
       </c>
       <c r="E155" s="3">
-        <v>3646</v>
+        <v>2810</v>
       </c>
       <c r="F155" s="3">
-        <v>3974</v>
+        <v>3214</v>
       </c>
       <c r="G155" s="3">
-        <v>2227</v>
+        <v>1359</v>
       </c>
       <c r="H155" s="3">
-        <v>1893</v>
+        <v>1496</v>
       </c>
       <c r="I155" s="3">
-        <v>3215</v>
+        <v>1679</v>
       </c>
       <c r="J155" s="3">
-        <v>2148</v>
+        <v>1165</v>
       </c>
       <c r="K155" s="3">
-        <v>1068</v>
+        <v>475</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -6535,69 +6525,69 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>28097</v>
+        <v>36864</v>
       </c>
       <c r="C156" s="3">
-        <v>1287</v>
+        <v>2779</v>
       </c>
       <c r="D156" s="3">
-        <v>3697</v>
+        <v>5205</v>
       </c>
       <c r="E156" s="3">
-        <v>3928</v>
+        <v>5215</v>
       </c>
       <c r="F156" s="3">
-        <v>4470</v>
+        <v>4857</v>
       </c>
       <c r="G156" s="3">
-        <v>2306</v>
+        <v>1788</v>
       </c>
       <c r="H156" s="3">
-        <v>1775</v>
+        <v>1556</v>
       </c>
       <c r="I156" s="3">
-        <v>2149</v>
+        <v>2586</v>
       </c>
       <c r="J156" s="3">
-        <v>1457</v>
+        <v>1029</v>
       </c>
       <c r="K156" s="3">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>25619</v>
+        <v>26959</v>
       </c>
       <c r="C157" s="3">
-        <v>1184</v>
+        <v>1665</v>
       </c>
       <c r="D157" s="3">
-        <v>2861</v>
+        <v>3547</v>
       </c>
       <c r="E157" s="3">
-        <v>3097</v>
+        <v>3930</v>
       </c>
       <c r="F157" s="3">
-        <v>4552</v>
+        <v>3640</v>
       </c>
       <c r="G157" s="3">
-        <v>1869</v>
+        <v>1445</v>
       </c>
       <c r="H157" s="3">
-        <v>1827</v>
+        <v>1679</v>
       </c>
       <c r="I157" s="3">
-        <v>2438</v>
+        <v>2086</v>
       </c>
       <c r="J157" s="3">
-        <v>1481</v>
+        <v>1200</v>
       </c>
       <c r="K157" s="3">
-        <v>827</v>
+        <v>809</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -6605,34 +6595,34 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>45522</v>
+        <v>21520</v>
       </c>
       <c r="C158" s="3">
-        <v>2529</v>
+        <v>2034</v>
       </c>
       <c r="D158" s="3">
-        <v>6258</v>
+        <v>3033</v>
       </c>
       <c r="E158" s="3">
-        <v>6025</v>
+        <v>3046</v>
       </c>
       <c r="F158" s="3">
-        <v>7765</v>
+        <v>3278</v>
       </c>
       <c r="G158" s="3">
-        <v>3246</v>
+        <v>1294</v>
       </c>
       <c r="H158" s="3">
-        <v>2855</v>
+        <v>1236</v>
       </c>
       <c r="I158" s="3">
-        <v>3794</v>
+        <v>1484</v>
       </c>
       <c r="J158" s="3">
-        <v>1997</v>
+        <v>691</v>
       </c>
       <c r="K158" s="3">
-        <v>1356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -6640,34 +6630,34 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>20684</v>
+        <v>51098</v>
       </c>
       <c r="C159" s="3">
-        <v>1268</v>
+        <v>3749</v>
       </c>
       <c r="D159" s="3">
-        <v>2801</v>
+        <v>6476</v>
       </c>
       <c r="E159" s="3">
-        <v>2810</v>
+        <v>6926</v>
       </c>
       <c r="F159" s="3">
-        <v>3214</v>
+        <v>8342</v>
       </c>
       <c r="G159" s="3">
-        <v>1359</v>
+        <v>2889</v>
       </c>
       <c r="H159" s="3">
-        <v>1496</v>
+        <v>2815</v>
       </c>
       <c r="I159" s="3">
-        <v>1679</v>
+        <v>3176</v>
       </c>
       <c r="J159" s="3">
-        <v>1165</v>
+        <v>2496</v>
       </c>
       <c r="K159" s="3">
-        <v>475</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -6675,34 +6665,34 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>36864</v>
+        <v>50922</v>
       </c>
       <c r="C160" s="3">
-        <v>2779</v>
+        <v>3412</v>
       </c>
       <c r="D160" s="3">
-        <v>5205</v>
+        <v>8064</v>
       </c>
       <c r="E160" s="3">
-        <v>5215</v>
+        <v>8291</v>
       </c>
       <c r="F160" s="3">
-        <v>4857</v>
+        <v>7096</v>
       </c>
       <c r="G160" s="3">
-        <v>1788</v>
+        <v>3323</v>
       </c>
       <c r="H160" s="3">
+        <v>1992</v>
+      </c>
+      <c r="I160" s="3">
+        <v>3328</v>
+      </c>
+      <c r="J160" s="3">
         <v>1556</v>
       </c>
-      <c r="I160" s="3">
-        <v>2586</v>
-      </c>
-      <c r="J160" s="3">
-        <v>1029</v>
-      </c>
       <c r="K160" s="3">
-        <v>592</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -6710,69 +6700,69 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>26959</v>
+        <v>34293</v>
       </c>
       <c r="C161" s="3">
-        <v>1665</v>
+        <v>2686</v>
       </c>
       <c r="D161" s="3">
-        <v>3547</v>
+        <v>4493</v>
       </c>
       <c r="E161" s="3">
-        <v>3930</v>
+        <v>5085</v>
       </c>
       <c r="F161" s="3">
-        <v>3640</v>
+        <v>4760</v>
       </c>
       <c r="G161" s="3">
-        <v>1445</v>
+        <v>1992</v>
       </c>
       <c r="H161" s="3">
-        <v>1679</v>
+        <v>1704</v>
       </c>
       <c r="I161" s="3">
-        <v>2086</v>
+        <v>2048</v>
       </c>
       <c r="J161" s="3">
-        <v>1200</v>
+        <v>1064</v>
       </c>
       <c r="K161" s="3">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>21520</v>
+        <v>19901</v>
       </c>
       <c r="C162" s="3">
-        <v>2034</v>
+        <v>1865</v>
       </c>
       <c r="D162" s="3">
-        <v>3033</v>
+        <v>2960</v>
       </c>
       <c r="E162" s="3">
-        <v>3046</v>
+        <v>2622</v>
       </c>
       <c r="F162" s="3">
-        <v>3278</v>
+        <v>3167</v>
       </c>
       <c r="G162" s="3">
-        <v>1294</v>
+        <v>993</v>
       </c>
       <c r="H162" s="3">
-        <v>1236</v>
+        <v>1028</v>
       </c>
       <c r="I162" s="3">
-        <v>1484</v>
+        <v>1124</v>
       </c>
       <c r="J162" s="3">
-        <v>691</v>
+        <v>570</v>
       </c>
       <c r="K162" s="3">
-        <v>368</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -6780,34 +6770,34 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>51098</v>
+        <v>28201</v>
       </c>
       <c r="C163" s="3">
-        <v>3749</v>
+        <v>2123</v>
       </c>
       <c r="D163" s="3">
-        <v>6476</v>
+        <v>3921</v>
       </c>
       <c r="E163" s="3">
-        <v>6926</v>
+        <v>3425</v>
       </c>
       <c r="F163" s="3">
-        <v>8342</v>
+        <v>4360</v>
       </c>
       <c r="G163" s="3">
-        <v>2889</v>
+        <v>1877</v>
       </c>
       <c r="H163" s="3">
-        <v>2815</v>
+        <v>1516</v>
       </c>
       <c r="I163" s="3">
-        <v>3176</v>
+        <v>1504</v>
       </c>
       <c r="J163" s="3">
-        <v>2496</v>
+        <v>621</v>
       </c>
       <c r="K163" s="3">
-        <v>1050</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -6815,34 +6805,34 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>50922</v>
+        <v>20212</v>
       </c>
       <c r="C164" s="3">
-        <v>3412</v>
+        <v>1475</v>
       </c>
       <c r="D164" s="3">
-        <v>8064</v>
+        <v>2122</v>
       </c>
       <c r="E164" s="3">
-        <v>8291</v>
+        <v>2664</v>
       </c>
       <c r="F164" s="3">
-        <v>7096</v>
+        <v>3418</v>
       </c>
       <c r="G164" s="3">
-        <v>3323</v>
+        <v>1392</v>
       </c>
       <c r="H164" s="3">
-        <v>1992</v>
+        <v>1345</v>
       </c>
       <c r="I164" s="3">
-        <v>3328</v>
+        <v>2023</v>
       </c>
       <c r="J164" s="3">
-        <v>1556</v>
+        <v>1221</v>
       </c>
       <c r="K164" s="3">
-        <v>461</v>
+        <v>351</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -6850,104 +6840,104 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>34293</v>
+        <v>57549</v>
       </c>
       <c r="C165" s="3">
-        <v>2686</v>
+        <v>4665</v>
       </c>
       <c r="D165" s="3">
-        <v>4493</v>
+        <v>7950</v>
       </c>
       <c r="E165" s="3">
-        <v>5085</v>
+        <v>8477</v>
       </c>
       <c r="F165" s="3">
-        <v>4760</v>
+        <v>8551</v>
       </c>
       <c r="G165" s="3">
-        <v>1992</v>
+        <v>4216</v>
       </c>
       <c r="H165" s="3">
-        <v>1704</v>
+        <v>3003</v>
       </c>
       <c r="I165" s="3">
-        <v>2048</v>
+        <v>3988</v>
       </c>
       <c r="J165" s="3">
-        <v>1064</v>
+        <v>2123</v>
       </c>
       <c r="K165" s="3">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>19901</v>
+        <v>25964</v>
       </c>
       <c r="C166" s="3">
-        <v>1865</v>
+        <v>1492</v>
       </c>
       <c r="D166" s="3">
-        <v>2960</v>
+        <v>4047</v>
       </c>
       <c r="E166" s="3">
-        <v>2622</v>
+        <v>3310</v>
       </c>
       <c r="F166" s="3">
-        <v>3167</v>
+        <v>4331</v>
       </c>
       <c r="G166" s="3">
-        <v>993</v>
+        <v>1741</v>
       </c>
       <c r="H166" s="3">
-        <v>1028</v>
+        <v>1416</v>
       </c>
       <c r="I166" s="3">
-        <v>1124</v>
+        <v>1546</v>
       </c>
       <c r="J166" s="3">
-        <v>570</v>
+        <v>1083</v>
       </c>
       <c r="K166" s="3">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>28201</v>
+        <v>22427</v>
       </c>
       <c r="C167" s="3">
-        <v>2123</v>
+        <v>1025</v>
       </c>
       <c r="D167" s="3">
-        <v>3921</v>
+        <v>3217</v>
       </c>
       <c r="E167" s="3">
-        <v>3425</v>
+        <v>2390</v>
       </c>
       <c r="F167" s="3">
-        <v>4360</v>
+        <v>3107</v>
       </c>
       <c r="G167" s="3">
-        <v>1877</v>
+        <v>1703</v>
       </c>
       <c r="H167" s="3">
-        <v>1516</v>
+        <v>1625</v>
       </c>
       <c r="I167" s="3">
-        <v>1504</v>
+        <v>1861</v>
       </c>
       <c r="J167" s="3">
-        <v>621</v>
+        <v>1992</v>
       </c>
       <c r="K167" s="3">
-        <v>331</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -6955,69 +6945,69 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>20212</v>
+        <v>25141</v>
       </c>
       <c r="C168" s="3">
-        <v>1475</v>
+        <v>1514</v>
       </c>
       <c r="D168" s="3">
-        <v>2122</v>
+        <v>2891</v>
       </c>
       <c r="E168" s="3">
-        <v>2664</v>
+        <v>3220</v>
       </c>
       <c r="F168" s="3">
-        <v>3418</v>
+        <v>3965</v>
       </c>
       <c r="G168" s="3">
-        <v>1392</v>
+        <v>1713</v>
       </c>
       <c r="H168" s="3">
-        <v>1345</v>
+        <v>1811</v>
       </c>
       <c r="I168" s="3">
-        <v>2023</v>
+        <v>2182</v>
       </c>
       <c r="J168" s="3">
-        <v>1221</v>
+        <v>1267</v>
       </c>
       <c r="K168" s="3">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>57549</v>
+        <v>29543</v>
       </c>
       <c r="C169" s="3">
-        <v>4665</v>
+        <v>1212</v>
       </c>
       <c r="D169" s="3">
-        <v>7950</v>
+        <v>2749</v>
       </c>
       <c r="E169" s="3">
-        <v>8477</v>
+        <v>3973</v>
       </c>
       <c r="F169" s="3">
-        <v>8551</v>
+        <v>4730</v>
       </c>
       <c r="G169" s="3">
-        <v>4216</v>
+        <v>2277</v>
       </c>
       <c r="H169" s="3">
-        <v>3003</v>
+        <v>2286</v>
       </c>
       <c r="I169" s="3">
-        <v>3988</v>
+        <v>2758</v>
       </c>
       <c r="J169" s="3">
-        <v>2123</v>
+        <v>1824</v>
       </c>
       <c r="K169" s="3">
-        <v>692</v>
+        <v>727</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -7025,69 +7015,69 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>25964</v>
+        <v>35500</v>
       </c>
       <c r="C170" s="3">
-        <v>1492</v>
+        <v>2622</v>
       </c>
       <c r="D170" s="3">
-        <v>4047</v>
+        <v>4337</v>
       </c>
       <c r="E170" s="3">
-        <v>3310</v>
+        <v>4415</v>
       </c>
       <c r="F170" s="3">
-        <v>4331</v>
+        <v>5358</v>
       </c>
       <c r="G170" s="3">
-        <v>1741</v>
+        <v>1753</v>
       </c>
       <c r="H170" s="3">
-        <v>1416</v>
+        <v>1588</v>
       </c>
       <c r="I170" s="3">
-        <v>1546</v>
+        <v>2172</v>
       </c>
       <c r="J170" s="3">
-        <v>1083</v>
+        <v>1240</v>
       </c>
       <c r="K170" s="3">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>22427</v>
+        <v>50294</v>
       </c>
       <c r="C171" s="3">
-        <v>1025</v>
+        <v>4108</v>
       </c>
       <c r="D171" s="3">
-        <v>3217</v>
+        <v>7624</v>
       </c>
       <c r="E171" s="3">
-        <v>2390</v>
+        <v>5518</v>
       </c>
       <c r="F171" s="3">
-        <v>3107</v>
+        <v>5545</v>
       </c>
       <c r="G171" s="3">
-        <v>1703</v>
+        <v>2644</v>
       </c>
       <c r="H171" s="3">
-        <v>1625</v>
+        <v>2065</v>
       </c>
       <c r="I171" s="3">
-        <v>1861</v>
+        <v>3571</v>
       </c>
       <c r="J171" s="3">
-        <v>1992</v>
+        <v>2269</v>
       </c>
       <c r="K171" s="3">
-        <v>1481</v>
+        <v>974</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -7095,139 +7085,139 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>25141</v>
+        <v>24202</v>
       </c>
       <c r="C172" s="3">
-        <v>1514</v>
+        <v>1340</v>
       </c>
       <c r="D172" s="3">
-        <v>2891</v>
+        <v>2472</v>
       </c>
       <c r="E172" s="3">
-        <v>3220</v>
+        <v>3876</v>
       </c>
       <c r="F172" s="3">
-        <v>3965</v>
+        <v>3893</v>
       </c>
       <c r="G172" s="3">
-        <v>1713</v>
+        <v>1634</v>
       </c>
       <c r="H172" s="3">
-        <v>1811</v>
+        <v>1472</v>
       </c>
       <c r="I172" s="3">
-        <v>2182</v>
+        <v>1831</v>
       </c>
       <c r="J172" s="3">
         <v>1267</v>
       </c>
       <c r="K172" s="3">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>29543</v>
+        <v>23858</v>
       </c>
       <c r="C173" s="3">
-        <v>1212</v>
+        <v>2498</v>
       </c>
       <c r="D173" s="3">
-        <v>2749</v>
+        <v>3731</v>
       </c>
       <c r="E173" s="3">
-        <v>3973</v>
+        <v>2805</v>
       </c>
       <c r="F173" s="3">
-        <v>4730</v>
+        <v>3107</v>
       </c>
       <c r="G173" s="3">
-        <v>2277</v>
+        <v>959</v>
       </c>
       <c r="H173" s="3">
-        <v>2286</v>
+        <v>1145</v>
       </c>
       <c r="I173" s="3">
-        <v>2758</v>
+        <v>960</v>
       </c>
       <c r="J173" s="3">
-        <v>1824</v>
+        <v>599</v>
       </c>
       <c r="K173" s="3">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A174" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>35500</v>
+        <v>30473</v>
       </c>
       <c r="C174" s="3">
-        <v>2622</v>
+        <v>2585</v>
       </c>
       <c r="D174" s="3">
-        <v>4337</v>
+        <v>4475</v>
       </c>
       <c r="E174" s="3">
-        <v>4415</v>
+        <v>4378</v>
       </c>
       <c r="F174" s="3">
-        <v>5358</v>
+        <v>4378</v>
       </c>
       <c r="G174" s="3">
-        <v>1753</v>
+        <v>1537</v>
       </c>
       <c r="H174" s="3">
-        <v>1588</v>
+        <v>1302</v>
       </c>
       <c r="I174" s="3">
-        <v>2172</v>
+        <v>1363</v>
       </c>
       <c r="J174" s="3">
-        <v>1240</v>
+        <v>783</v>
       </c>
       <c r="K174" s="3">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A175" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>50294</v>
+        <v>31214</v>
       </c>
       <c r="C175" s="3">
-        <v>4108</v>
+        <v>2103</v>
       </c>
       <c r="D175" s="3">
-        <v>7624</v>
+        <v>4530</v>
       </c>
       <c r="E175" s="3">
-        <v>5518</v>
+        <v>4170</v>
       </c>
       <c r="F175" s="3">
-        <v>5545</v>
+        <v>4445</v>
       </c>
       <c r="G175" s="3">
-        <v>2644</v>
+        <v>1538</v>
       </c>
       <c r="H175" s="3">
-        <v>2065</v>
+        <v>1606</v>
       </c>
       <c r="I175" s="3">
-        <v>3571</v>
+        <v>1903</v>
       </c>
       <c r="J175" s="3">
-        <v>2269</v>
+        <v>982</v>
       </c>
       <c r="K175" s="3">
-        <v>974</v>
+        <v>397</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -7235,34 +7225,34 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>24202</v>
+        <v>19240</v>
       </c>
       <c r="C176" s="3">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="D176" s="3">
-        <v>2472</v>
+        <v>3137</v>
       </c>
       <c r="E176" s="3">
-        <v>3876</v>
+        <v>2577</v>
       </c>
       <c r="F176" s="3">
-        <v>3893</v>
+        <v>2475</v>
       </c>
       <c r="G176" s="3">
-        <v>1634</v>
+        <v>1098</v>
       </c>
       <c r="H176" s="3">
-        <v>1472</v>
+        <v>1024</v>
       </c>
       <c r="I176" s="3">
-        <v>1831</v>
+        <v>750</v>
       </c>
       <c r="J176" s="3">
-        <v>1267</v>
+        <v>841</v>
       </c>
       <c r="K176" s="3">
-        <v>636</v>
+        <v>386</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -7270,104 +7260,104 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>23858</v>
+        <v>18310</v>
       </c>
       <c r="C177" s="3">
-        <v>2498</v>
+        <v>1232</v>
       </c>
       <c r="D177" s="3">
-        <v>3731</v>
+        <v>2408</v>
       </c>
       <c r="E177" s="3">
-        <v>2805</v>
+        <v>2319</v>
       </c>
       <c r="F177" s="3">
-        <v>3107</v>
+        <v>2856</v>
       </c>
       <c r="G177" s="3">
-        <v>959</v>
+        <v>1336</v>
       </c>
       <c r="H177" s="3">
-        <v>1145</v>
+        <v>1016</v>
       </c>
       <c r="I177" s="3">
-        <v>960</v>
+        <v>927</v>
       </c>
       <c r="J177" s="3">
-        <v>599</v>
+        <v>835</v>
       </c>
       <c r="K177" s="3">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>30473</v>
+        <v>25635</v>
       </c>
       <c r="C178" s="3">
-        <v>2585</v>
+        <v>2116</v>
       </c>
       <c r="D178" s="3">
-        <v>4475</v>
+        <v>3998</v>
       </c>
       <c r="E178" s="3">
-        <v>4378</v>
+        <v>3429</v>
       </c>
       <c r="F178" s="3">
-        <v>4378</v>
+        <v>3799</v>
       </c>
       <c r="G178" s="3">
-        <v>1537</v>
+        <v>1872</v>
       </c>
       <c r="H178" s="3">
-        <v>1302</v>
+        <v>1089</v>
       </c>
       <c r="I178" s="3">
-        <v>1363</v>
+        <v>1445</v>
       </c>
       <c r="J178" s="3">
-        <v>783</v>
+        <v>1109</v>
       </c>
       <c r="K178" s="3">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>31214</v>
+        <v>39517</v>
       </c>
       <c r="C179" s="3">
-        <v>2103</v>
+        <v>2061</v>
       </c>
       <c r="D179" s="3">
-        <v>4530</v>
+        <v>4871</v>
       </c>
       <c r="E179" s="3">
-        <v>4170</v>
+        <v>5092</v>
       </c>
       <c r="F179" s="3">
-        <v>4445</v>
+        <v>5964</v>
       </c>
       <c r="G179" s="3">
-        <v>1538</v>
+        <v>3072</v>
       </c>
       <c r="H179" s="3">
-        <v>1606</v>
+        <v>2646</v>
       </c>
       <c r="I179" s="3">
-        <v>1903</v>
+        <v>3496</v>
       </c>
       <c r="J179" s="3">
-        <v>982</v>
+        <v>1716</v>
       </c>
       <c r="K179" s="3">
-        <v>397</v>
+        <v>962</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -7375,104 +7365,104 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>19240</v>
+        <v>14775</v>
       </c>
       <c r="C180" s="3">
-        <v>1328</v>
+        <v>941</v>
       </c>
       <c r="D180" s="3">
-        <v>3137</v>
+        <v>2157</v>
       </c>
       <c r="E180" s="3">
-        <v>2577</v>
+        <v>1809</v>
       </c>
       <c r="F180" s="3">
-        <v>2475</v>
+        <v>2220</v>
       </c>
       <c r="G180" s="3">
-        <v>1098</v>
+        <v>1082</v>
       </c>
       <c r="H180" s="3">
-        <v>1024</v>
+        <v>1094</v>
       </c>
       <c r="I180" s="3">
-        <v>750</v>
+        <v>1090</v>
       </c>
       <c r="J180" s="3">
-        <v>841</v>
+        <v>578</v>
       </c>
       <c r="K180" s="3">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A181" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>18310</v>
+        <v>31931</v>
       </c>
       <c r="C181" s="3">
-        <v>1232</v>
+        <v>2047</v>
       </c>
       <c r="D181" s="3">
-        <v>2408</v>
+        <v>3060</v>
       </c>
       <c r="E181" s="3">
-        <v>2319</v>
+        <v>4202</v>
       </c>
       <c r="F181" s="3">
-        <v>2856</v>
+        <v>5158</v>
       </c>
       <c r="G181" s="3">
-        <v>1336</v>
+        <v>2528</v>
       </c>
       <c r="H181" s="3">
-        <v>1016</v>
+        <v>2367</v>
       </c>
       <c r="I181" s="3">
-        <v>927</v>
+        <v>2795</v>
       </c>
       <c r="J181" s="3">
-        <v>835</v>
+        <v>1702</v>
       </c>
       <c r="K181" s="3">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A182" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>25635</v>
+        <v>24999</v>
       </c>
       <c r="C182" s="3">
-        <v>2116</v>
+        <v>2052</v>
       </c>
       <c r="D182" s="3">
-        <v>3998</v>
+        <v>3543</v>
       </c>
       <c r="E182" s="3">
-        <v>3429</v>
+        <v>3160</v>
       </c>
       <c r="F182" s="3">
-        <v>3799</v>
+        <v>3654</v>
       </c>
       <c r="G182" s="3">
-        <v>1872</v>
+        <v>1704</v>
       </c>
       <c r="H182" s="3">
-        <v>1089</v>
+        <v>1407</v>
       </c>
       <c r="I182" s="3">
-        <v>1445</v>
+        <v>2065</v>
       </c>
       <c r="J182" s="3">
-        <v>1109</v>
+        <v>1401</v>
       </c>
       <c r="K182" s="3">
-        <v>396</v>
+        <v>671</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -7480,69 +7470,69 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>39517</v>
+        <v>21208</v>
       </c>
       <c r="C183" s="3">
-        <v>2061</v>
+        <v>1351</v>
       </c>
       <c r="D183" s="3">
-        <v>4871</v>
+        <v>2380</v>
       </c>
       <c r="E183" s="3">
-        <v>5092</v>
+        <v>3142</v>
       </c>
       <c r="F183" s="3">
-        <v>5964</v>
+        <v>3718</v>
       </c>
       <c r="G183" s="3">
-        <v>3072</v>
+        <v>1275</v>
       </c>
       <c r="H183" s="3">
-        <v>2646</v>
+        <v>1229</v>
       </c>
       <c r="I183" s="3">
-        <v>3496</v>
+        <v>1559</v>
       </c>
       <c r="J183" s="3">
-        <v>1716</v>
+        <v>873</v>
       </c>
       <c r="K183" s="3">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A184" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>14775</v>
+        <v>28727</v>
       </c>
       <c r="C184" s="3">
-        <v>941</v>
+        <v>2142</v>
       </c>
       <c r="D184" s="3">
-        <v>2157</v>
+        <v>3095</v>
       </c>
       <c r="E184" s="3">
-        <v>1809</v>
+        <v>4019</v>
       </c>
       <c r="F184" s="3">
-        <v>2220</v>
+        <v>4880</v>
       </c>
       <c r="G184" s="3">
-        <v>1082</v>
+        <v>2093</v>
       </c>
       <c r="H184" s="3">
-        <v>1094</v>
+        <v>1867</v>
       </c>
       <c r="I184" s="3">
-        <v>1090</v>
+        <v>2332</v>
       </c>
       <c r="J184" s="3">
-        <v>578</v>
+        <v>1124</v>
       </c>
       <c r="K184" s="3">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="24" x14ac:dyDescent="0.3">
@@ -7550,69 +7540,69 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>31931</v>
+        <v>24083</v>
       </c>
       <c r="C185" s="3">
-        <v>2047</v>
+        <v>1512</v>
       </c>
       <c r="D185" s="3">
-        <v>3060</v>
+        <v>2976</v>
       </c>
       <c r="E185" s="3">
-        <v>4202</v>
+        <v>4070</v>
       </c>
       <c r="F185" s="3">
-        <v>5158</v>
+        <v>3959</v>
       </c>
       <c r="G185" s="3">
-        <v>2528</v>
+        <v>1301</v>
       </c>
       <c r="H185" s="3">
-        <v>2367</v>
+        <v>1073</v>
       </c>
       <c r="I185" s="3">
-        <v>2795</v>
+        <v>1661</v>
       </c>
       <c r="J185" s="3">
-        <v>1702</v>
+        <v>638</v>
       </c>
       <c r="K185" s="3">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>24999</v>
+        <v>22038</v>
       </c>
       <c r="C186" s="3">
-        <v>2052</v>
+        <v>1084</v>
       </c>
       <c r="D186" s="3">
-        <v>3543</v>
+        <v>2593</v>
       </c>
       <c r="E186" s="3">
-        <v>3160</v>
+        <v>3232</v>
       </c>
       <c r="F186" s="3">
-        <v>3654</v>
+        <v>3025</v>
       </c>
       <c r="G186" s="3">
-        <v>1704</v>
+        <v>1301</v>
       </c>
       <c r="H186" s="3">
-        <v>1407</v>
+        <v>1548</v>
       </c>
       <c r="I186" s="3">
-        <v>2065</v>
+        <v>2179</v>
       </c>
       <c r="J186" s="3">
-        <v>1401</v>
+        <v>1549</v>
       </c>
       <c r="K186" s="3">
-        <v>671</v>
+        <v>559</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -7620,243 +7610,103 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>21208</v>
+        <v>19938</v>
       </c>
       <c r="C187" s="3">
-        <v>1351</v>
+        <v>1205</v>
       </c>
       <c r="D187" s="3">
-        <v>2380</v>
+        <v>2671</v>
       </c>
       <c r="E187" s="3">
-        <v>3142</v>
+        <v>2951</v>
       </c>
       <c r="F187" s="3">
-        <v>3718</v>
+        <v>2926</v>
       </c>
       <c r="G187" s="3">
-        <v>1275</v>
+        <v>1476</v>
       </c>
       <c r="H187" s="3">
-        <v>1229</v>
+        <v>1434</v>
       </c>
       <c r="I187" s="3">
-        <v>1559</v>
+        <v>1587</v>
       </c>
       <c r="J187" s="3">
-        <v>873</v>
+        <v>539</v>
       </c>
       <c r="K187" s="3">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>28727</v>
+        <v>24799</v>
       </c>
       <c r="C188" s="3">
-        <v>2142</v>
+        <v>1377</v>
       </c>
       <c r="D188" s="3">
-        <v>3095</v>
+        <v>3187</v>
       </c>
       <c r="E188" s="3">
-        <v>4019</v>
+        <v>3888</v>
       </c>
       <c r="F188" s="3">
-        <v>4880</v>
+        <v>3705</v>
       </c>
       <c r="G188" s="3">
-        <v>2093</v>
+        <v>1776</v>
       </c>
       <c r="H188" s="3">
-        <v>1867</v>
+        <v>1996</v>
       </c>
       <c r="I188" s="3">
-        <v>2332</v>
+        <v>1712</v>
       </c>
       <c r="J188" s="3">
-        <v>1124</v>
+        <v>599</v>
       </c>
       <c r="K188" s="3">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>24083</v>
+        <v>43427</v>
       </c>
       <c r="C189" s="3">
-        <v>1512</v>
+        <v>2627</v>
       </c>
       <c r="D189" s="3">
-        <v>2976</v>
+        <v>4632</v>
       </c>
       <c r="E189" s="3">
-        <v>4070</v>
+        <v>6524</v>
       </c>
       <c r="F189" s="3">
-        <v>3959</v>
+        <v>7139</v>
       </c>
       <c r="G189" s="3">
-        <v>1301</v>
+        <v>2999</v>
       </c>
       <c r="H189" s="3">
-        <v>1073</v>
+        <v>2825</v>
       </c>
       <c r="I189" s="3">
-        <v>1661</v>
+        <v>3646</v>
       </c>
       <c r="J189" s="3">
-        <v>638</v>
+        <v>1770</v>
       </c>
       <c r="K189" s="3">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B190" s="2">
-        <v>22038</v>
-      </c>
-      <c r="C190" s="3">
-        <v>1084</v>
-      </c>
-      <c r="D190" s="3">
-        <v>2593</v>
-      </c>
-      <c r="E190" s="3">
-        <v>3232</v>
-      </c>
-      <c r="F190" s="3">
-        <v>3025</v>
-      </c>
-      <c r="G190" s="3">
-        <v>1301</v>
-      </c>
-      <c r="H190" s="3">
-        <v>1548</v>
-      </c>
-      <c r="I190" s="3">
-        <v>2179</v>
-      </c>
-      <c r="J190" s="3">
-        <v>1549</v>
-      </c>
-      <c r="K190" s="3">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B191" s="2">
-        <v>19938</v>
-      </c>
-      <c r="C191" s="3">
-        <v>1205</v>
-      </c>
-      <c r="D191" s="3">
-        <v>2671</v>
-      </c>
-      <c r="E191" s="3">
-        <v>2951</v>
-      </c>
-      <c r="F191" s="3">
-        <v>2926</v>
-      </c>
-      <c r="G191" s="3">
-        <v>1476</v>
-      </c>
-      <c r="H191" s="3">
-        <v>1434</v>
-      </c>
-      <c r="I191" s="3">
-        <v>1587</v>
-      </c>
-      <c r="J191" s="3">
-        <v>539</v>
-      </c>
-      <c r="K191" s="3">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B192" s="2">
-        <v>24799</v>
-      </c>
-      <c r="C192" s="3">
-        <v>1377</v>
-      </c>
-      <c r="D192" s="3">
-        <v>3187</v>
-      </c>
-      <c r="E192" s="3">
-        <v>3888</v>
-      </c>
-      <c r="F192" s="3">
-        <v>3705</v>
-      </c>
-      <c r="G192" s="3">
-        <v>1776</v>
-      </c>
-      <c r="H192" s="3">
-        <v>1996</v>
-      </c>
-      <c r="I192" s="3">
-        <v>1712</v>
-      </c>
-      <c r="J192" s="3">
-        <v>599</v>
-      </c>
-      <c r="K192" s="3">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B193" s="2">
-        <v>43427</v>
-      </c>
-      <c r="C193" s="3">
-        <v>2627</v>
-      </c>
-      <c r="D193" s="3">
-        <v>4632</v>
-      </c>
-      <c r="E193" s="3">
-        <v>6524</v>
-      </c>
-      <c r="F193" s="3">
-        <v>7139</v>
-      </c>
-      <c r="G193" s="3">
-        <v>2999</v>
-      </c>
-      <c r="H193" s="3">
-        <v>2825</v>
-      </c>
-      <c r="I193" s="3">
-        <v>3646</v>
-      </c>
-      <c r="J193" s="3">
-        <v>1770</v>
-      </c>
-      <c r="K193" s="3">
         <v>541</v>
       </c>
     </row>

--- a/Personal_Fit_Model/nyc_popn.xlsx
+++ b/Personal_Fit_Model/nyc_popn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\realtor-insights\Personal_Fit_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198CE497-9293-4631-B2E4-62D12F9C91B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072EB185-B27C-4839-BA18-ACE5041D802C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2988" yWindow="3240" windowWidth="4188" windowHeight="11952" xr2:uid="{81FBC0FE-682C-4D0A-A72B-84E50FF78C15}"/>
+    <workbookView xWindow="4380" yWindow="960" windowWidth="18168" windowHeight="11952" xr2:uid="{81FBC0FE-682C-4D0A-A72B-84E50FF78C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:K189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,7 +1135,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>32828</v>
+        <f>SUM(C2:K2)</f>
+        <v>15993</v>
       </c>
       <c r="C2" s="4">
         <v>3064</v>
@@ -1170,7 +1171,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>46070</v>
+        <f t="shared" ref="B3:B66" si="0">SUM(C3:K3)</f>
+        <v>35897</v>
       </c>
       <c r="C3" s="4">
         <v>4123</v>
@@ -1205,7 +1207,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>31522</v>
+        <f t="shared" si="0"/>
+        <v>27914</v>
       </c>
       <c r="C4" s="4">
         <v>2653</v>
@@ -1240,7 +1243,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>33155</v>
+        <f t="shared" si="0"/>
+        <v>28099</v>
       </c>
       <c r="C5" s="4">
         <v>3038</v>
@@ -1275,7 +1279,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>23498</v>
+        <f t="shared" si="0"/>
+        <v>19761</v>
       </c>
       <c r="C6" s="4">
         <v>1464</v>
@@ -1310,7 +1315,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>35373</v>
+        <f t="shared" si="0"/>
+        <v>28255</v>
       </c>
       <c r="C7" s="4">
         <v>2276</v>
@@ -1345,7 +1351,8 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>26982</v>
+        <f t="shared" si="0"/>
+        <v>21336</v>
       </c>
       <c r="C8" s="4">
         <v>2329</v>
@@ -1380,7 +1387,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>36413</v>
+        <f t="shared" si="0"/>
+        <v>29259</v>
       </c>
       <c r="C9" s="4">
         <v>4569</v>
@@ -1415,7 +1423,8 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>64331</v>
+        <f t="shared" si="0"/>
+        <v>46326</v>
       </c>
       <c r="C10" s="4">
         <v>5326</v>
@@ -1450,7 +1459,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>70095</v>
+        <f t="shared" si="0"/>
+        <v>46523</v>
       </c>
       <c r="C11" s="4">
         <v>6497</v>
@@ -1485,7 +1495,8 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>61817</v>
+        <f t="shared" si="0"/>
+        <v>44224</v>
       </c>
       <c r="C12" s="4">
         <v>6965</v>
@@ -1520,7 +1531,8 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>71247</v>
+        <f t="shared" si="0"/>
+        <v>51142</v>
       </c>
       <c r="C13" s="4">
         <v>6751</v>
@@ -1555,7 +1567,8 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>91956</v>
+        <f t="shared" si="0"/>
+        <v>61278</v>
       </c>
       <c r="C14" s="4">
         <v>7706</v>
@@ -1590,7 +1603,8 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>47526</v>
+        <f t="shared" si="0"/>
+        <v>32411</v>
       </c>
       <c r="C15" s="4">
         <v>4627</v>
@@ -1625,7 +1639,8 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>12822</v>
+        <f t="shared" si="0"/>
+        <v>9956</v>
       </c>
       <c r="C16" s="4">
         <v>1125</v>
@@ -1660,7 +1675,8 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>39422</v>
+        <f t="shared" si="0"/>
+        <v>31147</v>
       </c>
       <c r="C17" s="4">
         <v>1883</v>
@@ -1695,7 +1711,8 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>72864</v>
+        <f t="shared" si="0"/>
+        <v>59039</v>
       </c>
       <c r="C18" s="4">
         <v>4557</v>
@@ -1730,7 +1747,8 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>54932</v>
+        <f t="shared" si="0"/>
+        <v>40725</v>
       </c>
       <c r="C19" s="4">
         <v>4887</v>
@@ -1765,7 +1783,8 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>71460</v>
+        <f t="shared" si="0"/>
+        <v>51957</v>
       </c>
       <c r="C20" s="4">
         <v>6055</v>
@@ -1800,7 +1819,8 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>22571</v>
+        <f t="shared" si="0"/>
+        <v>18138</v>
       </c>
       <c r="C21" s="4">
         <v>1811</v>
@@ -1835,7 +1855,8 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>100130</v>
+        <f t="shared" si="0"/>
+        <v>74364</v>
       </c>
       <c r="C22" s="4">
         <v>7484</v>
@@ -1870,7 +1891,8 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>20449</v>
+        <f t="shared" si="0"/>
+        <v>17153</v>
       </c>
       <c r="C23" s="4">
         <v>1174</v>
@@ -1905,7 +1927,8 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>69397</v>
+        <f t="shared" si="0"/>
+        <v>52278</v>
       </c>
       <c r="C24" s="4">
         <v>5724</v>
@@ -1940,7 +1963,8 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>41243</v>
+        <f t="shared" si="0"/>
+        <v>28900</v>
       </c>
       <c r="C25" s="4">
         <v>4298</v>
@@ -1975,7 +1999,8 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>45216</v>
+        <f t="shared" si="0"/>
+        <v>35005</v>
       </c>
       <c r="C26" s="4">
         <v>3206</v>
@@ -2010,7 +2035,8 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>83821</v>
+        <f t="shared" si="0"/>
+        <v>65056</v>
       </c>
       <c r="C27" s="4">
         <v>4917</v>
@@ -2045,7 +2071,8 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>29311</v>
+        <f t="shared" si="0"/>
+        <v>23076</v>
       </c>
       <c r="C28" s="4">
         <v>1825</v>
@@ -2080,7 +2107,8 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>86592</v>
+        <f t="shared" si="0"/>
+        <v>66530</v>
       </c>
       <c r="C29" s="4">
         <v>5894</v>
@@ -2115,7 +2143,8 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>61066</v>
+        <f t="shared" si="0"/>
+        <v>48341</v>
       </c>
       <c r="C30" s="4">
         <v>3814</v>
@@ -2150,7 +2179,8 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>36199</v>
+        <f t="shared" si="0"/>
+        <v>25530</v>
       </c>
       <c r="C31" s="4">
         <v>2562</v>
@@ -2185,7 +2215,8 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>19541</v>
+        <f t="shared" si="0"/>
+        <v>13248</v>
       </c>
       <c r="C32" s="4">
         <v>1576</v>
@@ -2220,7 +2251,8 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>106203</v>
+        <f t="shared" si="0"/>
+        <v>63151</v>
       </c>
       <c r="C33" s="4">
         <v>8122</v>
@@ -2255,7 +2287,8 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>31584</v>
+        <f t="shared" si="0"/>
+        <v>25617</v>
       </c>
       <c r="C34" s="4">
         <v>1965</v>
@@ -2290,7 +2323,8 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>30018</v>
+        <f t="shared" si="0"/>
+        <v>22605</v>
       </c>
       <c r="C35" s="4">
         <v>2150</v>
@@ -2325,7 +2359,8 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>15472</v>
+        <f t="shared" si="0"/>
+        <v>14029</v>
       </c>
       <c r="C36" s="4">
         <v>611</v>
@@ -2360,7 +2395,8 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>27759</v>
+        <f t="shared" si="0"/>
+        <v>21987</v>
       </c>
       <c r="C37" s="4">
         <v>1590</v>
@@ -2395,7 +2431,8 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>105094</v>
+        <f t="shared" si="0"/>
+        <v>76285</v>
       </c>
       <c r="C38" s="4">
         <v>8663</v>
@@ -2430,7 +2467,8 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>51514</v>
+        <f t="shared" si="0"/>
+        <v>36611</v>
       </c>
       <c r="C39" s="4">
         <v>4038</v>
@@ -2465,7 +2503,8 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>61584</v>
+        <f t="shared" si="0"/>
+        <v>49164</v>
       </c>
       <c r="C40" s="4">
         <v>3625</v>
@@ -2500,7 +2539,8 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>41899</v>
+        <f t="shared" si="0"/>
+        <v>30785</v>
       </c>
       <c r="C41" s="4">
         <v>2688</v>
@@ -2535,7 +2575,8 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>40001</v>
+        <f t="shared" si="0"/>
+        <v>30618</v>
       </c>
       <c r="C42" s="4">
         <v>2532</v>
@@ -2570,7 +2611,8 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>31831</v>
+        <f t="shared" si="0"/>
+        <v>21477</v>
       </c>
       <c r="C43" s="4">
         <v>2467</v>
@@ -2605,7 +2647,8 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>55412</v>
+        <f t="shared" si="0"/>
+        <v>36567</v>
       </c>
       <c r="C44" s="4">
         <v>4442</v>
@@ -2640,7 +2683,8 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>29854</v>
+        <f t="shared" si="0"/>
+        <v>19009</v>
       </c>
       <c r="C45" s="4">
         <v>2817</v>
@@ -2675,7 +2719,8 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>52657</v>
+        <f t="shared" si="0"/>
+        <v>39822</v>
       </c>
       <c r="C46" s="4">
         <v>3728</v>
@@ -2710,7 +2755,8 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>29933</v>
+        <f t="shared" si="0"/>
+        <v>21556</v>
       </c>
       <c r="C47" s="4">
         <v>2290</v>
@@ -2745,7 +2791,8 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>56277</v>
+        <f t="shared" si="0"/>
+        <v>42147</v>
       </c>
       <c r="C48" s="4">
         <v>3987</v>
@@ -2780,7 +2827,8 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>48351</v>
+        <f t="shared" si="0"/>
+        <v>34928</v>
       </c>
       <c r="C49" s="4">
         <v>2820</v>
@@ -2815,7 +2863,8 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>86160</v>
+        <f t="shared" si="0"/>
+        <v>62312</v>
       </c>
       <c r="C50" s="3">
         <v>6933</v>
@@ -2850,7 +2899,8 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>70872</v>
+        <f t="shared" si="0"/>
+        <v>52014</v>
       </c>
       <c r="C51" s="3">
         <v>5760</v>
@@ -2885,7 +2935,8 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>27562</v>
+        <f t="shared" si="0"/>
+        <v>18024</v>
       </c>
       <c r="C52" s="3">
         <v>2505</v>
@@ -2920,7 +2971,8 @@
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>25542</v>
+        <f t="shared" si="0"/>
+        <v>16138</v>
       </c>
       <c r="C53" s="3">
         <v>1988</v>
@@ -2955,7 +3007,8 @@
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>39020</v>
+        <f t="shared" si="0"/>
+        <v>25101</v>
       </c>
       <c r="C54" s="3">
         <v>3754</v>
@@ -2990,7 +3043,8 @@
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>52132</v>
+        <f t="shared" si="0"/>
+        <v>34512</v>
       </c>
       <c r="C55" s="3">
         <v>4731</v>
@@ -3025,7 +3079,8 @@
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>30715</v>
+        <f t="shared" si="0"/>
+        <v>19642</v>
       </c>
       <c r="C56" s="3">
         <v>3091</v>
@@ -3060,7 +3115,8 @@
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>25783</v>
+        <f t="shared" si="0"/>
+        <v>16618</v>
       </c>
       <c r="C57" s="3">
         <v>4027</v>
@@ -3095,7 +3151,8 @@
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>41871</v>
+        <f t="shared" si="0"/>
+        <v>27174</v>
       </c>
       <c r="C58" s="3">
         <v>3995</v>
@@ -3130,7 +3187,8 @@
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>37872</v>
+        <f t="shared" si="0"/>
+        <v>24948</v>
       </c>
       <c r="C59" s="3">
         <v>3243</v>
@@ -3165,7 +3223,8 @@
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>20352</v>
+        <f t="shared" si="0"/>
+        <v>12575</v>
       </c>
       <c r="C60" s="3">
         <v>1452</v>
@@ -3200,7 +3259,8 @@
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>63504</v>
+        <f t="shared" si="0"/>
+        <v>44003</v>
       </c>
       <c r="C61" s="3">
         <v>5274</v>
@@ -3235,7 +3295,8 @@
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>37065</v>
+        <f t="shared" si="0"/>
+        <v>24245</v>
       </c>
       <c r="C62" s="3">
         <v>2782</v>
@@ -3270,7 +3331,8 @@
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>39680</v>
+        <f t="shared" si="0"/>
+        <v>26307</v>
       </c>
       <c r="C63" s="3">
         <v>2901</v>
@@ -3305,7 +3367,8 @@
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>53944</v>
+        <f t="shared" si="0"/>
+        <v>36541</v>
       </c>
       <c r="C64" s="3">
         <v>5142</v>
@@ -3340,7 +3403,8 @@
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>26336</v>
+        <f t="shared" si="0"/>
+        <v>16259</v>
       </c>
       <c r="C65" s="3">
         <v>2230</v>
@@ -3375,7 +3439,8 @@
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>52237</v>
+        <f t="shared" si="0"/>
+        <v>35214</v>
       </c>
       <c r="C66" s="3">
         <v>4468</v>
@@ -3410,7 +3475,8 @@
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>52591</v>
+        <f t="shared" ref="B67:B130" si="1">SUM(C67:K67)</f>
+        <v>35956</v>
       </c>
       <c r="C67" s="3">
         <v>4111</v>
@@ -3445,7 +3511,8 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>30599</v>
+        <f t="shared" si="1"/>
+        <v>22375</v>
       </c>
       <c r="C68" s="3">
         <v>2709</v>
@@ -3480,7 +3547,8 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>41217</v>
+        <f t="shared" si="1"/>
+        <v>28410</v>
       </c>
       <c r="C69" s="3">
         <v>3578</v>
@@ -3515,7 +3583,8 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>26839</v>
+        <f t="shared" si="1"/>
+        <v>20657</v>
       </c>
       <c r="C70" s="3">
         <v>2198</v>
@@ -3550,7 +3619,8 @@
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>49715</v>
+        <f t="shared" si="1"/>
+        <v>36231</v>
       </c>
       <c r="C71" s="3">
         <v>4447</v>
@@ -3585,7 +3655,8 @@
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>29848</v>
+        <f t="shared" si="1"/>
+        <v>23558</v>
       </c>
       <c r="C72" s="3">
         <v>1506</v>
@@ -3620,7 +3691,8 @@
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>35325</v>
+        <f t="shared" si="1"/>
+        <v>24578</v>
       </c>
       <c r="C73" s="3">
         <v>3031</v>
@@ -3655,7 +3727,8 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>53800</v>
+        <f t="shared" si="1"/>
+        <v>38496</v>
       </c>
       <c r="C74" s="3">
         <v>4439</v>
@@ -3690,7 +3763,8 @@
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>30376</v>
+        <f t="shared" si="1"/>
+        <v>22704</v>
       </c>
       <c r="C75" s="3">
         <v>1749</v>
@@ -3725,7 +3799,8 @@
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>35886</v>
+        <f t="shared" si="1"/>
+        <v>24527</v>
       </c>
       <c r="C76" s="3">
         <v>3042</v>
@@ -3760,7 +3835,8 @@
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>27483</v>
+        <f t="shared" si="1"/>
+        <v>18599</v>
       </c>
       <c r="C77" s="3">
         <v>1811</v>
@@ -3795,7 +3871,8 @@
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>26139</v>
+        <f t="shared" si="1"/>
+        <v>21327</v>
       </c>
       <c r="C78" s="3">
         <v>1367</v>
@@ -3830,7 +3907,8 @@
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>44304</v>
+        <f t="shared" si="1"/>
+        <v>35130</v>
       </c>
       <c r="C79" s="3">
         <v>2751</v>
@@ -3865,7 +3943,8 @@
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>46104</v>
+        <f t="shared" si="1"/>
+        <v>34631</v>
       </c>
       <c r="C80" s="3">
         <v>3505</v>
@@ -3900,7 +3979,8 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>33728</v>
+        <f t="shared" si="1"/>
+        <v>25074</v>
       </c>
       <c r="C81" s="3">
         <v>2354</v>
@@ -3935,7 +4015,8 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>33404</v>
+        <f t="shared" si="1"/>
+        <v>24886</v>
       </c>
       <c r="C82" s="3">
         <v>2351</v>
@@ -3970,7 +4051,8 @@
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>30098</v>
+        <f t="shared" si="1"/>
+        <v>21596</v>
       </c>
       <c r="C83" s="3">
         <v>2258</v>
@@ -4005,7 +4087,8 @@
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>30191</v>
+        <f t="shared" si="1"/>
+        <v>23303</v>
       </c>
       <c r="C84" s="3">
         <v>1912</v>
@@ -4040,7 +4123,8 @@
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>36676</v>
+        <f t="shared" si="1"/>
+        <v>25129</v>
       </c>
       <c r="C85" s="3">
         <v>2816</v>
@@ -4075,7 +4159,8 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>61503</v>
+        <f t="shared" si="1"/>
+        <v>42718</v>
       </c>
       <c r="C86" s="3">
         <v>4512</v>
@@ -4110,7 +4195,8 @@
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>45805</v>
+        <f t="shared" si="1"/>
+        <v>33965</v>
       </c>
       <c r="C87" s="3">
         <v>3599</v>
@@ -4145,7 +4231,8 @@
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>67185</v>
+        <f t="shared" si="1"/>
+        <v>58409</v>
       </c>
       <c r="C88" s="4">
         <v>4984</v>
@@ -4180,7 +4267,8 @@
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>40059</v>
+        <f t="shared" si="1"/>
+        <v>34138</v>
       </c>
       <c r="C89" s="4">
         <v>4130</v>
@@ -4215,7 +4303,8 @@
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>37506</v>
+        <f t="shared" si="1"/>
+        <v>31817</v>
       </c>
       <c r="C90" s="4">
         <v>3989</v>
@@ -4250,7 +4339,8 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>43755</v>
+        <f t="shared" si="1"/>
+        <v>37766</v>
       </c>
       <c r="C91" s="3">
         <v>5723</v>
@@ -4285,7 +4375,8 @@
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>46550</v>
+        <f t="shared" si="1"/>
+        <v>39105</v>
       </c>
       <c r="C92" s="3">
         <v>4109</v>
@@ -4320,7 +4411,8 @@
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>74243</v>
+        <f t="shared" si="1"/>
+        <v>60446</v>
       </c>
       <c r="C93" s="3">
         <v>5506</v>
@@ -4355,7 +4447,8 @@
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>69299</v>
+        <f t="shared" si="1"/>
+        <v>61504</v>
       </c>
       <c r="C94" s="4">
         <v>5256</v>
@@ -4390,7 +4483,8 @@
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>42931</v>
+        <f t="shared" si="1"/>
+        <v>39536</v>
       </c>
       <c r="C95" s="4">
         <v>4172</v>
@@ -4425,7 +4519,8 @@
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>28228</v>
+        <f t="shared" si="1"/>
+        <v>25335</v>
       </c>
       <c r="C96" s="4">
         <v>2809</v>
@@ -4460,7 +4555,8 @@
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>48393</v>
+        <f t="shared" si="1"/>
+        <v>44409</v>
       </c>
       <c r="C97" s="3">
         <v>3815</v>
@@ -4495,7 +4591,8 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>49515</v>
+        <f t="shared" si="1"/>
+        <v>44337</v>
       </c>
       <c r="C98" s="3">
         <v>6779</v>
@@ -4530,7 +4627,8 @@
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>26075</v>
+        <f t="shared" si="1"/>
+        <v>23664</v>
       </c>
       <c r="C99" s="3">
         <v>2682</v>
@@ -4565,7 +4663,8 @@
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>21864</v>
+        <f t="shared" si="1"/>
+        <v>19922</v>
       </c>
       <c r="C100" s="3">
         <v>3310</v>
@@ -4600,7 +4699,8 @@
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>135718</v>
+        <f t="shared" si="1"/>
+        <v>113279</v>
       </c>
       <c r="C101" s="3">
         <v>6682</v>
@@ -4635,7 +4735,8 @@
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>60205</v>
+        <f t="shared" si="1"/>
+        <v>50445</v>
       </c>
       <c r="C102" s="3">
         <v>2452</v>
@@ -4670,7 +4771,8 @@
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>81378</v>
+        <f t="shared" si="1"/>
+        <v>70549</v>
       </c>
       <c r="C103" s="4">
         <v>4786</v>
@@ -4705,7 +4807,8 @@
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>77676</v>
+        <f t="shared" si="1"/>
+        <v>68088</v>
       </c>
       <c r="C104" s="4">
         <v>4898</v>
@@ -4740,7 +4843,8 @@
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>58834</v>
+        <f t="shared" si="1"/>
+        <v>47599</v>
       </c>
       <c r="C105" s="4">
         <v>2144</v>
@@ -4775,7 +4879,8 @@
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>51527</v>
+        <f t="shared" si="1"/>
+        <v>39358</v>
       </c>
       <c r="C106" s="4">
         <v>4695</v>
@@ -4810,7 +4915,8 @@
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>23845</v>
+        <f t="shared" si="1"/>
+        <v>17948</v>
       </c>
       <c r="C107" s="4">
         <v>2526</v>
@@ -4845,7 +4951,8 @@
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>54326</v>
+        <f t="shared" si="1"/>
+        <v>43169</v>
       </c>
       <c r="C108" s="4">
         <v>8937</v>
@@ -4880,7 +4987,8 @@
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>78193</v>
+        <f t="shared" si="1"/>
+        <v>58700</v>
       </c>
       <c r="C109" s="4">
         <v>6873</v>
@@ -4915,7 +5023,8 @@
         <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>46694</v>
+        <f t="shared" si="1"/>
+        <v>35353</v>
       </c>
       <c r="C110" s="4">
         <v>3946</v>
@@ -4950,7 +5059,8 @@
         <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>59794</v>
+        <f t="shared" si="1"/>
+        <v>45795</v>
       </c>
       <c r="C111" s="4">
         <v>5410</v>
@@ -4985,7 +5095,8 @@
         <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>60465</v>
+        <f t="shared" si="1"/>
+        <v>42952</v>
       </c>
       <c r="C112" s="4">
         <v>5888</v>
@@ -5020,7 +5131,8 @@
         <v>188</v>
       </c>
       <c r="B113" s="2">
-        <v>50358</v>
+        <f t="shared" si="1"/>
+        <v>38107</v>
       </c>
       <c r="C113" s="4">
         <v>3934</v>
@@ -5055,7 +5167,8 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>71085</v>
+        <f t="shared" si="1"/>
+        <v>55781</v>
       </c>
       <c r="C114" s="4">
         <v>7048</v>
@@ -5090,7 +5203,8 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>89551</v>
+        <f t="shared" si="1"/>
+        <v>70847</v>
       </c>
       <c r="C115" s="4">
         <v>8742</v>
@@ -5125,7 +5239,8 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>18539</v>
+        <f t="shared" si="1"/>
+        <v>13310</v>
       </c>
       <c r="C116" s="4">
         <v>1681</v>
@@ -5160,7 +5275,8 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>75149</v>
+        <f t="shared" si="1"/>
+        <v>63643</v>
       </c>
       <c r="C117" s="4">
         <v>6372</v>
@@ -5195,7 +5311,8 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>26470</v>
+        <f t="shared" si="1"/>
+        <v>21418</v>
       </c>
       <c r="C118" s="4">
         <v>2622</v>
@@ -5230,7 +5347,8 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>49001</v>
+        <f t="shared" si="1"/>
+        <v>41026</v>
       </c>
       <c r="C119" s="4">
         <v>3733</v>
@@ -5265,7 +5383,8 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>60575</v>
+        <f t="shared" si="1"/>
+        <v>50364</v>
       </c>
       <c r="C120" s="4">
         <v>4276</v>
@@ -5300,7 +5419,8 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>25088</v>
+        <f t="shared" si="1"/>
+        <v>20162</v>
       </c>
       <c r="C121" s="4">
         <v>1467</v>
@@ -5335,7 +5455,8 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>45259</v>
+        <f t="shared" si="1"/>
+        <v>36133</v>
       </c>
       <c r="C122" s="4">
         <v>3294</v>
@@ -5370,7 +5491,8 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>50295</v>
+        <f t="shared" si="1"/>
+        <v>36872</v>
       </c>
       <c r="C123" s="4">
         <v>5171</v>
@@ -5405,7 +5527,8 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>23070</v>
+        <f t="shared" si="1"/>
+        <v>17001</v>
       </c>
       <c r="C124" s="4">
         <v>1917</v>
@@ -5440,7 +5563,8 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>105188</v>
+        <f t="shared" si="1"/>
+        <v>82147</v>
       </c>
       <c r="C125" s="4">
         <v>8405</v>
@@ -5475,7 +5599,8 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>54091</v>
+        <f t="shared" si="1"/>
+        <v>39231</v>
       </c>
       <c r="C126" s="4">
         <v>4154</v>
@@ -5510,7 +5635,8 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>84904</v>
+        <f t="shared" si="1"/>
+        <v>66408</v>
       </c>
       <c r="C127" s="4">
         <v>7048</v>
@@ -5545,7 +5671,8 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>31750</v>
+        <f t="shared" si="1"/>
+        <v>24111</v>
       </c>
       <c r="C128" s="4">
         <v>2304</v>
@@ -5580,7 +5707,8 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>70166</v>
+        <f t="shared" si="1"/>
+        <v>51634</v>
       </c>
       <c r="C129" s="4">
         <v>5819</v>
@@ -5615,7 +5743,8 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>39062</v>
+        <f t="shared" si="1"/>
+        <v>31151</v>
       </c>
       <c r="C130" s="4">
         <v>2026</v>
@@ -5650,7 +5779,8 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>27677</v>
+        <f t="shared" ref="B131:B189" si="2">SUM(C131:K131)</f>
+        <v>21552</v>
       </c>
       <c r="C131" s="4">
         <v>1729</v>
@@ -5685,7 +5815,8 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>84694</v>
+        <f t="shared" si="2"/>
+        <v>69160</v>
       </c>
       <c r="C132" s="4">
         <v>3497</v>
@@ -5720,7 +5851,8 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>27500</v>
+        <f t="shared" si="2"/>
+        <v>22670</v>
       </c>
       <c r="C133" s="4">
         <v>1398</v>
@@ -5755,7 +5887,8 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>69382</v>
+        <f t="shared" si="2"/>
+        <v>56738</v>
       </c>
       <c r="C134" s="4">
         <v>4556</v>
@@ -5790,7 +5923,8 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>24199</v>
+        <f t="shared" si="2"/>
+        <v>18400</v>
       </c>
       <c r="C135" s="4">
         <v>1591</v>
@@ -5825,7 +5959,8 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>22943</v>
+        <f t="shared" si="2"/>
+        <v>18852</v>
       </c>
       <c r="C136" s="4">
         <v>1265</v>
@@ -5860,7 +5995,8 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>32331</v>
+        <f t="shared" si="2"/>
+        <v>24759</v>
       </c>
       <c r="C137" s="4">
         <v>1646</v>
@@ -5895,7 +6031,8 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>51509</v>
+        <f t="shared" si="2"/>
+        <v>41895</v>
       </c>
       <c r="C138" s="4">
         <v>3257</v>
@@ -5930,7 +6067,8 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>27943</v>
+        <f t="shared" si="2"/>
+        <v>22678</v>
       </c>
       <c r="C139" s="4">
         <v>2055</v>
@@ -5965,7 +6103,8 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>20989</v>
+        <f t="shared" si="2"/>
+        <v>15949</v>
       </c>
       <c r="C140" s="4">
         <v>1409</v>
@@ -6000,7 +6139,8 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>25067</v>
+        <f t="shared" si="2"/>
+        <v>20080</v>
       </c>
       <c r="C141" s="4">
         <v>1640</v>
@@ -6035,7 +6175,8 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>38449</v>
+        <f t="shared" si="2"/>
+        <v>30423</v>
       </c>
       <c r="C142" s="4">
         <v>2714</v>
@@ -6070,7 +6211,8 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>36683</v>
+        <f t="shared" si="2"/>
+        <v>27001</v>
       </c>
       <c r="C143" s="3">
         <v>2895</v>
@@ -6105,7 +6247,8 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>33532</v>
+        <f t="shared" si="2"/>
+        <v>24568</v>
       </c>
       <c r="C144" s="3">
         <v>2824</v>
@@ -6140,7 +6283,8 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>18177</v>
+        <f t="shared" si="2"/>
+        <v>13845</v>
       </c>
       <c r="C145" s="3">
         <v>1288</v>
@@ -6175,7 +6319,8 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>59550</v>
+        <f t="shared" si="2"/>
+        <v>42534</v>
       </c>
       <c r="C146" s="3">
         <v>4906</v>
@@ -6210,7 +6355,8 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>65199</v>
+        <f t="shared" si="2"/>
+        <v>47288</v>
       </c>
       <c r="C147" s="3">
         <v>5325</v>
@@ -6245,7 +6391,8 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>22878</v>
+        <f t="shared" si="2"/>
+        <v>18566</v>
       </c>
       <c r="C148" s="3">
         <v>1479</v>
@@ -6280,7 +6427,8 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>80046</v>
+        <f t="shared" si="2"/>
+        <v>59710</v>
       </c>
       <c r="C149" s="3">
         <v>6953</v>
@@ -6315,7 +6463,8 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>22136</v>
+        <f t="shared" si="2"/>
+        <v>16332</v>
       </c>
       <c r="C150" s="3">
         <v>1851</v>
@@ -6350,7 +6499,8 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>28769</v>
+        <f t="shared" si="2"/>
+        <v>22863</v>
       </c>
       <c r="C151" s="3">
         <v>1392</v>
@@ -6385,7 +6535,8 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>28097</v>
+        <f t="shared" si="2"/>
+        <v>21911</v>
       </c>
       <c r="C152" s="3">
         <v>1287</v>
@@ -6420,7 +6571,8 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>25619</v>
+        <f t="shared" si="2"/>
+        <v>20136</v>
       </c>
       <c r="C153" s="3">
         <v>1184</v>
@@ -6455,7 +6607,8 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>45522</v>
+        <f t="shared" si="2"/>
+        <v>35825</v>
       </c>
       <c r="C154" s="3">
         <v>2529</v>
@@ -6490,7 +6643,8 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>20684</v>
+        <f t="shared" si="2"/>
+        <v>16267</v>
       </c>
       <c r="C155" s="3">
         <v>1268</v>
@@ -6525,7 +6679,8 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>36864</v>
+        <f t="shared" si="2"/>
+        <v>25607</v>
       </c>
       <c r="C156" s="3">
         <v>2779</v>
@@ -6560,7 +6715,8 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>26959</v>
+        <f t="shared" si="2"/>
+        <v>20001</v>
       </c>
       <c r="C157" s="3">
         <v>1665</v>
@@ -6595,7 +6751,8 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>21520</v>
+        <f t="shared" si="2"/>
+        <v>16464</v>
       </c>
       <c r="C158" s="3">
         <v>2034</v>
@@ -6630,7 +6787,8 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>51098</v>
+        <f t="shared" si="2"/>
+        <v>37919</v>
       </c>
       <c r="C159" s="3">
         <v>3749</v>
@@ -6665,7 +6823,8 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>50922</v>
+        <f t="shared" si="2"/>
+        <v>37523</v>
       </c>
       <c r="C160" s="3">
         <v>3412</v>
@@ -6700,7 +6859,8 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>34293</v>
+        <f t="shared" si="2"/>
+        <v>24383</v>
       </c>
       <c r="C161" s="3">
         <v>2686</v>
@@ -6735,7 +6895,8 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>19901</v>
+        <f t="shared" si="2"/>
+        <v>14471</v>
       </c>
       <c r="C162" s="3">
         <v>1865</v>
@@ -6770,7 +6931,8 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>28201</v>
+        <f t="shared" si="2"/>
+        <v>19678</v>
       </c>
       <c r="C163" s="3">
         <v>2123</v>
@@ -6805,7 +6967,8 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>20212</v>
+        <f t="shared" si="2"/>
+        <v>16011</v>
       </c>
       <c r="C164" s="3">
         <v>1475</v>
@@ -6840,7 +7003,8 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>57549</v>
+        <f t="shared" si="2"/>
+        <v>43665</v>
       </c>
       <c r="C165" s="3">
         <v>4665</v>
@@ -6875,7 +7039,8 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>25964</v>
+        <f t="shared" si="2"/>
+        <v>19481</v>
       </c>
       <c r="C166" s="3">
         <v>1492</v>
@@ -6910,7 +7075,8 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>22427</v>
+        <f t="shared" si="2"/>
+        <v>18401</v>
       </c>
       <c r="C167" s="3">
         <v>1025</v>
@@ -6945,7 +7111,8 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>25141</v>
+        <f t="shared" si="2"/>
+        <v>18908</v>
       </c>
       <c r="C168" s="3">
         <v>1514</v>
@@ -6980,7 +7147,8 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>29543</v>
+        <f t="shared" si="2"/>
+        <v>22536</v>
       </c>
       <c r="C169" s="3">
         <v>1212</v>
@@ -7015,7 +7183,8 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>35500</v>
+        <f t="shared" si="2"/>
+        <v>24049</v>
       </c>
       <c r="C170" s="3">
         <v>2622</v>
@@ -7050,7 +7219,8 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>50294</v>
+        <f t="shared" si="2"/>
+        <v>34318</v>
       </c>
       <c r="C171" s="3">
         <v>4108</v>
@@ -7085,7 +7255,8 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>24202</v>
+        <f t="shared" si="2"/>
+        <v>18421</v>
       </c>
       <c r="C172" s="3">
         <v>1340</v>
@@ -7120,7 +7291,8 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>23858</v>
+        <f t="shared" si="2"/>
+        <v>16147</v>
       </c>
       <c r="C173" s="3">
         <v>2498</v>
@@ -7155,7 +7327,8 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>30473</v>
+        <f t="shared" si="2"/>
+        <v>21057</v>
       </c>
       <c r="C174" s="3">
         <v>2585</v>
@@ -7190,7 +7363,8 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>31214</v>
+        <f t="shared" si="2"/>
+        <v>21674</v>
       </c>
       <c r="C175" s="3">
         <v>2103</v>
@@ -7225,7 +7399,8 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>19240</v>
+        <f t="shared" si="2"/>
+        <v>13616</v>
       </c>
       <c r="C176" s="3">
         <v>1328</v>
@@ -7260,7 +7435,8 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>18310</v>
+        <f t="shared" si="2"/>
+        <v>13362</v>
       </c>
       <c r="C177" s="3">
         <v>1232</v>
@@ -7295,7 +7471,8 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>25635</v>
+        <f t="shared" si="2"/>
+        <v>19253</v>
       </c>
       <c r="C178" s="3">
         <v>2116</v>
@@ -7330,7 +7507,8 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>39517</v>
+        <f t="shared" si="2"/>
+        <v>29880</v>
       </c>
       <c r="C179" s="3">
         <v>2061</v>
@@ -7365,7 +7543,8 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>14775</v>
+        <f t="shared" si="2"/>
+        <v>11291</v>
       </c>
       <c r="C180" s="3">
         <v>941</v>
@@ -7400,7 +7579,8 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>31931</v>
+        <f t="shared" si="2"/>
+        <v>24685</v>
       </c>
       <c r="C181" s="3">
         <v>2047</v>
@@ -7435,7 +7615,8 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>24999</v>
+        <f t="shared" si="2"/>
+        <v>19657</v>
       </c>
       <c r="C182" s="3">
         <v>2052</v>
@@ -7470,7 +7651,8 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>21208</v>
+        <f t="shared" si="2"/>
+        <v>15954</v>
       </c>
       <c r="C183" s="3">
         <v>1351</v>
@@ -7505,7 +7687,8 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>28727</v>
+        <f t="shared" si="2"/>
+        <v>21858</v>
       </c>
       <c r="C184" s="3">
         <v>2142</v>
@@ -7540,7 +7723,8 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>24083</v>
+        <f t="shared" si="2"/>
+        <v>17394</v>
       </c>
       <c r="C185" s="3">
         <v>1512</v>
@@ -7575,7 +7759,8 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>22038</v>
+        <f t="shared" si="2"/>
+        <v>17070</v>
       </c>
       <c r="C186" s="3">
         <v>1084</v>
@@ -7610,7 +7795,8 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>19938</v>
+        <f t="shared" si="2"/>
+        <v>14930</v>
       </c>
       <c r="C187" s="3">
         <v>1205</v>
@@ -7645,7 +7831,8 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>24799</v>
+        <f t="shared" si="2"/>
+        <v>18510</v>
       </c>
       <c r="C188" s="3">
         <v>1377</v>
@@ -7680,7 +7867,8 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>43427</v>
+        <f t="shared" si="2"/>
+        <v>32703</v>
       </c>
       <c r="C189" s="3">
         <v>2627</v>
